--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0643EE49-8F63-4063-A3BE-901FF5F4C493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B09532B-38F0-4B61-9FBE-3A253D008E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="546">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1671,6 +1671,9 @@
   </si>
   <si>
     <t>Motorlu Giriş Ünitesi</t>
+  </si>
+  <si>
+    <t>Adjacent</t>
   </si>
 </sst>
 </file>
@@ -1745,12 +1748,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2540,7 +2546,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:E43"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,10 +3909,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q62" sqref="Q62"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3930,7 +3936,7 @@
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3985,8 +3991,11 @@
       <c r="R1" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -4009,7 +4018,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -4038,7 +4047,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>279</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -4084,7 +4093,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -4116,7 +4125,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -4139,7 +4148,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>281</v>
       </c>
@@ -4162,7 +4171,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>281</v>
       </c>
@@ -4191,7 +4200,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -4217,7 +4226,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -4240,7 +4249,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -4278,7 +4287,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>288</v>
       </c>
@@ -4301,7 +4310,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>288</v>
       </c>
@@ -4333,7 +4342,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>288</v>
       </c>
@@ -4365,7 +4374,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -4801,7 +4810,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>303</v>
       </c>
@@ -4833,7 +4842,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>303</v>
       </c>
@@ -4865,7 +4874,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>303</v>
       </c>
@@ -4897,7 +4906,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>349</v>
       </c>
@@ -4920,7 +4929,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>352</v>
       </c>
@@ -4952,7 +4961,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>352</v>
       </c>
@@ -4984,7 +4993,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>370</v>
       </c>
@@ -5007,7 +5016,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>370</v>
       </c>
@@ -5036,7 +5045,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>370</v>
       </c>
@@ -5062,7 +5071,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -5094,7 +5103,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>378</v>
       </c>
@@ -5120,7 +5129,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>394</v>
       </c>
@@ -5143,7 +5152,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>396</v>
       </c>
@@ -5166,7 +5175,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>396</v>
       </c>
@@ -5195,7 +5204,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>397</v>
       </c>
@@ -5218,7 +5227,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>397</v>
       </c>
@@ -5240,8 +5249,11 @@
       <c r="Q48" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>398</v>
       </c>
@@ -5264,7 +5276,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>398</v>
       </c>
@@ -5296,7 +5308,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>398</v>
       </c>
@@ -5328,7 +5340,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>398</v>
       </c>
@@ -5360,7 +5372,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>399</v>
       </c>
@@ -5383,7 +5395,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>400</v>
       </c>
@@ -5406,7 +5418,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>400</v>
       </c>
@@ -5437,8 +5449,11 @@
       <c r="R55" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>400</v>
       </c>
@@ -5469,8 +5484,11 @@
       <c r="R56" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>400</v>
       </c>
@@ -5501,8 +5519,11 @@
       <c r="R57" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>400</v>
       </c>
@@ -5533,8 +5554,11 @@
       <c r="R58" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>400</v>
       </c>
@@ -5563,7 +5587,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>401</v>
       </c>
@@ -5586,7 +5610,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>401</v>
       </c>
@@ -5609,7 +5633,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>401</v>
       </c>
@@ -5642,7 +5666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B09532B-38F0-4B61-9FBE-3A253D008E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42BDB59-A01F-4CDF-936F-C58EE07AA49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3912,7 +3912,7 @@
   <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+      <selection activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5226,6 +5226,9 @@
       <c r="Q47" t="s">
         <v>252</v>
       </c>
+      <c r="S47" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -5416,6 +5419,9 @@
       </c>
       <c r="Q54" t="s">
         <v>252</v>
+      </c>
+      <c r="S54" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42BDB59-A01F-4CDF-936F-C58EE07AA49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7210C4A-AE0C-41AB-B021-E68FAA7664EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="595">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1674,6 +1674,153 @@
   </si>
   <si>
     <t>Adjacent</t>
+  </si>
+  <si>
+    <t>Dogrultma_Tipi_CMKS_opts</t>
+  </si>
+  <si>
+    <t>Dogrultma_Modeli_CMKS</t>
+  </si>
+  <si>
+    <t>Kaplama</t>
+  </si>
+  <si>
+    <t>Dogrultma_Ayar</t>
+  </si>
+  <si>
+    <t>Doğrultma Modeli</t>
+  </si>
+  <si>
+    <t>Doğrultma Ayar Tipi</t>
+  </si>
+  <si>
+    <t>Dogrultma_Modeli_CMKS_opts</t>
+  </si>
+  <si>
+    <t>Kaplama_opts</t>
+  </si>
+  <si>
+    <t>Dogrultma_Ayar_opts</t>
+  </si>
+  <si>
+    <t>D,T,L</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>06352</t>
+  </si>
+  <si>
+    <t>06372</t>
+  </si>
+  <si>
+    <t>06492</t>
+  </si>
+  <si>
+    <t>08052</t>
+  </si>
+  <si>
+    <t>08072</t>
+  </si>
+  <si>
+    <t>08092</t>
+  </si>
+  <si>
+    <t>10072</t>
+  </si>
+  <si>
+    <t>12572</t>
+  </si>
+  <si>
+    <t>16072</t>
+  </si>
+  <si>
+    <t>64132</t>
+  </si>
+  <si>
+    <t>80132</t>
+  </si>
+  <si>
+    <t>Düz Doğrultma</t>
+  </si>
+  <si>
+    <t>Timsah Doğrultma</t>
+  </si>
+  <si>
+    <t>Leveler Doğrultma</t>
+  </si>
+  <si>
+    <t>Ø63mm - 5 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø63mm - 7 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø64mm - 9 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø80mm - 5 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø80mm - 7 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø80mm - 9 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø100mm - 7 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø125mm - 7 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø160mm - 7 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø63mm - 13 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø80mm - 13 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Dogrultma_Modeli_harici_CMKS</t>
+  </si>
+  <si>
+    <t>Dogrultma_Modeli_harici_CMKS_opts</t>
+  </si>
+  <si>
+    <t>Listede Olmayan Doğrultma Modeli (belirtiniz...)</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Kaplama Yok</t>
+  </si>
+  <si>
+    <t>Krom Kaplama</t>
+  </si>
+  <si>
+    <t>Poliüretan Kaplama</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>MHF</t>
+  </si>
+  <si>
+    <t>İndikatörlü Ayarlama</t>
+  </si>
+  <si>
+    <t>Motorlu Hafızalı Ayarlama</t>
+  </si>
+  <si>
+    <t>D,T</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1759,6 +1906,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2545,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,10 +4058,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5575,7 +5724,7 @@
         <v>511</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
@@ -5583,14 +5732,23 @@
       <c r="F59" t="s">
         <v>510</v>
       </c>
+      <c r="K59" t="s">
+        <v>247</v>
+      </c>
+      <c r="L59" t="s">
+        <v>248</v>
+      </c>
       <c r="N59" t="s">
-        <v>400</v>
+        <v>501</v>
       </c>
       <c r="O59" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="R59" t="s">
         <v>383</v>
+      </c>
+      <c r="S59" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -5659,6 +5817,142 @@
         <v>527</v>
       </c>
       <c r="Q62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>402</v>
+      </c>
+      <c r="B63" t="s">
+        <v>402</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>402</v>
+      </c>
+      <c r="B64" t="s">
+        <v>547</v>
+      </c>
+      <c r="C64" t="s">
+        <v>550</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>552</v>
+      </c>
+      <c r="N64" t="s">
+        <v>402</v>
+      </c>
+      <c r="O64" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>252</v>
+      </c>
+      <c r="R64" t="s">
+        <v>383</v>
+      </c>
+      <c r="S64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>402</v>
+      </c>
+      <c r="B65" t="s">
+        <v>582</v>
+      </c>
+      <c r="C65" t="s">
+        <v>584</v>
+      </c>
+      <c r="D65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>583</v>
+      </c>
+      <c r="N65" t="s">
+        <v>547</v>
+      </c>
+      <c r="O65" t="s">
+        <v>139</v>
+      </c>
+      <c r="R65" t="s">
+        <v>383</v>
+      </c>
+      <c r="S65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>402</v>
+      </c>
+      <c r="B66" t="s">
+        <v>548</v>
+      </c>
+      <c r="C66" t="s">
+        <v>548</v>
+      </c>
+      <c r="D66" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>402</v>
+      </c>
+      <c r="B67" t="s">
+        <v>549</v>
+      </c>
+      <c r="C67" t="s">
+        <v>551</v>
+      </c>
+      <c r="D67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q67" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5670,10 +5964,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5682,7 +5976,7 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8186,7 +8480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>521</v>
       </c>
@@ -8200,7 +8494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>521</v>
       </c>
@@ -8214,7 +8508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>524</v>
       </c>
@@ -8228,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>524</v>
       </c>
@@ -8242,7 +8536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>527</v>
       </c>
@@ -8256,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>527</v>
       </c>
@@ -8267,6 +8561,346 @@
         <v>544</v>
       </c>
       <c r="D182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>546</v>
+      </c>
+      <c r="B183" t="s">
+        <v>241</v>
+      </c>
+      <c r="C183" t="s">
+        <v>568</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>546</v>
+      </c>
+      <c r="B184" t="s">
+        <v>516</v>
+      </c>
+      <c r="C184" t="s">
+        <v>569</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>546</v>
+      </c>
+      <c r="B185" t="s">
+        <v>556</v>
+      </c>
+      <c r="C185" t="s">
+        <v>570</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>552</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C186" t="s">
+        <v>571</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>402</v>
+      </c>
+      <c r="F186" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>552</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C187" t="s">
+        <v>572</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187" t="s">
+        <v>402</v>
+      </c>
+      <c r="F187" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>552</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C188" t="s">
+        <v>573</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>402</v>
+      </c>
+      <c r="F188" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>552</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C189" t="s">
+        <v>574</v>
+      </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+      <c r="E189" t="s">
+        <v>402</v>
+      </c>
+      <c r="F189" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>552</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C190" t="s">
+        <v>575</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>402</v>
+      </c>
+      <c r="F190" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>552</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C191" t="s">
+        <v>576</v>
+      </c>
+      <c r="D191">
+        <v>6</v>
+      </c>
+      <c r="E191" t="s">
+        <v>402</v>
+      </c>
+      <c r="F191" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>552</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C192" t="s">
+        <v>577</v>
+      </c>
+      <c r="D192">
+        <v>7</v>
+      </c>
+      <c r="E192" t="s">
+        <v>402</v>
+      </c>
+      <c r="F192" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>552</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C193" t="s">
+        <v>578</v>
+      </c>
+      <c r="D193">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>402</v>
+      </c>
+      <c r="F193" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>552</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C194" t="s">
+        <v>579</v>
+      </c>
+      <c r="D194">
+        <v>9</v>
+      </c>
+      <c r="E194" t="s">
+        <v>402</v>
+      </c>
+      <c r="F194" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>552</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C195" t="s">
+        <v>580</v>
+      </c>
+      <c r="D195">
+        <v>10</v>
+      </c>
+      <c r="E195" t="s">
+        <v>402</v>
+      </c>
+      <c r="F195" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>552</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C196" t="s">
+        <v>581</v>
+      </c>
+      <c r="D196">
+        <v>11</v>
+      </c>
+      <c r="E196" t="s">
+        <v>402</v>
+      </c>
+      <c r="F196" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>583</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>553</v>
+      </c>
+      <c r="B198" t="s">
+        <v>116</v>
+      </c>
+      <c r="C198" t="s">
+        <v>587</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>553</v>
+      </c>
+      <c r="B199" t="s">
+        <v>585</v>
+      </c>
+      <c r="C199" t="s">
+        <v>588</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>553</v>
+      </c>
+      <c r="B200" t="s">
+        <v>586</v>
+      </c>
+      <c r="C200" t="s">
+        <v>589</v>
+      </c>
+      <c r="D200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>554</v>
+      </c>
+      <c r="B201" t="s">
+        <v>590</v>
+      </c>
+      <c r="C201" t="s">
+        <v>592</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>554</v>
+      </c>
+      <c r="B202" t="s">
+        <v>591</v>
+      </c>
+      <c r="C202" t="s">
+        <v>593</v>
+      </c>
+      <c r="D202">
         <v>2</v>
       </c>
     </row>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7210C4A-AE0C-41AB-B021-E68FAA7664EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00EE75F-C9EB-4064-A613-0A93329EEF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="641">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1821,6 +1821,144 @@
   </si>
   <si>
     <t>D,T</t>
+  </si>
+  <si>
+    <t>Hiz_opts</t>
+  </si>
+  <si>
+    <t>Cikis_Unitesi_CMKS_opts</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Yaglayici_opts</t>
+  </si>
+  <si>
+    <t>Yağlayıcı Yok</t>
+  </si>
+  <si>
+    <t>Keçe Tipi Yağlayıcı</t>
+  </si>
+  <si>
+    <t>Spray Tipi Yağlayıcı</t>
+  </si>
+  <si>
+    <t>Giyotin_opts</t>
+  </si>
+  <si>
+    <t>Giyotin Yok</t>
+  </si>
+  <si>
+    <t>Hidrolik Giyotin</t>
+  </si>
+  <si>
+    <t>Servo Giyotin</t>
+  </si>
+  <si>
+    <t>Govde_Sonu_Tipi_opts</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>PBL</t>
+  </si>
+  <si>
+    <t>Çıkışta Yolluk</t>
+  </si>
+  <si>
+    <t>Cikis_Yolluk</t>
+  </si>
+  <si>
+    <t>Cikis_Yolluk_opts</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
+    <t>Osa Takozu</t>
+  </si>
+  <si>
+    <t>Pres Bağlantısı</t>
+  </si>
+  <si>
+    <t>Lineer Raylı Pres Bağlantısı</t>
+  </si>
+  <si>
+    <t>Sabit Yolluk</t>
+  </si>
+  <si>
+    <t>Teleskopik Yolluk</t>
+  </si>
+  <si>
+    <t>Yer_Baglanti_tipi_opts</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>Sabit Ayak</t>
+  </si>
+  <si>
+    <t>Manuel Ayarlanabilen Ayak</t>
+  </si>
+  <si>
+    <t>Otomatik Seviye Ayarı</t>
+  </si>
+  <si>
+    <t>Yer_Baglanti_Enkoder</t>
+  </si>
+  <si>
+    <t>Enkoder Var Mı?</t>
+  </si>
+  <si>
+    <t>Yer_Baglanti_Enkoder_opts</t>
+  </si>
+  <si>
+    <t>Enkoderli Seviye Ayarı</t>
+  </si>
+  <si>
+    <t>Sac_Gecis_Olcusu_opts</t>
+  </si>
+  <si>
+    <t>Sac_Gecis_Strok</t>
+  </si>
+  <si>
+    <t>Seviye Ayarı Stroku</t>
+  </si>
+  <si>
+    <t>Sac_Gecis_Strok_opts</t>
+  </si>
+  <si>
+    <t>MA,OA</t>
+  </si>
+  <si>
+    <t>(200 mm yükseklik ayarı [±100 mm])</t>
+  </si>
+  <si>
+    <t>(300 mm yükseklik ayarı [±150 mm])</t>
+  </si>
+  <si>
+    <t>(400 mm yükseklik ayarı [±200 mm])</t>
+  </si>
+  <si>
+    <t>Hidrolik_Unite_CMKS_opts</t>
+  </si>
+  <si>
+    <t>HU</t>
   </si>
 </sst>
 </file>
@@ -1847,12 +1985,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1895,7 +2039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1908,6 +2052,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2694,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:E44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,10 +4203,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5569,9 +5714,6 @@
       <c r="Q54" t="s">
         <v>252</v>
       </c>
-      <c r="S54" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5796,6 +5938,9 @@
       <c r="Q61" t="s">
         <v>253</v>
       </c>
+      <c r="S61" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -5819,6 +5964,9 @@
       <c r="Q62" t="s">
         <v>252</v>
       </c>
+      <c r="S62" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -5953,6 +6101,280 @@
         <v>554</v>
       </c>
       <c r="Q67" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>403</v>
+      </c>
+      <c r="B68" t="s">
+        <v>403</v>
+      </c>
+      <c r="C68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>404</v>
+      </c>
+      <c r="B69" t="s">
+        <v>404</v>
+      </c>
+      <c r="C69" t="s">
+        <v>405</v>
+      </c>
+      <c r="D69" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>406</v>
+      </c>
+      <c r="B70" t="s">
+        <v>406</v>
+      </c>
+      <c r="C70" t="s">
+        <v>407</v>
+      </c>
+      <c r="D70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>408</v>
+      </c>
+      <c r="B71" t="s">
+        <v>408</v>
+      </c>
+      <c r="C71" t="s">
+        <v>408</v>
+      </c>
+      <c r="D71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>409</v>
+      </c>
+      <c r="B72" t="s">
+        <v>409</v>
+      </c>
+      <c r="C72" t="s">
+        <v>410</v>
+      </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>409</v>
+      </c>
+      <c r="B73" t="s">
+        <v>611</v>
+      </c>
+      <c r="C73" t="s">
+        <v>610</v>
+      </c>
+      <c r="D73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>411</v>
+      </c>
+      <c r="B74" t="s">
+        <v>411</v>
+      </c>
+      <c r="C74" t="s">
+        <v>412</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>411</v>
+      </c>
+      <c r="B75" t="s">
+        <v>627</v>
+      </c>
+      <c r="C75" t="s">
+        <v>628</v>
+      </c>
+      <c r="D75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>629</v>
+      </c>
+      <c r="N75" t="s">
+        <v>411</v>
+      </c>
+      <c r="O75" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>252</v>
+      </c>
+      <c r="R75" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>413</v>
+      </c>
+      <c r="B76" t="s">
+        <v>413</v>
+      </c>
+      <c r="C76" t="s">
+        <v>414</v>
+      </c>
+      <c r="D76" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>413</v>
+      </c>
+      <c r="B77" t="s">
+        <v>632</v>
+      </c>
+      <c r="C77" t="s">
+        <v>633</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>634</v>
+      </c>
+      <c r="K77" t="s">
+        <v>247</v>
+      </c>
+      <c r="L77" t="s">
+        <v>248</v>
+      </c>
+      <c r="N77" t="s">
+        <v>411</v>
+      </c>
+      <c r="O77" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>252</v>
+      </c>
+      <c r="R77" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>415</v>
+      </c>
+      <c r="B78" t="s">
+        <v>415</v>
+      </c>
+      <c r="C78" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q78" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5964,10 +6386,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="E201" sqref="E201"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7653,7 +8075,7 @@
       <c r="B117">
         <v>50</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="6" t="s">
         <v>380</v>
       </c>
       <c r="D117">
@@ -8828,21 +9250,27 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>583</v>
+        <v>552</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C197" t="s">
+        <v>140</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E197" t="s">
+        <v>402</v>
+      </c>
+      <c r="F197" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>553</v>
-      </c>
-      <c r="B198" t="s">
-        <v>116</v>
-      </c>
-      <c r="C198" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -8853,13 +9281,13 @@
         <v>553</v>
       </c>
       <c r="B199" t="s">
-        <v>585</v>
+        <v>116</v>
       </c>
       <c r="C199" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -8867,27 +9295,27 @@
         <v>553</v>
       </c>
       <c r="B200" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C200" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B201" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C201" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -8895,13 +9323,371 @@
         <v>554</v>
       </c>
       <c r="B202" t="s">
+        <v>590</v>
+      </c>
+      <c r="C202" t="s">
+        <v>592</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>554</v>
+      </c>
+      <c r="B203" t="s">
         <v>591</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>593</v>
       </c>
-      <c r="D202">
+      <c r="D203">
         <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>595</v>
+      </c>
+      <c r="B204">
+        <v>50</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>596</v>
+      </c>
+      <c r="B205" t="s">
+        <v>597</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>598</v>
+      </c>
+      <c r="B206" t="s">
+        <v>116</v>
+      </c>
+      <c r="C206" t="s">
+        <v>599</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>598</v>
+      </c>
+      <c r="B207" t="s">
+        <v>70</v>
+      </c>
+      <c r="C207" t="s">
+        <v>600</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>598</v>
+      </c>
+      <c r="B208" t="s">
+        <v>71</v>
+      </c>
+      <c r="C208" t="s">
+        <v>601</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>602</v>
+      </c>
+      <c r="B209" t="s">
+        <v>116</v>
+      </c>
+      <c r="C209" t="s">
+        <v>603</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>602</v>
+      </c>
+      <c r="B210" t="s">
+        <v>67</v>
+      </c>
+      <c r="C210" t="s">
+        <v>604</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>602</v>
+      </c>
+      <c r="B211" t="s">
+        <v>68</v>
+      </c>
+      <c r="C211" t="s">
+        <v>605</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>606</v>
+      </c>
+      <c r="B212" t="s">
+        <v>116</v>
+      </c>
+      <c r="C212" t="s">
+        <v>515</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>606</v>
+      </c>
+      <c r="B213" t="s">
+        <v>607</v>
+      </c>
+      <c r="C213" t="s">
+        <v>615</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>606</v>
+      </c>
+      <c r="B214" t="s">
+        <v>608</v>
+      </c>
+      <c r="C214" t="s">
+        <v>616</v>
+      </c>
+      <c r="D214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>606</v>
+      </c>
+      <c r="B215" t="s">
+        <v>609</v>
+      </c>
+      <c r="C215" t="s">
+        <v>617</v>
+      </c>
+      <c r="D215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>612</v>
+      </c>
+      <c r="B216" t="s">
+        <v>116</v>
+      </c>
+      <c r="C216" t="s">
+        <v>515</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>612</v>
+      </c>
+      <c r="B217" t="s">
+        <v>613</v>
+      </c>
+      <c r="C217" t="s">
+        <v>618</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>612</v>
+      </c>
+      <c r="B218" t="s">
+        <v>614</v>
+      </c>
+      <c r="C218" t="s">
+        <v>619</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>620</v>
+      </c>
+      <c r="B219" t="s">
+        <v>621</v>
+      </c>
+      <c r="C219" t="s">
+        <v>624</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>620</v>
+      </c>
+      <c r="B220" t="s">
+        <v>622</v>
+      </c>
+      <c r="C220" t="s">
+        <v>625</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>620</v>
+      </c>
+      <c r="B221" t="s">
+        <v>623</v>
+      </c>
+      <c r="C221" t="s">
+        <v>626</v>
+      </c>
+      <c r="D221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>629</v>
+      </c>
+      <c r="B222" t="s">
+        <v>116</v>
+      </c>
+      <c r="C222" t="s">
+        <v>515</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>629</v>
+      </c>
+      <c r="B223" t="s">
+        <v>377</v>
+      </c>
+      <c r="C223" t="s">
+        <v>630</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>631</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>634</v>
+      </c>
+      <c r="B225">
+        <v>200</v>
+      </c>
+      <c r="C225" t="s">
+        <v>636</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>634</v>
+      </c>
+      <c r="B226">
+        <v>300</v>
+      </c>
+      <c r="C226" t="s">
+        <v>637</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>634</v>
+      </c>
+      <c r="B227">
+        <v>400</v>
+      </c>
+      <c r="C227" t="s">
+        <v>638</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>639</v>
+      </c>
+      <c r="B228" t="s">
+        <v>640</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00EE75F-C9EB-4064-A613-0A93329EEF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8CDC7D-8386-4C89-8426-7AB55D8FA2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="641">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2839,7 +2839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -4203,10 +4203,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U60" sqref="U60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5500,28 +5500,28 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s">
-        <v>397</v>
+        <v>311</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>252</v>
-      </c>
-      <c r="S47" t="b">
-        <v>1</v>
+        <v>312</v>
+      </c>
+      <c r="K47" t="s">
+        <v>247</v>
+      </c>
+      <c r="L47" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -5529,10 +5529,10 @@
         <v>397</v>
       </c>
       <c r="B48" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="C48" t="s">
-        <v>451</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="Q48" t="s">
         <v>252</v>
@@ -5552,13 +5552,13 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C49" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D49" t="s">
         <v>108</v>
@@ -5567,10 +5567,13 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="Q49" t="s">
         <v>252</v>
+      </c>
+      <c r="S49" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -5578,10 +5581,10 @@
         <v>398</v>
       </c>
       <c r="B50" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="D50" t="s">
         <v>108</v>
@@ -5590,19 +5593,10 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>457</v>
-      </c>
-      <c r="N50" t="s">
-        <v>462</v>
-      </c>
-      <c r="O50" t="s">
-        <v>512</v>
+        <v>461</v>
       </c>
       <c r="Q50" t="s">
         <v>252</v>
-      </c>
-      <c r="R50" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -5610,10 +5604,10 @@
         <v>398</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>398</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
         <v>108</v>
@@ -5622,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>158</v>
+        <v>457</v>
       </c>
       <c r="N51" t="s">
         <v>462</v>
@@ -5642,10 +5636,10 @@
         <v>398</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" t="s">
         <v>108</v>
@@ -5654,13 +5648,13 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N52" t="s">
         <v>462</v>
       </c>
       <c r="O52" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Q52" t="s">
         <v>252</v>
@@ -5671,13 +5665,13 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B53" t="s">
-        <v>399</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
         <v>108</v>
@@ -5686,21 +5680,30 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>480</v>
+        <v>159</v>
+      </c>
+      <c r="N53" t="s">
+        <v>462</v>
+      </c>
+      <c r="O53" t="s">
+        <v>514</v>
       </c>
       <c r="Q53" t="s">
         <v>252</v>
       </c>
+      <c r="R53" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C54" t="s">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="D54" t="s">
         <v>108</v>
@@ -5709,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="Q54" t="s">
         <v>252</v>
@@ -5720,10 +5723,10 @@
         <v>400</v>
       </c>
       <c r="B55" t="s">
-        <v>486</v>
+        <v>400</v>
       </c>
       <c r="C55" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D55" t="s">
         <v>108</v>
@@ -5732,22 +5735,10 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>489</v>
-      </c>
-      <c r="N55" t="s">
-        <v>400</v>
-      </c>
-      <c r="O55" t="s">
-        <v>128</v>
+        <v>485</v>
       </c>
       <c r="Q55" t="s">
         <v>252</v>
-      </c>
-      <c r="R55" t="s">
-        <v>383</v>
-      </c>
-      <c r="S55" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -5755,10 +5746,10 @@
         <v>400</v>
       </c>
       <c r="B56" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C56" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D56" t="s">
         <v>108</v>
@@ -5767,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="N56" t="s">
         <v>400</v>
@@ -5790,10 +5781,10 @@
         <v>400</v>
       </c>
       <c r="B57" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C57" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D57" t="s">
         <v>108</v>
@@ -5802,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="N57" t="s">
         <v>400</v>
@@ -5825,10 +5816,10 @@
         <v>400</v>
       </c>
       <c r="B58" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C58" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D58" t="s">
         <v>108</v>
@@ -5837,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N58" t="s">
         <v>400</v>
@@ -5860,31 +5851,28 @@
         <v>400</v>
       </c>
       <c r="B59" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C59" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>510</v>
-      </c>
-      <c r="K59" t="s">
-        <v>247</v>
-      </c>
-      <c r="L59" t="s">
-        <v>248</v>
+        <v>503</v>
       </c>
       <c r="N59" t="s">
-        <v>501</v>
+        <v>400</v>
       </c>
       <c r="O59" t="s">
-        <v>139</v>
+        <v>128</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>252</v>
       </c>
       <c r="R59" t="s">
         <v>383</v>
@@ -5895,25 +5883,40 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B60" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>511</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>252</v>
+        <v>510</v>
+      </c>
+      <c r="K60" t="s">
+        <v>247</v>
+      </c>
+      <c r="L60" t="s">
+        <v>248</v>
+      </c>
+      <c r="N60" t="s">
+        <v>501</v>
+      </c>
+      <c r="O60" t="s">
+        <v>139</v>
+      </c>
+      <c r="R60" t="s">
+        <v>383</v>
+      </c>
+      <c r="S60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -5921,25 +5924,22 @@
         <v>401</v>
       </c>
       <c r="B61" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C61" t="s">
-        <v>523</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="Q61" t="s">
-        <v>253</v>
-      </c>
-      <c r="S61" t="b">
-        <v>1</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -5947,22 +5947,22 @@
         <v>401</v>
       </c>
       <c r="B62" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C62" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Q62" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S62" t="b">
         <v>1</v>
@@ -5970,13 +5970,13 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B63" t="s">
-        <v>402</v>
+        <v>525</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>526</v>
       </c>
       <c r="D63" t="s">
         <v>108</v>
@@ -5985,10 +5985,13 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="Q63" t="s">
         <v>252</v>
+      </c>
+      <c r="S63" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -5996,10 +5999,10 @@
         <v>402</v>
       </c>
       <c r="B64" t="s">
-        <v>547</v>
+        <v>402</v>
       </c>
       <c r="C64" t="s">
-        <v>550</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
         <v>108</v>
@@ -6008,22 +6011,10 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>552</v>
-      </c>
-      <c r="N64" t="s">
-        <v>402</v>
-      </c>
-      <c r="O64" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="Q64" t="s">
         <v>252</v>
-      </c>
-      <c r="R64" t="s">
-        <v>383</v>
-      </c>
-      <c r="S64" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -6031,25 +6022,28 @@
         <v>402</v>
       </c>
       <c r="B65" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="C65" t="s">
-        <v>584</v>
+        <v>550</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="N65" t="s">
-        <v>547</v>
+        <v>402</v>
       </c>
       <c r="O65" t="s">
-        <v>139</v>
+        <v>555</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>252</v>
       </c>
       <c r="R65" t="s">
         <v>383</v>
@@ -6063,22 +6057,31 @@
         <v>402</v>
       </c>
       <c r="B66" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="C66" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>252</v>
+        <v>583</v>
+      </c>
+      <c r="N66" t="s">
+        <v>547</v>
+      </c>
+      <c r="O66" t="s">
+        <v>139</v>
+      </c>
+      <c r="R66" t="s">
+        <v>383</v>
+      </c>
+      <c r="S66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -6086,33 +6089,33 @@
         <v>402</v>
       </c>
       <c r="B67" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C67" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D67" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B68" t="s">
-        <v>403</v>
+        <v>549</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>551</v>
       </c>
       <c r="D68" t="s">
         <v>108</v>
@@ -6121,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>595</v>
+        <v>554</v>
       </c>
       <c r="Q68" t="s">
         <v>252</v>
@@ -6129,13 +6132,13 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C69" t="s">
-        <v>405</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
         <v>108</v>
@@ -6144,7 +6147,10 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>596</v>
+        <v>595</v>
+      </c>
+      <c r="K69" t="s">
+        <v>345</v>
       </c>
       <c r="Q69" t="s">
         <v>252</v>
@@ -6152,13 +6158,13 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B70" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C70" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D70" t="s">
         <v>108</v>
@@ -6167,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q70" t="s">
         <v>252</v>
@@ -6175,13 +6181,13 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B71" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C71" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D71" t="s">
         <v>108</v>
@@ -6190,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q71" t="s">
         <v>252</v>
@@ -6198,13 +6204,13 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C72" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D72" t="s">
         <v>108</v>
@@ -6213,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="Q72" t="s">
         <v>252</v>
@@ -6224,10 +6230,10 @@
         <v>409</v>
       </c>
       <c r="B73" t="s">
-        <v>611</v>
+        <v>409</v>
       </c>
       <c r="C73" t="s">
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="D73" t="s">
         <v>108</v>
@@ -6236,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="Q73" t="s">
         <v>252</v>
@@ -6244,13 +6250,13 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B74" t="s">
-        <v>411</v>
+        <v>611</v>
       </c>
       <c r="C74" t="s">
-        <v>412</v>
+        <v>610</v>
       </c>
       <c r="D74" t="s">
         <v>108</v>
@@ -6259,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="Q74" t="s">
         <v>252</v>
@@ -6270,10 +6276,10 @@
         <v>411</v>
       </c>
       <c r="B75" t="s">
-        <v>627</v>
+        <v>411</v>
       </c>
       <c r="C75" t="s">
-        <v>628</v>
+        <v>412</v>
       </c>
       <c r="D75" t="s">
         <v>108</v>
@@ -6282,39 +6288,42 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>629</v>
-      </c>
-      <c r="N75" t="s">
-        <v>411</v>
-      </c>
-      <c r="O75" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Q75" t="s">
         <v>252</v>
       </c>
-      <c r="R75" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B76" t="s">
-        <v>413</v>
+        <v>627</v>
       </c>
       <c r="C76" t="s">
-        <v>414</v>
+        <v>628</v>
       </c>
       <c r="D76" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>631</v>
+        <v>629</v>
+      </c>
+      <c r="N76" t="s">
+        <v>411</v>
+      </c>
+      <c r="O76" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>252</v>
+      </c>
+      <c r="R76" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -6322,48 +6331,30 @@
         <v>413</v>
       </c>
       <c r="B77" t="s">
-        <v>632</v>
+        <v>413</v>
       </c>
       <c r="C77" t="s">
-        <v>633</v>
+        <v>414</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>634</v>
-      </c>
-      <c r="K77" t="s">
-        <v>247</v>
-      </c>
-      <c r="L77" t="s">
-        <v>248</v>
-      </c>
-      <c r="N77" t="s">
-        <v>411</v>
-      </c>
-      <c r="O77" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>252</v>
-      </c>
-      <c r="R77" t="s">
-        <v>383</v>
+        <v>631</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B78" t="s">
-        <v>415</v>
+        <v>632</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>633</v>
       </c>
       <c r="D78" t="s">
         <v>108</v>
@@ -6372,9 +6363,47 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
+        <v>634</v>
+      </c>
+      <c r="K78" t="s">
+        <v>247</v>
+      </c>
+      <c r="L78" t="s">
+        <v>248</v>
+      </c>
+      <c r="N78" t="s">
+        <v>411</v>
+      </c>
+      <c r="O78" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>252</v>
+      </c>
+      <c r="R78" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>415</v>
+      </c>
+      <c r="B79" t="s">
+        <v>415</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
         <v>639</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="Q79" t="s">
         <v>252</v>
       </c>
     </row>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8CDC7D-8386-4C89-8426-7AB55D8FA2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5466B89A-0D29-4C4B-8531-64C1943A98AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="641">
   <si>
     <t>Kategori1</t>
   </si>
@@ -4206,7 +4206,7 @@
   <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U60" sqref="U60"/>
+      <selection activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5523,6 +5523,9 @@
       <c r="L47" t="s">
         <v>248</v>
       </c>
+      <c r="S47" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -5865,6 +5868,12 @@
       <c r="F59" t="s">
         <v>503</v>
       </c>
+      <c r="K59" t="s">
+        <v>247</v>
+      </c>
+      <c r="L59" t="s">
+        <v>248</v>
+      </c>
       <c r="N59" t="s">
         <v>400</v>
       </c>
@@ -6227,13 +6236,13 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B73" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C73" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D73" t="s">
         <v>108</v>
@@ -6242,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="Q73" t="s">
         <v>252</v>
@@ -6250,13 +6259,13 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B74" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="C74" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="D74" t="s">
         <v>108</v>
@@ -6265,10 +6274,28 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>612</v>
+        <v>629</v>
+      </c>
+      <c r="K74" t="s">
+        <v>247</v>
+      </c>
+      <c r="L74" t="s">
+        <v>248</v>
+      </c>
+      <c r="N74" t="s">
+        <v>411</v>
+      </c>
+      <c r="O74" t="s">
+        <v>623</v>
       </c>
       <c r="Q74" t="s">
         <v>252</v>
+      </c>
+      <c r="R74" t="s">
+        <v>383</v>
+      </c>
+      <c r="S74" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -6276,10 +6303,10 @@
         <v>411</v>
       </c>
       <c r="B75" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C75" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D75" t="s">
         <v>108</v>
@@ -6288,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="Q75" t="s">
         <v>252</v>
@@ -6299,10 +6326,10 @@
         <v>411</v>
       </c>
       <c r="B76" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C76" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="D76" t="s">
         <v>108</v>
@@ -6311,24 +6338,15 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>629</v>
-      </c>
-      <c r="N76" t="s">
-        <v>411</v>
-      </c>
-      <c r="O76" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="Q76" t="s">
         <v>252</v>
       </c>
-      <c r="R76" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B77" t="s">
         <v>413</v>
@@ -6348,7 +6366,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B78" t="s">
         <v>632</v>
@@ -6382,6 +6400,9 @@
       </c>
       <c r="R78" t="s">
         <v>383</v>
+      </c>
+      <c r="S78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5466B89A-0D29-4C4B-8531-64C1943A98AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0EC2EC-E7B3-4427-877D-EB6BA78277AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="645">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1682,9 +1682,6 @@
     <t>Dogrultma_Modeli_CMKS</t>
   </si>
   <si>
-    <t>Kaplama</t>
-  </si>
-  <si>
     <t>Dogrultma_Ayar</t>
   </si>
   <si>
@@ -1697,9 +1694,6 @@
     <t>Dogrultma_Modeli_CMKS_opts</t>
   </si>
   <si>
-    <t>Kaplama_opts</t>
-  </si>
-  <si>
     <t>Dogrultma_Ayar_opts</t>
   </si>
   <si>
@@ -1959,6 +1953,24 @@
   </si>
   <si>
     <t>HU</t>
+  </si>
+  <si>
+    <t>Kaplama_Var_Mi</t>
+  </si>
+  <si>
+    <t>Kaplama_Tipi</t>
+  </si>
+  <si>
+    <t>Kaplama Var Mı?</t>
+  </si>
+  <si>
+    <t>Kaplama Tipi</t>
+  </si>
+  <si>
+    <t>Kaplama_Var_Mi_opts</t>
+  </si>
+  <si>
+    <t>Kaplama_Tipi_opts</t>
   </si>
 </sst>
 </file>
@@ -2837,10 +2849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3833,10 +3845,10 @@
         <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E49" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F49">
         <v>18</v>
@@ -3853,10 +3865,10 @@
         <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E50" t="s">
-        <v>412</v>
+        <v>83</v>
       </c>
       <c r="F50">
         <v>19</v>
@@ -3873,10 +3885,10 @@
         <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>413</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>414</v>
+        <v>227</v>
       </c>
       <c r="F51">
         <v>20</v>
@@ -3893,53 +3905,35 @@
         <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>415</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F52">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>20</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B61" t="s">
         <v>28</v>
       </c>
-      <c r="C53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" t="s">
-        <v>227</v>
-      </c>
-      <c r="F53">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>20</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B62" t="s">
         <v>28</v>
       </c>
-      <c r="C54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" t="s">
-        <v>89</v>
-      </c>
-      <c r="E54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54">
-        <v>23</v>
+      <c r="C62" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3950,7 +3944,7 @@
         <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3961,40 +3955,40 @@
         <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4002,10 +3996,10 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4013,10 +4007,10 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4024,10 +4018,10 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4035,10 +4029,10 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4046,10 +4040,10 @@
         <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4057,10 +4051,10 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4068,10 +4062,10 @@
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4079,10 +4073,10 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4090,10 +4084,10 @@
         <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4101,43 +4095,43 @@
         <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C79" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -4145,10 +4139,10 @@
         <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -4156,42 +4150,9 @@
         <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>65</v>
-      </c>
-      <c r="B83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>65</v>
-      </c>
-      <c r="B84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4203,10 +4164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O86" sqref="O86"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6034,7 +5995,7 @@
         <v>547</v>
       </c>
       <c r="C65" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D65" t="s">
         <v>108</v>
@@ -6043,13 +6004,13 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N65" t="s">
         <v>402</v>
       </c>
       <c r="O65" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="Q65" t="s">
         <v>252</v>
@@ -6066,10 +6027,10 @@
         <v>402</v>
       </c>
       <c r="B66" t="s">
+        <v>580</v>
+      </c>
+      <c r="C66" t="s">
         <v>582</v>
-      </c>
-      <c r="C66" t="s">
-        <v>584</v>
       </c>
       <c r="D66" t="s">
         <v>135</v>
@@ -6078,7 +6039,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N66" t="s">
         <v>547</v>
@@ -6098,22 +6059,22 @@
         <v>402</v>
       </c>
       <c r="B67" t="s">
-        <v>548</v>
+        <v>639</v>
       </c>
       <c r="C67" t="s">
-        <v>548</v>
+        <v>641</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>553</v>
+        <v>643</v>
       </c>
       <c r="Q67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -6121,33 +6082,42 @@
         <v>402</v>
       </c>
       <c r="B68" t="s">
-        <v>549</v>
+        <v>640</v>
       </c>
       <c r="C68" t="s">
-        <v>551</v>
+        <v>642</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>554</v>
+        <v>644</v>
+      </c>
+      <c r="N68" t="s">
+        <v>639</v>
+      </c>
+      <c r="O68" t="s">
+        <v>128</v>
       </c>
       <c r="Q68" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="R68" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B69" t="s">
-        <v>403</v>
+        <v>548</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>550</v>
       </c>
       <c r="D69" t="s">
         <v>108</v>
@@ -6156,10 +6126,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>595</v>
-      </c>
-      <c r="K69" t="s">
-        <v>345</v>
+        <v>552</v>
       </c>
       <c r="Q69" t="s">
         <v>252</v>
@@ -6167,13 +6134,13 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B70" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C70" t="s">
-        <v>405</v>
+        <v>104</v>
       </c>
       <c r="D70" t="s">
         <v>108</v>
@@ -6182,7 +6149,10 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>596</v>
+        <v>593</v>
+      </c>
+      <c r="K70" t="s">
+        <v>345</v>
       </c>
       <c r="Q70" t="s">
         <v>252</v>
@@ -6190,13 +6160,13 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B71" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C71" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D71" t="s">
         <v>108</v>
@@ -6205,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="Q71" t="s">
         <v>252</v>
@@ -6213,13 +6183,13 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B72" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D72" t="s">
         <v>108</v>
@@ -6228,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="Q72" t="s">
         <v>252</v>
@@ -6236,13 +6206,13 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B73" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C73" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D73" t="s">
         <v>108</v>
@@ -6251,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="Q73" t="s">
         <v>252</v>
@@ -6262,10 +6232,10 @@
         <v>411</v>
       </c>
       <c r="B74" t="s">
-        <v>627</v>
+        <v>411</v>
       </c>
       <c r="C74" t="s">
-        <v>628</v>
+        <v>412</v>
       </c>
       <c r="D74" t="s">
         <v>108</v>
@@ -6274,28 +6244,10 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>629</v>
-      </c>
-      <c r="K74" t="s">
-        <v>247</v>
-      </c>
-      <c r="L74" t="s">
-        <v>248</v>
-      </c>
-      <c r="N74" t="s">
-        <v>411</v>
-      </c>
-      <c r="O74" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="Q74" t="s">
         <v>252</v>
-      </c>
-      <c r="R74" t="s">
-        <v>383</v>
-      </c>
-      <c r="S74" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -6303,10 +6255,10 @@
         <v>411</v>
       </c>
       <c r="B75" t="s">
-        <v>409</v>
+        <v>625</v>
       </c>
       <c r="C75" t="s">
-        <v>410</v>
+        <v>626</v>
       </c>
       <c r="D75" t="s">
         <v>108</v>
@@ -6315,10 +6267,28 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>606</v>
+        <v>627</v>
+      </c>
+      <c r="K75" t="s">
+        <v>247</v>
+      </c>
+      <c r="L75" t="s">
+        <v>248</v>
+      </c>
+      <c r="N75" t="s">
+        <v>411</v>
+      </c>
+      <c r="O75" t="s">
+        <v>621</v>
       </c>
       <c r="Q75" t="s">
         <v>252</v>
+      </c>
+      <c r="R75" t="s">
+        <v>383</v>
+      </c>
+      <c r="S75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -6326,10 +6296,10 @@
         <v>411</v>
       </c>
       <c r="B76" t="s">
-        <v>611</v>
+        <v>409</v>
       </c>
       <c r="C76" t="s">
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="D76" t="s">
         <v>108</v>
@@ -6338,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="Q76" t="s">
         <v>252</v>
@@ -6349,19 +6319,22 @@
         <v>411</v>
       </c>
       <c r="B77" t="s">
-        <v>413</v>
+        <v>609</v>
       </c>
       <c r="C77" t="s">
-        <v>414</v>
+        <v>608</v>
       </c>
       <c r="D77" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>631</v>
+        <v>610</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -6369,51 +6342,30 @@
         <v>411</v>
       </c>
       <c r="B78" t="s">
-        <v>632</v>
+        <v>413</v>
       </c>
       <c r="C78" t="s">
-        <v>633</v>
+        <v>414</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>634</v>
-      </c>
-      <c r="K78" t="s">
-        <v>247</v>
-      </c>
-      <c r="L78" t="s">
-        <v>248</v>
-      </c>
-      <c r="N78" t="s">
-        <v>411</v>
-      </c>
-      <c r="O78" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>252</v>
-      </c>
-      <c r="R78" t="s">
-        <v>383</v>
-      </c>
-      <c r="S78" t="b">
-        <v>1</v>
+        <v>629</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B79" t="s">
-        <v>415</v>
+        <v>630</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>631</v>
       </c>
       <c r="D79" t="s">
         <v>108</v>
@@ -6422,9 +6374,50 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>639</v>
+        <v>632</v>
+      </c>
+      <c r="K79" t="s">
+        <v>247</v>
+      </c>
+      <c r="L79" t="s">
+        <v>248</v>
+      </c>
+      <c r="N79" t="s">
+        <v>411</v>
+      </c>
+      <c r="O79" t="s">
+        <v>633</v>
       </c>
       <c r="Q79" t="s">
+        <v>252</v>
+      </c>
+      <c r="R79" t="s">
+        <v>383</v>
+      </c>
+      <c r="S79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>415</v>
+      </c>
+      <c r="B80" t="s">
+        <v>415</v>
+      </c>
+      <c r="C80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q80" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6438,8 +6431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C211" sqref="C211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9044,7 +9037,7 @@
         <v>241</v>
       </c>
       <c r="C183" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -9058,7 +9051,7 @@
         <v>516</v>
       </c>
       <c r="C184" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -9069,10 +9062,10 @@
         <v>546</v>
       </c>
       <c r="B185" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C185" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -9080,13 +9073,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C186" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -9100,13 +9093,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C187" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D187">
         <v>2</v>
@@ -9115,18 +9108,18 @@
         <v>402</v>
       </c>
       <c r="F187" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C188" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -9135,18 +9128,18 @@
         <v>402</v>
       </c>
       <c r="F188" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C189" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D189">
         <v>4</v>
@@ -9160,13 +9153,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C190" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D190">
         <v>5</v>
@@ -9175,18 +9168,18 @@
         <v>402</v>
       </c>
       <c r="F190" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C191" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D191">
         <v>6</v>
@@ -9200,13 +9193,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C192" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D192">
         <v>7</v>
@@ -9220,13 +9213,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C193" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D193">
         <v>8</v>
@@ -9240,13 +9233,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C194" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D194">
         <v>9</v>
@@ -9260,13 +9253,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C195" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D195">
         <v>10</v>
@@ -9275,18 +9268,18 @@
         <v>402</v>
       </c>
       <c r="F195" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C196" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D196">
         <v>11</v>
@@ -9295,12 +9288,12 @@
         <v>402</v>
       </c>
       <c r="F196" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>139</v>
@@ -9315,12 +9308,12 @@
         <v>402</v>
       </c>
       <c r="F197" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -9328,13 +9321,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>553</v>
+        <v>643</v>
       </c>
       <c r="B199" t="s">
         <v>116</v>
       </c>
       <c r="C199" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -9342,41 +9335,41 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>553</v>
+        <v>644</v>
       </c>
       <c r="B200" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C200" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>553</v>
+        <v>644</v>
       </c>
       <c r="B201" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C201" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B202" t="s">
+        <v>588</v>
+      </c>
+      <c r="C202" t="s">
         <v>590</v>
-      </c>
-      <c r="C202" t="s">
-        <v>592</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -9384,13 +9377,13 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B203" t="s">
+        <v>589</v>
+      </c>
+      <c r="C203" t="s">
         <v>591</v>
-      </c>
-      <c r="C203" t="s">
-        <v>593</v>
       </c>
       <c r="D203">
         <v>2</v>
@@ -9398,7 +9391,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B204">
         <v>50</v>
@@ -9412,10 +9405,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B205" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>405</v>
@@ -9426,13 +9419,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B206" t="s">
         <v>116</v>
       </c>
       <c r="C206" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -9440,13 +9433,13 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B207" t="s">
         <v>70</v>
       </c>
       <c r="C207" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D207">
         <v>2</v>
@@ -9454,13 +9447,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B208" t="s">
         <v>71</v>
       </c>
       <c r="C208" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D208">
         <v>3</v>
@@ -9468,13 +9461,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B209" t="s">
         <v>116</v>
       </c>
       <c r="C209" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -9482,13 +9475,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B210" t="s">
         <v>67</v>
       </c>
       <c r="C210" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D210">
         <v>2</v>
@@ -9496,13 +9489,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B211" t="s">
         <v>68</v>
       </c>
       <c r="C211" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D211">
         <v>3</v>
@@ -9510,7 +9503,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B212" t="s">
         <v>116</v>
@@ -9524,13 +9517,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B213" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C213" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D213">
         <v>2</v>
@@ -9538,13 +9531,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>604</v>
+      </c>
+      <c r="B214" t="s">
         <v>606</v>
       </c>
-      <c r="B214" t="s">
-        <v>608</v>
-      </c>
       <c r="C214" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D214">
         <v>3</v>
@@ -9552,13 +9545,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B215" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C215" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D215">
         <v>4</v>
@@ -9566,7 +9559,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B216" t="s">
         <v>116</v>
@@ -9580,13 +9573,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B217" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C217" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D217">
         <v>2</v>
@@ -9594,13 +9587,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>610</v>
+      </c>
+      <c r="B218" t="s">
         <v>612</v>
       </c>
-      <c r="B218" t="s">
-        <v>614</v>
-      </c>
       <c r="C218" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D218">
         <v>3</v>
@@ -9608,13 +9601,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B219" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C219" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -9622,13 +9615,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>618</v>
+      </c>
+      <c r="B220" t="s">
         <v>620</v>
       </c>
-      <c r="B220" t="s">
-        <v>622</v>
-      </c>
       <c r="C220" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D220">
         <v>2</v>
@@ -9636,13 +9629,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B221" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C221" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D221">
         <v>3</v>
@@ -9650,7 +9643,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B222" t="s">
         <v>116</v>
@@ -9664,13 +9657,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B223" t="s">
         <v>377</v>
       </c>
       <c r="C223" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D223">
         <v>2</v>
@@ -9678,7 +9671,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -9686,13 +9679,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B225">
         <v>200</v>
       </c>
       <c r="C225" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -9700,13 +9693,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B226">
         <v>300</v>
       </c>
       <c r="C226" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D226">
         <v>2</v>
@@ -9714,13 +9707,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B227">
         <v>400</v>
       </c>
       <c r="C227" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D227">
         <v>3</v>
@@ -9728,10 +9721,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B228" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>83</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0EC2EC-E7B3-4427-877D-EB6BA78277AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B67429-55C4-4312-A7DB-A5B0F635CF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="646">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1971,6 +1971,9 @@
   </si>
   <si>
     <t>Kaplama_Tipi_opts</t>
+  </si>
+  <si>
+    <t>Yok,SA,MA,OA</t>
   </si>
 </sst>
 </file>
@@ -6431,8 +6434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="C211" sqref="C211"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9459,7 +9462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>600</v>
       </c>
@@ -9473,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>600</v>
       </c>
@@ -9487,7 +9490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>600</v>
       </c>
@@ -9501,7 +9504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>604</v>
       </c>
@@ -9514,50 +9517,74 @@
       <c r="D212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>618</v>
+      </c>
+      <c r="F212" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>604</v>
       </c>
       <c r="B213" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C213" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>618</v>
+      </c>
+      <c r="F213" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>604</v>
       </c>
       <c r="B214" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C214" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D214">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>618</v>
+      </c>
+      <c r="F214" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>604</v>
       </c>
       <c r="B215" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C215" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D215">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>618</v>
+      </c>
+      <c r="F215" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>610</v>
       </c>
@@ -9571,7 +9598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>610</v>
       </c>
@@ -9585,7 +9612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>610</v>
       </c>
@@ -9599,7 +9626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>618</v>
       </c>
@@ -9613,7 +9640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>618</v>
       </c>
@@ -9627,7 +9654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>618</v>
       </c>
@@ -9641,7 +9668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>627</v>
       </c>
@@ -9655,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>627</v>
       </c>
@@ -9669,7 +9696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>629</v>
       </c>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B67429-55C4-4312-A7DB-A5B0F635CF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1540E14F-950F-4E2F-8EFE-B41FDF4C52A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="647">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1973,7 +1973,10 @@
     <t>Kaplama_Tipi_opts</t>
   </si>
   <si>
-    <t>Yok,SA,MA,OA</t>
+    <t>Kaplama Var</t>
+  </si>
+  <si>
+    <t>SA,MA,OA</t>
   </si>
 </sst>
 </file>
@@ -6432,10 +6435,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F228"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="F216" sqref="F216"/>
+      <selection activeCell="F205" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9338,16 +9341,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B200" t="s">
-        <v>583</v>
+        <v>128</v>
       </c>
       <c r="C200" t="s">
-        <v>586</v>
+        <v>645</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -9355,27 +9358,27 @@
         <v>644</v>
       </c>
       <c r="B201" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C201" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>552</v>
+        <v>644</v>
       </c>
       <c r="B202" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C202" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -9383,38 +9386,38 @@
         <v>552</v>
       </c>
       <c r="B203" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C203" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>593</v>
-      </c>
-      <c r="B204">
-        <v>50</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>380</v>
+        <v>552</v>
+      </c>
+      <c r="B204" t="s">
+        <v>589</v>
+      </c>
+      <c r="C204" t="s">
+        <v>591</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>594</v>
-      </c>
-      <c r="B205" t="s">
-        <v>595</v>
+        <v>593</v>
+      </c>
+      <c r="B205">
+        <v>50</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -9422,13 +9425,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B206" t="s">
-        <v>116</v>
-      </c>
-      <c r="C206" t="s">
-        <v>597</v>
+        <v>595</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -9439,13 +9442,13 @@
         <v>596</v>
       </c>
       <c r="B207" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C207" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -9453,27 +9456,27 @@
         <v>596</v>
       </c>
       <c r="B208" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C208" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B209" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C209" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -9481,13 +9484,13 @@
         <v>600</v>
       </c>
       <c r="B210" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C210" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -9495,33 +9498,27 @@
         <v>600</v>
       </c>
       <c r="B211" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C211" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B212" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C212" t="s">
-        <v>515</v>
+        <v>603</v>
       </c>
       <c r="D212">
-        <v>1</v>
-      </c>
-      <c r="E212" t="s">
-        <v>618</v>
-      </c>
-      <c r="F212" t="s">
-        <v>645</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -9529,19 +9526,19 @@
         <v>604</v>
       </c>
       <c r="B213" t="s">
-        <v>606</v>
+        <v>116</v>
       </c>
       <c r="C213" t="s">
-        <v>614</v>
+        <v>515</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>618</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -9549,19 +9546,19 @@
         <v>604</v>
       </c>
       <c r="B214" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C214" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>618</v>
+        <v>411</v>
       </c>
       <c r="F214" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -9569,33 +9566,39 @@
         <v>604</v>
       </c>
       <c r="B215" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C215" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E215" t="s">
-        <v>618</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B216" t="s">
-        <v>116</v>
+        <v>605</v>
       </c>
       <c r="C216" t="s">
-        <v>515</v>
+        <v>613</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E216" t="s">
+        <v>411</v>
+      </c>
+      <c r="F216" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -9603,13 +9606,13 @@
         <v>610</v>
       </c>
       <c r="B217" t="s">
-        <v>611</v>
+        <v>116</v>
       </c>
       <c r="C217" t="s">
-        <v>616</v>
+        <v>515</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -9617,27 +9620,27 @@
         <v>610</v>
       </c>
       <c r="B218" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C218" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B219" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C219" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -9645,13 +9648,13 @@
         <v>618</v>
       </c>
       <c r="B220" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C220" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -9659,27 +9662,27 @@
         <v>618</v>
       </c>
       <c r="B221" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C221" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B222" t="s">
-        <v>116</v>
+        <v>621</v>
       </c>
       <c r="C222" t="s">
-        <v>515</v>
+        <v>624</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -9687,32 +9690,32 @@
         <v>627</v>
       </c>
       <c r="B223" t="s">
-        <v>377</v>
+        <v>116</v>
       </c>
       <c r="C223" t="s">
-        <v>628</v>
+        <v>515</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>629</v>
+        <v>627</v>
+      </c>
+      <c r="B224" t="s">
+        <v>377</v>
+      </c>
+      <c r="C224" t="s">
+        <v>628</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>632</v>
-      </c>
-      <c r="B225">
-        <v>200</v>
-      </c>
-      <c r="C225" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -9723,13 +9726,13 @@
         <v>632</v>
       </c>
       <c r="B226">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C226" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -9737,26 +9740,40 @@
         <v>632</v>
       </c>
       <c r="B227">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C227" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>632</v>
+      </c>
+      <c r="B228">
+        <v>400</v>
+      </c>
+      <c r="C228" t="s">
+        <v>636</v>
+      </c>
+      <c r="D228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>637</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>638</v>
       </c>
-      <c r="C228" s="6" t="s">
+      <c r="C229" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D228">
+      <c r="D229">
         <v>1</v>
       </c>
     </row>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1540E14F-950F-4E2F-8EFE-B41FDF4C52A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A4CD17-F24A-41C7-9585-81BB244AE569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="652">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1977,6 +1977,21 @@
   </si>
   <si>
     <t>SA,MA,OA</t>
+  </si>
+  <si>
+    <t>Kayar_Hareket</t>
+  </si>
+  <si>
+    <t>Kayar Hareket</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_CMCH</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_CMCH_opts</t>
+  </si>
+  <si>
+    <t>Kayar_Hareket_opts</t>
   </si>
 </sst>
 </file>
@@ -2057,15 +2072,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2855,10 +2867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,6 +3932,166 @@
         <v>21</v>
       </c>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>647</v>
+      </c>
+      <c r="E54" t="s">
+        <v>648</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>649</v>
+      </c>
+      <c r="E55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>397</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>398</v>
+      </c>
+      <c r="E59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+    </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>20</v>
@@ -3930,6 +4102,15 @@
       <c r="C61" t="s">
         <v>29</v>
       </c>
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -3939,7 +4120,16 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>399</v>
+      </c>
+      <c r="E62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3950,7 +4140,16 @@
         <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>400</v>
+      </c>
+      <c r="E63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63">
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3961,204 +4160,286 @@
         <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>415</v>
+      </c>
+      <c r="E64" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" t="s">
+        <v>227</v>
+      </c>
+      <c r="F65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>39</v>
-      </c>
-      <c r="B76" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>65</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="s">
         <v>73</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C100" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4170,10 +4451,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67:F68"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4252,7 +4533,7 @@
       <c r="R1" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>545</v>
       </c>
     </row>
@@ -6425,6 +6706,110 @@
       </c>
       <c r="Q80" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>647</v>
+      </c>
+      <c r="B81" t="s">
+        <v>647</v>
+      </c>
+      <c r="C81" t="s">
+        <v>648</v>
+      </c>
+      <c r="D81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>649</v>
+      </c>
+      <c r="B82" t="s">
+        <v>649</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>649</v>
+      </c>
+      <c r="B83" t="s">
+        <v>388</v>
+      </c>
+      <c r="C83" t="s">
+        <v>389</v>
+      </c>
+      <c r="D83" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>390</v>
+      </c>
+      <c r="N83" t="s">
+        <v>649</v>
+      </c>
+      <c r="O83" t="s">
+        <v>139</v>
+      </c>
+      <c r="R83" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>649</v>
+      </c>
+      <c r="B84" t="s">
+        <v>311</v>
+      </c>
+      <c r="C84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>312</v>
+      </c>
+      <c r="K84" t="s">
+        <v>247</v>
+      </c>
+      <c r="L84" t="s">
+        <v>248</v>
+      </c>
+      <c r="S84" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6435,10 +6820,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="F205" sqref="F205"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="D239" sqref="D239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8124,7 +8509,7 @@
       <c r="B117">
         <v>50</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="5" t="s">
         <v>380</v>
       </c>
       <c r="D117">
@@ -9081,7 +9466,7 @@
       <c r="A186" t="s">
         <v>551</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="4" t="s">
         <v>555</v>
       </c>
       <c r="C186" t="s">
@@ -9101,7 +9486,7 @@
       <c r="A187" t="s">
         <v>551</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="3" t="s">
         <v>556</v>
       </c>
       <c r="C187" t="s">
@@ -9121,7 +9506,7 @@
       <c r="A188" t="s">
         <v>551</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>557</v>
       </c>
       <c r="C188" t="s">
@@ -9141,7 +9526,7 @@
       <c r="A189" t="s">
         <v>551</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>558</v>
       </c>
       <c r="C189" t="s">
@@ -9161,7 +9546,7 @@
       <c r="A190" t="s">
         <v>551</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>559</v>
       </c>
       <c r="C190" t="s">
@@ -9181,7 +9566,7 @@
       <c r="A191" t="s">
         <v>551</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>560</v>
       </c>
       <c r="C191" t="s">
@@ -9201,7 +9586,7 @@
       <c r="A192" t="s">
         <v>551</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>561</v>
       </c>
       <c r="C192" t="s">
@@ -9221,7 +9606,7 @@
       <c r="A193" t="s">
         <v>551</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>562</v>
       </c>
       <c r="C193" t="s">
@@ -9241,7 +9626,7 @@
       <c r="A194" t="s">
         <v>551</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>563</v>
       </c>
       <c r="C194" t="s">
@@ -9261,7 +9646,7 @@
       <c r="A195" t="s">
         <v>551</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="3" t="s">
         <v>564</v>
       </c>
       <c r="C195" t="s">
@@ -9281,7 +9666,7 @@
       <c r="A196" t="s">
         <v>551</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="3" t="s">
         <v>565</v>
       </c>
       <c r="C196" t="s">
@@ -9301,7 +9686,7 @@
       <c r="A197" t="s">
         <v>551</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C197" t="s">
@@ -9416,7 +9801,7 @@
       <c r="B205">
         <v>50</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C205" s="5" t="s">
         <v>380</v>
       </c>
       <c r="D205">
@@ -9430,7 +9815,7 @@
       <c r="B206" t="s">
         <v>595</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C206" s="5" t="s">
         <v>405</v>
       </c>
       <c r="D206">
@@ -9770,11 +10155,116 @@
       <c r="B229" t="s">
         <v>638</v>
       </c>
-      <c r="C229" s="6" t="s">
+      <c r="C229" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D229">
         <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>651</v>
+      </c>
+      <c r="B230" t="s">
+        <v>116</v>
+      </c>
+      <c r="C230" t="s">
+        <v>515</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>651</v>
+      </c>
+      <c r="B231" t="s">
+        <v>128</v>
+      </c>
+      <c r="C231" t="s">
+        <v>515</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>650</v>
+      </c>
+      <c r="B232">
+        <v>400</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>650</v>
+      </c>
+      <c r="B233">
+        <v>600</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>650</v>
+      </c>
+      <c r="B234">
+        <v>800</v>
+      </c>
+      <c r="D234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>650</v>
+      </c>
+      <c r="B235">
+        <v>1000</v>
+      </c>
+      <c r="D235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>650</v>
+      </c>
+      <c r="B236">
+        <v>1300</v>
+      </c>
+      <c r="D236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>650</v>
+      </c>
+      <c r="B237">
+        <v>1500</v>
+      </c>
+      <c r="D237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>650</v>
+      </c>
+      <c r="B238">
+        <v>1600</v>
+      </c>
+      <c r="D238">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A4CD17-F24A-41C7-9585-81BB244AE569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646B5E9C-8EF1-47AD-93AC-E9C5FBA43668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="652">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2869,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54:E55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3852,7 +3852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -4011,8 +4011,11 @@
       <c r="F56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -4091,8 +4094,11 @@
       <c r="F60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -4112,7 +4118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -4152,7 +4158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -6822,7 +6828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+    <sheetView topLeftCell="A161" workbookViewId="0">
       <selection activeCell="D239" sqref="D239"/>
     </sheetView>
   </sheetViews>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646B5E9C-8EF1-47AD-93AC-E9C5FBA43668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61048720-E4C3-403B-BB86-B93268D975B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="689">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1295,9 +1295,6 @@
     <t>AKH</t>
   </si>
   <si>
-    <t>SKH</t>
-  </si>
-  <si>
     <t>Kayar Hareket Yok</t>
   </si>
   <si>
@@ -1307,9 +1304,6 @@
     <t>Açıcı Kayar Hareket</t>
   </si>
   <si>
-    <t>Sürücü Kayar Hareket</t>
-  </si>
-  <si>
     <t>Sac_Genislik_CMKS_opts</t>
   </si>
   <si>
@@ -1745,39 +1739,6 @@
     <t>Leveler Doğrultma</t>
   </si>
   <si>
-    <t>Ø63mm - 5 + 2 merdaneli doğrultucu sürücü</t>
-  </si>
-  <si>
-    <t>Ø63mm - 7 + 2 merdaneli doğrultucu sürücü</t>
-  </si>
-  <si>
-    <t>Ø64mm - 9 + 2 merdaneli doğrultucu sürücü</t>
-  </si>
-  <si>
-    <t>Ø80mm - 5 + 2 merdaneli doğrultucu sürücü</t>
-  </si>
-  <si>
-    <t>Ø80mm - 7 + 2 merdaneli doğrultucu sürücü</t>
-  </si>
-  <si>
-    <t>Ø80mm - 9 + 2 merdaneli doğrultucu sürücü</t>
-  </si>
-  <si>
-    <t>Ø100mm - 7 + 2 merdaneli doğrultucu sürücü</t>
-  </si>
-  <si>
-    <t>Ø125mm - 7 + 2 merdaneli doğrultucu sürücü</t>
-  </si>
-  <si>
-    <t>Ø160mm - 7 + 2 merdaneli doğrultucu sürücü</t>
-  </si>
-  <si>
-    <t>Ø63mm - 13 + 2 merdaneli doğrultucu sürücü</t>
-  </si>
-  <si>
-    <t>Ø80mm - 13 + 2 merdaneli doğrultucu sürücü</t>
-  </si>
-  <si>
     <t>Dogrultma_Modeli_harici_CMKS</t>
   </si>
   <si>
@@ -1979,9 +1940,6 @@
     <t>SA,MA,OA</t>
   </si>
   <si>
-    <t>Kayar_Hareket</t>
-  </si>
-  <si>
     <t>Kayar Hareket</t>
   </si>
   <si>
@@ -1991,7 +1949,160 @@
     <t>Sac_Genislik_CMCH_opts</t>
   </si>
   <si>
-    <t>Kayar_Hareket_opts</t>
+    <t>Kayar_Hareket_CMCH</t>
+  </si>
+  <si>
+    <t>Kayar_Hareket_CMCH_opts</t>
+  </si>
+  <si>
+    <t>Kayar_Hareket_CMDO</t>
+  </si>
+  <si>
+    <t>Giris_Unitesi_CMDO</t>
+  </si>
+  <si>
+    <t>Kayar_Hareket_CMDO_opts</t>
+  </si>
+  <si>
+    <t>Giris_Unitesi_CMDO_opts</t>
+  </si>
+  <si>
+    <t>DKH</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>DO/DSS Kayar Hareket</t>
+  </si>
+  <si>
+    <t>Surucu_Tipi</t>
+  </si>
+  <si>
+    <t>Sürücü Tipi</t>
+  </si>
+  <si>
+    <t>Surucu_Tipi_opts</t>
+  </si>
+  <si>
+    <t>KR100</t>
+  </si>
+  <si>
+    <t>KR125</t>
+  </si>
+  <si>
+    <t>KR160</t>
+  </si>
+  <si>
+    <t>Ø63 mm - 5 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø63 mm - 7 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø64 mm - 9 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø80 mm - 5 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø80 mm - 7 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø80 mm - 9 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø100 mm - 7 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø125 mm - 7 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø160 mm - 7 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø63 mm - 13 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø80 mm - 13 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø100 mm sürücü</t>
+  </si>
+  <si>
+    <t>Ø125 mm sürücü</t>
+  </si>
+  <si>
+    <t>Ø160 mm sürücü</t>
+  </si>
+  <si>
+    <t>Kartezyen_Tipi</t>
+  </si>
+  <si>
+    <t>Kartezyen Tipi</t>
+  </si>
+  <si>
+    <t>Kartezyen_Sistem</t>
+  </si>
+  <si>
+    <t>Kartezyen Sistem</t>
+  </si>
+  <si>
+    <t>Kartezyen_Adet</t>
+  </si>
+  <si>
+    <t>Kartezyen Adedi</t>
+  </si>
+  <si>
+    <t>Vakum Şekli??</t>
+  </si>
+  <si>
+    <t>Vakum_Sekli</t>
+  </si>
+  <si>
+    <t>Kartezyen_Tipi_opts</t>
+  </si>
+  <si>
+    <t>Kartezyen_Adet_opts</t>
+  </si>
+  <si>
+    <t>Vakum_Sekli_opts</t>
+  </si>
+  <si>
+    <t>K2010</t>
+  </si>
+  <si>
+    <t>K3015</t>
+  </si>
+  <si>
+    <t>K4015_S</t>
+  </si>
+  <si>
+    <t>K4015_P</t>
+  </si>
+  <si>
+    <t>... x … aluminyum? Kartezyen</t>
+  </si>
+  <si>
+    <t>Tek kartezyen robot</t>
+  </si>
+  <si>
+    <t>İki kartezyen robot</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>VQ</t>
+  </si>
+  <si>
+    <t>Küçük vakum seti??</t>
+  </si>
+  <si>
+    <t>Büyük vakum seti??</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -2388,7 +2499,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2867,10 +2978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105:E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3963,10 +4074,10 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="E54" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -3983,10 +4094,10 @@
         <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>649</v>
+        <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -4026,10 +4137,10 @@
         <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>635</v>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -4218,6 +4329,266 @@
         <v>14</v>
       </c>
     </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" t="s">
+        <v>639</v>
+      </c>
+      <c r="E68" t="s">
+        <v>634</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" t="s">
+        <v>640</v>
+      </c>
+      <c r="E69" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>402</v>
+      </c>
+      <c r="E70" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
+        <v>403</v>
+      </c>
+      <c r="E71" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s">
+        <v>404</v>
+      </c>
+      <c r="E72" t="s">
+        <v>405</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" t="s">
+        <v>406</v>
+      </c>
+      <c r="E73" t="s">
+        <v>407</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s">
+        <v>408</v>
+      </c>
+      <c r="E74" t="s">
+        <v>408</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" t="s">
+        <v>411</v>
+      </c>
+      <c r="E75" t="s">
+        <v>412</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" t="s">
+        <v>415</v>
+      </c>
+      <c r="E76" t="s">
+        <v>83</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" t="s">
+        <v>227</v>
+      </c>
+      <c r="F77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" t="s">
+        <v>84</v>
+      </c>
+      <c r="F78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>20</v>
@@ -4226,10 +4597,19 @@
         <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D80" t="s">
+        <v>639</v>
+      </c>
+      <c r="E80" t="s">
+        <v>634</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -4239,8 +4619,17 @@
       <c r="C81" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>640</v>
+      </c>
+      <c r="E81" t="s">
+        <v>100</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -4248,204 +4637,682 @@
         <v>28</v>
       </c>
       <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>402</v>
+      </c>
+      <c r="E82" t="s">
+        <v>99</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
+        <v>396</v>
+      </c>
+      <c r="E83" t="s">
+        <v>93</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" t="s">
+        <v>403</v>
+      </c>
+      <c r="E84" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>404</v>
+      </c>
+      <c r="E85" t="s">
+        <v>405</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>406</v>
+      </c>
+      <c r="E86" t="s">
+        <v>407</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>408</v>
+      </c>
+      <c r="E87" t="s">
+        <v>408</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" t="s">
+        <v>411</v>
+      </c>
+      <c r="E88" t="s">
+        <v>412</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" t="s">
+        <v>415</v>
+      </c>
+      <c r="E89" t="s">
+        <v>83</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90" t="s">
+        <v>227</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" t="s">
+        <v>89</v>
+      </c>
+      <c r="E91" t="s">
+        <v>84</v>
+      </c>
+      <c r="F91">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="D92" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" t="s">
+        <v>639</v>
+      </c>
+      <c r="E93" t="s">
+        <v>634</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" t="s">
+        <v>640</v>
+      </c>
+      <c r="E94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" t="s">
+        <v>646</v>
+      </c>
+      <c r="E95" t="s">
+        <v>647</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" t="s">
+        <v>396</v>
+      </c>
+      <c r="E96" t="s">
+        <v>93</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97" t="s">
+        <v>404</v>
+      </c>
+      <c r="E97" t="s">
+        <v>405</v>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" t="s">
+        <v>406</v>
+      </c>
+      <c r="E98" t="s">
+        <v>407</v>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" t="s">
+        <v>408</v>
+      </c>
+      <c r="E99" t="s">
+        <v>408</v>
+      </c>
+      <c r="F99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" t="s">
+        <v>411</v>
+      </c>
+      <c r="E100" t="s">
+        <v>412</v>
+      </c>
+      <c r="F100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" t="s">
+        <v>415</v>
+      </c>
+      <c r="E101" t="s">
+        <v>83</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102" t="s">
+        <v>88</v>
+      </c>
+      <c r="E102" t="s">
+        <v>227</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" t="s">
+        <v>89</v>
+      </c>
+      <c r="E103" t="s">
+        <v>84</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>39</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B104" t="s">
         <v>40</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C104" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="D104" t="s">
+        <v>79</v>
+      </c>
+      <c r="E104" t="s">
+        <v>90</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>39</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B105" t="s">
         <v>40</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C105" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" t="s">
+        <v>668</v>
+      </c>
+      <c r="E105" t="s">
+        <v>669</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106" t="s">
+        <v>84</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>39</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B120" t="s">
         <v>40</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C120" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>39</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B121" t="s">
         <v>47</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C121" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>39</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B122" t="s">
         <v>47</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C122" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>39</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B123" t="s">
         <v>47</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C123" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>39</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B124" t="s">
         <v>49</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C124" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>39</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B125" t="s">
         <v>49</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C125" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>39</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B126" t="s">
         <v>54</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C126" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>39</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B127" t="s">
         <v>54</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C127" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>39</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B128" t="s">
         <v>59</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C128" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>39</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B129" t="s">
         <v>59</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C129" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>39</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B130" t="s">
         <v>64</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C130" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>65</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B131" t="s">
         <v>66</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C131" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>65</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B132" t="s">
         <v>66</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C132" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>65</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B133" t="s">
         <v>69</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C133" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>65</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B134" t="s">
         <v>69</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C134" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>65</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B135" t="s">
         <v>73</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C135" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4457,10 +5324,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81:F82"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88:F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4540,7 +5407,7 @@
         <v>382</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -5717,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Q45" t="s">
         <v>252</v>
@@ -5798,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Q48" t="s">
         <v>252</v>
@@ -5812,10 +6679,10 @@
         <v>397</v>
       </c>
       <c r="B49" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D49" t="s">
         <v>108</v>
@@ -5824,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q49" t="s">
         <v>252</v>
@@ -5838,10 +6705,10 @@
         <v>398</v>
       </c>
       <c r="B50" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C50" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D50" t="s">
         <v>108</v>
@@ -5850,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q50" t="s">
         <v>252</v>
@@ -5873,13 +6740,13 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N51" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O51" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q51" t="s">
         <v>252</v>
@@ -5908,10 +6775,10 @@
         <v>158</v>
       </c>
       <c r="N52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O52" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q52" t="s">
         <v>252</v>
@@ -5940,10 +6807,10 @@
         <v>159</v>
       </c>
       <c r="N53" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O53" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Q53" t="s">
         <v>252</v>
@@ -5969,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="Q54" t="s">
         <v>252</v>
@@ -5983,7 +6850,7 @@
         <v>400</v>
       </c>
       <c r="C55" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D55" t="s">
         <v>108</v>
@@ -5992,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Q55" t="s">
         <v>252</v>
@@ -6003,10 +6870,10 @@
         <v>400</v>
       </c>
       <c r="B56" t="s">
+        <v>484</v>
+      </c>
+      <c r="C56" t="s">
         <v>486</v>
-      </c>
-      <c r="C56" t="s">
-        <v>488</v>
       </c>
       <c r="D56" t="s">
         <v>108</v>
@@ -6015,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N56" t="s">
         <v>400</v>
@@ -6038,10 +6905,10 @@
         <v>400</v>
       </c>
       <c r="B57" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C57" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D57" t="s">
         <v>108</v>
@@ -6050,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N57" t="s">
         <v>400</v>
@@ -6073,10 +6940,10 @@
         <v>400</v>
       </c>
       <c r="B58" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C58" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D58" t="s">
         <v>108</v>
@@ -6085,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N58" t="s">
         <v>400</v>
@@ -6108,10 +6975,10 @@
         <v>400</v>
       </c>
       <c r="B59" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C59" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D59" t="s">
         <v>108</v>
@@ -6120,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K59" t="s">
         <v>247</v>
@@ -6149,10 +7016,10 @@
         <v>400</v>
       </c>
       <c r="B60" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C60" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D60" t="s">
         <v>135</v>
@@ -6161,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K60" t="s">
         <v>247</v>
@@ -6170,7 +7037,7 @@
         <v>248</v>
       </c>
       <c r="N60" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O60" t="s">
         <v>139</v>
@@ -6187,7 +7054,7 @@
         <v>401</v>
       </c>
       <c r="B61" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C61" t="s">
         <v>100</v>
@@ -6199,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Q61" t="s">
         <v>252</v>
@@ -6210,10 +7077,10 @@
         <v>401</v>
       </c>
       <c r="B62" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C62" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D62" t="s">
         <v>189</v>
@@ -6222,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Q62" t="s">
         <v>253</v>
@@ -6236,10 +7103,10 @@
         <v>401</v>
       </c>
       <c r="B63" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C63" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D63" t="s">
         <v>108</v>
@@ -6248,7 +7115,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Q63" t="s">
         <v>252</v>
@@ -6274,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Q64" t="s">
         <v>252</v>
@@ -6285,10 +7152,10 @@
         <v>402</v>
       </c>
       <c r="B65" t="s">
+        <v>545</v>
+      </c>
+      <c r="C65" t="s">
         <v>547</v>
-      </c>
-      <c r="C65" t="s">
-        <v>549</v>
       </c>
       <c r="D65" t="s">
         <v>108</v>
@@ -6297,13 +7164,13 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="N65" t="s">
         <v>402</v>
       </c>
       <c r="O65" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q65" t="s">
         <v>252</v>
@@ -6320,10 +7187,10 @@
         <v>402</v>
       </c>
       <c r="B66" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="C66" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="D66" t="s">
         <v>135</v>
@@ -6332,10 +7199,10 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="N66" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="O66" t="s">
         <v>139</v>
@@ -6352,10 +7219,10 @@
         <v>402</v>
       </c>
       <c r="B67" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C67" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="D67" t="s">
         <v>108</v>
@@ -6364,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="Q67" t="s">
         <v>252</v>
@@ -6375,10 +7242,10 @@
         <v>402</v>
       </c>
       <c r="B68" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="C68" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="D68" t="s">
         <v>189</v>
@@ -6387,10 +7254,10 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="N68" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="O68" t="s">
         <v>128</v>
@@ -6407,10 +7274,10 @@
         <v>402</v>
       </c>
       <c r="B69" t="s">
+        <v>546</v>
+      </c>
+      <c r="C69" t="s">
         <v>548</v>
-      </c>
-      <c r="C69" t="s">
-        <v>550</v>
       </c>
       <c r="D69" t="s">
         <v>108</v>
@@ -6419,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Q69" t="s">
         <v>252</v>
@@ -6442,7 +7309,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="K70" t="s">
         <v>345</v>
@@ -6468,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="Q71" t="s">
         <v>252</v>
@@ -6491,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="Q72" t="s">
         <v>252</v>
@@ -6514,7 +7381,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="Q73" t="s">
         <v>252</v>
@@ -6537,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="Q74" t="s">
         <v>252</v>
@@ -6548,10 +7415,10 @@
         <v>411</v>
       </c>
       <c r="B75" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="C75" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="D75" t="s">
         <v>108</v>
@@ -6560,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="K75" t="s">
         <v>247</v>
@@ -6572,7 +7439,7 @@
         <v>411</v>
       </c>
       <c r="O75" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="Q75" t="s">
         <v>252</v>
@@ -6601,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="Q76" t="s">
         <v>252</v>
@@ -6612,10 +7479,10 @@
         <v>411</v>
       </c>
       <c r="B77" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="C77" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="D77" t="s">
         <v>108</v>
@@ -6624,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="Q77" t="s">
         <v>252</v>
@@ -6647,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
@@ -6655,10 +7522,10 @@
         <v>411</v>
       </c>
       <c r="B79" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="C79" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="D79" t="s">
         <v>108</v>
@@ -6667,7 +7534,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="K79" t="s">
         <v>247</v>
@@ -6679,7 +7546,7 @@
         <v>411</v>
       </c>
       <c r="O79" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="Q79" t="s">
         <v>252</v>
@@ -6708,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="Q80" t="s">
         <v>252</v>
@@ -6716,13 +7583,13 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B81" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="C81" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="D81" t="s">
         <v>108</v>
@@ -6731,7 +7598,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="Q81" t="s">
         <v>252</v>
@@ -6739,10 +7606,10 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="B82" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="C82" t="s">
         <v>93</v>
@@ -6754,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="Q82" t="s">
         <v>252</v>
@@ -6762,7 +7629,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="B83" t="s">
         <v>388</v>
@@ -6780,7 +7647,7 @@
         <v>390</v>
       </c>
       <c r="N83" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="O83" t="s">
         <v>139</v>
@@ -6791,7 +7658,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="B84" t="s">
         <v>311</v>
@@ -6815,6 +7682,153 @@
         <v>248</v>
       </c>
       <c r="S84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>639</v>
+      </c>
+      <c r="B85" t="s">
+        <v>639</v>
+      </c>
+      <c r="C85" t="s">
+        <v>634</v>
+      </c>
+      <c r="D85" t="s">
+        <v>108</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>640</v>
+      </c>
+      <c r="B86" t="s">
+        <v>640</v>
+      </c>
+      <c r="C86" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>646</v>
+      </c>
+      <c r="B87" t="s">
+        <v>646</v>
+      </c>
+      <c r="C87" t="s">
+        <v>647</v>
+      </c>
+      <c r="D87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>668</v>
+      </c>
+      <c r="B88" t="s">
+        <v>666</v>
+      </c>
+      <c r="C88" t="s">
+        <v>667</v>
+      </c>
+      <c r="D88" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>668</v>
+      </c>
+      <c r="B89" t="s">
+        <v>670</v>
+      </c>
+      <c r="C89" t="s">
+        <v>671</v>
+      </c>
+      <c r="D89" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>675</v>
+      </c>
+      <c r="K89" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>252</v>
+      </c>
+      <c r="S89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>668</v>
+      </c>
+      <c r="B90" t="s">
+        <v>673</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D90" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>676</v>
+      </c>
+      <c r="K90" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>252</v>
+      </c>
+      <c r="S90" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6826,10 +7840,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="D239" sqref="D239"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7294,7 +8308,7 @@
         <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -7308,7 +8322,7 @@
         <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -7322,7 +8336,7 @@
         <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -7336,7 +8350,7 @@
         <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -7350,7 +8364,7 @@
         <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -8530,7 +9544,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -8544,7 +9558,7 @@
         <v>417</v>
       </c>
       <c r="C119" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -8558,7 +9572,7 @@
         <v>418</v>
       </c>
       <c r="C120" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -8569,10 +9583,10 @@
         <v>416</v>
       </c>
       <c r="B121" t="s">
-        <v>419</v>
+        <v>643</v>
       </c>
       <c r="C121" t="s">
-        <v>423</v>
+        <v>645</v>
       </c>
       <c r="D121">
         <v>4</v>
@@ -8580,13 +9594,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B122">
         <v>400</v>
       </c>
       <c r="C122" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -8594,13 +9608,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B123">
         <v>600</v>
       </c>
       <c r="C123" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -8608,13 +9622,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B124">
         <v>800</v>
       </c>
       <c r="C124" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -8622,13 +9636,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B125">
         <v>1000</v>
       </c>
       <c r="C125" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -8636,13 +9650,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B126">
         <v>1300</v>
       </c>
       <c r="C126" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D126">
         <v>5</v>
@@ -8650,13 +9664,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B127">
         <v>1500</v>
       </c>
       <c r="C127" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D127">
         <v>6</v>
@@ -8664,13 +9678,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B128">
         <v>1600</v>
       </c>
       <c r="C128" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D128">
         <v>7</v>
@@ -8678,13 +9692,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B129">
         <v>1800</v>
       </c>
       <c r="C129" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D129">
         <v>8</v>
@@ -8692,7 +9706,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B130" t="s">
         <v>139</v>
@@ -8706,13 +9720,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>431</v>
+      </c>
+      <c r="B131" t="s">
         <v>433</v>
       </c>
-      <c r="B131" t="s">
-        <v>435</v>
-      </c>
       <c r="C131" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -8720,13 +9734,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B132" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C132" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -8734,13 +9748,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B133" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C133" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -8748,13 +9762,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B134" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C134" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D134">
         <v>4</v>
@@ -8762,13 +9776,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B135" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C135" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D135">
         <v>5</v>
@@ -8776,13 +9790,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B136" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C136" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D136">
         <v>6</v>
@@ -8790,13 +9804,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B137" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C137" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D137">
         <v>7</v>
@@ -8804,13 +9818,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B138" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C138" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D138">
         <v>8</v>
@@ -8818,13 +9832,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B139" t="s">
+        <v>451</v>
+      </c>
+      <c r="C139" t="s">
         <v>453</v>
-      </c>
-      <c r="C139" t="s">
-        <v>455</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -8832,13 +9846,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>450</v>
+      </c>
+      <c r="B140" t="s">
         <v>452</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>454</v>
-      </c>
-      <c r="C140" t="s">
-        <v>456</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -8846,7 +9860,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B141" t="s">
         <v>160</v>
@@ -8860,13 +9874,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B142" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C142" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -8874,13 +9888,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B143" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C143" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D143">
         <v>3</v>
@@ -8888,13 +9902,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B144" t="s">
         <v>161</v>
       </c>
       <c r="C144" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -8902,13 +9916,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B145" t="s">
         <v>162</v>
       </c>
       <c r="C145" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -8916,13 +9930,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B146" t="s">
         <v>163</v>
       </c>
       <c r="C146" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D146">
         <v>3</v>
@@ -8930,13 +9944,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B147" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C147" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D147">
         <v>4</v>
@@ -8944,13 +9958,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B148" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C148" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D148">
         <v>5</v>
@@ -8958,13 +9972,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B149" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C149" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D149">
         <v>6</v>
@@ -8972,13 +9986,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B150" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C150" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D150">
         <v>7</v>
@@ -8986,13 +10000,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B151" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C151" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D151">
         <v>8</v>
@@ -9000,13 +10014,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B152" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C152" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D152">
         <v>9</v>
@@ -9014,7 +10028,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B153" t="s">
         <v>209</v>
@@ -9028,13 +10042,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B154" t="s">
+        <v>479</v>
+      </c>
+      <c r="C154" t="s">
         <v>481</v>
-      </c>
-      <c r="C154" t="s">
-        <v>483</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -9042,13 +10056,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>478</v>
+      </c>
+      <c r="B155" t="s">
         <v>480</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>482</v>
-      </c>
-      <c r="C155" t="s">
-        <v>484</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -9056,13 +10070,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B156" t="s">
         <v>116</v>
       </c>
       <c r="C156" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -9070,13 +10084,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B157" t="s">
         <v>128</v>
       </c>
       <c r="C157" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -9084,13 +10098,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B158" t="s">
         <v>116</v>
       </c>
       <c r="C158" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -9098,13 +10112,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B159" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C159" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -9112,13 +10126,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B160" t="s">
         <v>116</v>
       </c>
       <c r="C160" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -9126,13 +10140,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B161" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C161" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -9140,7 +10154,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B162" t="s">
         <v>212</v>
@@ -9154,13 +10168,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B163" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C163" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -9168,13 +10182,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>493</v>
+      </c>
+      <c r="B164" t="s">
         <v>495</v>
       </c>
-      <c r="B164" t="s">
-        <v>497</v>
-      </c>
       <c r="C164" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -9182,13 +10196,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B165" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C165" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D165">
         <v>4</v>
@@ -9196,13 +10210,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B166" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C166" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D166">
         <v>5</v>
@@ -9210,13 +10224,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B167" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C167" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D167">
         <v>6</v>
@@ -9224,7 +10238,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B168">
         <v>300</v>
@@ -9238,7 +10252,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B169">
         <v>500</v>
@@ -9252,13 +10266,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B170">
         <v>600</v>
       </c>
       <c r="C170" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D170">
         <v>3</v>
@@ -9266,7 +10280,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B171" t="s">
         <v>139</v>
@@ -9280,7 +10294,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -9288,13 +10302,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B173" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C173" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -9302,13 +10316,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B174" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C174" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D174">
         <v>2</v>
@@ -9316,13 +10330,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B175" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C175" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -9330,13 +10344,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B176" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C176" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D176">
         <v>4</v>
@@ -9344,13 +10358,13 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B177" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C177" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D177">
         <v>5</v>
@@ -9358,13 +10372,13 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B178" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C178" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D178">
         <v>6</v>
@@ -9372,13 +10386,13 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B179" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C179" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -9386,13 +10400,13 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B180" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C180" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -9400,13 +10414,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B181" t="s">
         <v>116</v>
       </c>
       <c r="C181" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -9414,13 +10428,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B182" t="s">
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -9428,13 +10442,13 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B183" t="s">
         <v>241</v>
       </c>
       <c r="C183" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -9442,13 +10456,13 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B184" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C184" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -9456,13 +10470,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B185" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C185" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -9470,13 +10484,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C186" t="s">
-        <v>569</v>
+        <v>652</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -9490,13 +10504,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C187" t="s">
-        <v>570</v>
+        <v>653</v>
       </c>
       <c r="D187">
         <v>2</v>
@@ -9505,18 +10519,18 @@
         <v>402</v>
       </c>
       <c r="F187" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C188" t="s">
-        <v>571</v>
+        <v>654</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -9525,18 +10539,18 @@
         <v>402</v>
       </c>
       <c r="F188" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C189" t="s">
-        <v>572</v>
+        <v>655</v>
       </c>
       <c r="D189">
         <v>4</v>
@@ -9550,13 +10564,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C190" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
       <c r="D190">
         <v>5</v>
@@ -9565,18 +10579,18 @@
         <v>402</v>
       </c>
       <c r="F190" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C191" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
       <c r="D191">
         <v>6</v>
@@ -9585,18 +10599,18 @@
         <v>402</v>
       </c>
       <c r="F191" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C192" t="s">
-        <v>575</v>
+        <v>658</v>
       </c>
       <c r="D192">
         <v>7</v>
@@ -9605,18 +10619,18 @@
         <v>402</v>
       </c>
       <c r="F192" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C193" t="s">
-        <v>576</v>
+        <v>659</v>
       </c>
       <c r="D193">
         <v>8</v>
@@ -9625,18 +10639,18 @@
         <v>402</v>
       </c>
       <c r="F193" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C194" t="s">
-        <v>577</v>
+        <v>660</v>
       </c>
       <c r="D194">
         <v>9</v>
@@ -9645,18 +10659,18 @@
         <v>402</v>
       </c>
       <c r="F194" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C195" t="s">
-        <v>578</v>
+        <v>661</v>
       </c>
       <c r="D195">
         <v>10</v>
@@ -9665,18 +10679,18 @@
         <v>402</v>
       </c>
       <c r="F195" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C196" t="s">
-        <v>579</v>
+        <v>662</v>
       </c>
       <c r="D196">
         <v>11</v>
@@ -9685,12 +10699,12 @@
         <v>402</v>
       </c>
       <c r="F196" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>139</v>
@@ -9705,12 +10719,12 @@
         <v>402</v>
       </c>
       <c r="F197" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -9718,13 +10732,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="B199" t="s">
         <v>116</v>
       </c>
       <c r="C199" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -9732,13 +10746,13 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="B200" t="s">
         <v>128</v>
       </c>
       <c r="C200" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D200">
         <v>2</v>
@@ -9746,13 +10760,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="B201" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="C201" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -9760,13 +10774,13 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="B202" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="C202" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="D202">
         <v>2</v>
@@ -9774,13 +10788,13 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B203" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C203" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -9788,13 +10802,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B204" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="C204" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="D204">
         <v>2</v>
@@ -9802,7 +10816,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="B205">
         <v>50</v>
@@ -9816,10 +10830,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="B206" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>405</v>
@@ -9830,13 +10844,13 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B207" t="s">
         <v>116</v>
       </c>
       <c r="C207" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -9844,13 +10858,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B208" t="s">
         <v>70</v>
       </c>
       <c r="C208" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="D208">
         <v>2</v>
@@ -9858,13 +10872,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B209" t="s">
         <v>71</v>
       </c>
       <c r="C209" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D209">
         <v>3</v>
@@ -9872,13 +10886,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B210" t="s">
         <v>116</v>
       </c>
       <c r="C210" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -9886,13 +10900,13 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B211" t="s">
         <v>67</v>
       </c>
       <c r="C211" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="D211">
         <v>2</v>
@@ -9900,13 +10914,13 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B212" t="s">
         <v>68</v>
       </c>
       <c r="C212" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="D212">
         <v>3</v>
@@ -9914,13 +10928,13 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="B213" t="s">
         <v>116</v>
       </c>
       <c r="C213" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -9929,18 +10943,18 @@
         <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="B214" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="C214" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="D214">
         <v>2</v>
@@ -9949,18 +10963,18 @@
         <v>411</v>
       </c>
       <c r="F214" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="B215" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="C215" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="D215">
         <v>3</v>
@@ -9969,18 +10983,18 @@
         <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="B216" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="C216" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="D216">
         <v>4</v>
@@ -9989,18 +11003,18 @@
         <v>411</v>
       </c>
       <c r="F216" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B217" t="s">
         <v>116</v>
       </c>
       <c r="C217" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -10008,13 +11022,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B218" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="C218" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="D218">
         <v>2</v>
@@ -10022,13 +11036,13 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B219" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="C219" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="D219">
         <v>3</v>
@@ -10036,13 +11050,13 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B220" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="C220" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -10050,13 +11064,13 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B221" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="C221" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="D221">
         <v>2</v>
@@ -10064,13 +11078,13 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B222" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="C222" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D222">
         <v>3</v>
@@ -10078,13 +11092,13 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="B223" t="s">
         <v>116</v>
       </c>
       <c r="C223" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -10092,13 +11106,13 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="B224" t="s">
         <v>377</v>
       </c>
       <c r="C224" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="D224">
         <v>2</v>
@@ -10106,7 +11120,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -10114,13 +11128,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="B226">
         <v>200</v>
       </c>
       <c r="C226" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -10128,13 +11142,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="B227">
         <v>300</v>
       </c>
       <c r="C227" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="D227">
         <v>2</v>
@@ -10142,13 +11156,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="B228">
         <v>400</v>
       </c>
       <c r="C228" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="D228">
         <v>3</v>
@@ -10156,10 +11170,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="B229" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>83</v>
@@ -10170,13 +11184,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="B230" t="s">
         <v>116</v>
       </c>
       <c r="C230" t="s">
-        <v>515</v>
+        <v>419</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -10184,13 +11198,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="B231" t="s">
-        <v>128</v>
+        <v>418</v>
       </c>
       <c r="C231" t="s">
-        <v>515</v>
+        <v>421</v>
       </c>
       <c r="D231">
         <v>2</v>
@@ -10198,79 +11212,310 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B232">
         <v>400</v>
       </c>
+      <c r="C232" t="s">
+        <v>423</v>
+      </c>
       <c r="D232">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B233">
         <v>600</v>
       </c>
+      <c r="C233" t="s">
+        <v>424</v>
+      </c>
       <c r="D233">
         <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B234">
         <v>800</v>
       </c>
+      <c r="C234" t="s">
+        <v>425</v>
+      </c>
       <c r="D234">
         <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B235">
         <v>1000</v>
       </c>
+      <c r="C235" t="s">
+        <v>426</v>
+      </c>
       <c r="D235">
         <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B236">
         <v>1300</v>
       </c>
+      <c r="C236" t="s">
+        <v>427</v>
+      </c>
       <c r="D236">
         <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B237">
         <v>1500</v>
       </c>
+      <c r="C237" t="s">
+        <v>428</v>
+      </c>
       <c r="D237">
         <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B238">
         <v>1600</v>
       </c>
+      <c r="C238" t="s">
+        <v>429</v>
+      </c>
       <c r="D238">
         <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>641</v>
+      </c>
+      <c r="B239" t="s">
+        <v>116</v>
+      </c>
+      <c r="C239" t="s">
+        <v>419</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>641</v>
+      </c>
+      <c r="B240" t="s">
+        <v>643</v>
+      </c>
+      <c r="C240" t="s">
+        <v>645</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>642</v>
+      </c>
+      <c r="B241" t="s">
+        <v>644</v>
+      </c>
+      <c r="C241" t="s">
+        <v>100</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>648</v>
+      </c>
+      <c r="B242" t="s">
+        <v>649</v>
+      </c>
+      <c r="C242" t="s">
+        <v>663</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>648</v>
+      </c>
+      <c r="B243" t="s">
+        <v>650</v>
+      </c>
+      <c r="C243" t="s">
+        <v>664</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>648</v>
+      </c>
+      <c r="B244" t="s">
+        <v>651</v>
+      </c>
+      <c r="C244" t="s">
+        <v>665</v>
+      </c>
+      <c r="D244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>674</v>
+      </c>
+      <c r="B245" t="s">
+        <v>677</v>
+      </c>
+      <c r="C245" t="s">
+        <v>681</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>674</v>
+      </c>
+      <c r="B246" t="s">
+        <v>678</v>
+      </c>
+      <c r="C246" t="s">
+        <v>681</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>674</v>
+      </c>
+      <c r="B247" t="s">
+        <v>679</v>
+      </c>
+      <c r="C247" t="s">
+        <v>681</v>
+      </c>
+      <c r="D247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>674</v>
+      </c>
+      <c r="B248" t="s">
+        <v>680</v>
+      </c>
+      <c r="C248" t="s">
+        <v>681</v>
+      </c>
+      <c r="D248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>675</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>682</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>675</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250" t="s">
+        <v>683</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>676</v>
+      </c>
+      <c r="B251" t="s">
+        <v>345</v>
+      </c>
+      <c r="C251" t="s">
+        <v>686</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>676</v>
+      </c>
+      <c r="B252" t="s">
+        <v>684</v>
+      </c>
+      <c r="C252" t="s">
+        <v>687</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>676</v>
+      </c>
+      <c r="B253" t="s">
+        <v>685</v>
+      </c>
+      <c r="C253" t="s">
+        <v>688</v>
+      </c>
+      <c r="D253">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61048720-E4C3-403B-BB86-B93268D975B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD7F332-AC90-462D-B0AC-FEF3A0621512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="767">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2103,6 +2103,240 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Araba_Tipi</t>
+  </si>
+  <si>
+    <t>Araba Tipi</t>
+  </si>
+  <si>
+    <t>Araba_Olcusu</t>
+  </si>
+  <si>
+    <t>Araba Ölçüsü</t>
+  </si>
+  <si>
+    <t>Asansor</t>
+  </si>
+  <si>
+    <t>Asansör</t>
+  </si>
+  <si>
+    <t>Ayirici</t>
+  </si>
+  <si>
+    <t>Ayırıcı</t>
+  </si>
+  <si>
+    <t>Destacker_Araba</t>
+  </si>
+  <si>
+    <t>Araba_Tipi_opts</t>
+  </si>
+  <si>
+    <t>Araba_Olcusu_opts</t>
+  </si>
+  <si>
+    <t>Asansor_opts</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>TACI</t>
+  </si>
+  <si>
+    <t>500 x 800</t>
+  </si>
+  <si>
+    <t>630 x 1000</t>
+  </si>
+  <si>
+    <t>800 x 1250</t>
+  </si>
+  <si>
+    <t>1000 x 1600</t>
+  </si>
+  <si>
+    <t>1250 x 2000</t>
+  </si>
+  <si>
+    <t>1600 x 2500</t>
+  </si>
+  <si>
+    <t>BuNeAmk</t>
+  </si>
+  <si>
+    <t>BuNeAmk_opts</t>
+  </si>
+  <si>
+    <t>Asansor_Strok</t>
+  </si>
+  <si>
+    <t>Asansör Stroku</t>
+  </si>
+  <si>
+    <t>Asansor_Strok_opts</t>
+  </si>
+  <si>
+    <t>Asansör Yok</t>
+  </si>
+  <si>
+    <t>Asansör Var</t>
+  </si>
+  <si>
+    <t>Asansor_Tipi</t>
+  </si>
+  <si>
+    <t>Asansör Tipi</t>
+  </si>
+  <si>
+    <t>Destacker_Araba_Asansor</t>
+  </si>
+  <si>
+    <t>Asansor_Tipi_opts</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Ayirici_bune</t>
+  </si>
+  <si>
+    <t>Ayirici_bune1</t>
+  </si>
+  <si>
+    <t>Ayirici_bune2</t>
+  </si>
+  <si>
+    <t>Ayırıcı Bune</t>
+  </si>
+  <si>
+    <t>Ayırıcı Bune1</t>
+  </si>
+  <si>
+    <t>Ayırıcı Bune2</t>
+  </si>
+  <si>
+    <t>Ayirici_bune_opts</t>
+  </si>
+  <si>
+    <t>Ayirici_bune1_opts</t>
+  </si>
+  <si>
+    <t>Ayirici_bune2_opts</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>İstif_Elk</t>
+  </si>
+  <si>
+    <t>İstif Elektrik Altyapı</t>
+  </si>
+  <si>
+    <t>İstif_Tipi</t>
+  </si>
+  <si>
+    <t>Konveyor</t>
+  </si>
+  <si>
+    <t>Microfeeder</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_İstif</t>
+  </si>
+  <si>
+    <t>İstasyon_Sayisi</t>
+  </si>
+  <si>
+    <t>Hiz_İstif</t>
+  </si>
+  <si>
+    <t>Hiz_Hat</t>
+  </si>
+  <si>
+    <t>Kesilecek_Urun_Tipi</t>
+  </si>
+  <si>
+    <t>Dusurme_Tahrik</t>
+  </si>
+  <si>
+    <t>Makara_Tahrik</t>
+  </si>
+  <si>
+    <t>Tokatlama</t>
+  </si>
+  <si>
+    <t>Palet_Tipi</t>
+  </si>
+  <si>
+    <t>Araba_Hareketi</t>
+  </si>
+  <si>
+    <t>Araba_Asansor</t>
+  </si>
+  <si>
+    <t>İstif Tipi</t>
+  </si>
+  <si>
+    <t>Konveyör</t>
+  </si>
+  <si>
+    <t>İstasyon Sayısı</t>
+  </si>
+  <si>
+    <t>Kesilecek Ürün Tipi</t>
+  </si>
+  <si>
+    <t>Düşürme Tahrik</t>
+  </si>
+  <si>
+    <t>Makara Tahrik</t>
+  </si>
+  <si>
+    <t>Palet Tipi</t>
+  </si>
+  <si>
+    <t>Araba Hareketi</t>
+  </si>
+  <si>
+    <t>Araba Asansör</t>
+  </si>
+  <si>
+    <t>İstif Hızı (Spm)</t>
+  </si>
+  <si>
+    <t>İstif_Elk_opts</t>
+  </si>
+  <si>
+    <t>FST</t>
   </si>
 </sst>
 </file>
@@ -2978,10 +3212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105:E105"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112:E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5129,62 +5363,347 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" t="s">
+        <v>79</v>
+      </c>
+      <c r="E107" t="s">
+        <v>90</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" t="s">
+        <v>697</v>
+      </c>
+      <c r="E108" t="s">
+        <v>690</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" t="s">
+        <v>722</v>
+      </c>
+      <c r="E109" t="s">
+        <v>721</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" t="s">
+        <v>695</v>
+      </c>
+      <c r="E110" t="s">
+        <v>696</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" t="s">
+        <v>79</v>
+      </c>
+      <c r="E111" t="s">
+        <v>90</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" t="s">
+        <v>739</v>
+      </c>
+      <c r="E112" t="s">
+        <v>740</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" t="s">
+        <v>741</v>
+      </c>
+      <c r="E113" t="s">
+        <v>755</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" t="s">
+        <v>742</v>
+      </c>
+      <c r="E114" t="s">
+        <v>756</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115" t="s">
+        <v>743</v>
+      </c>
+      <c r="E115" t="s">
+        <v>743</v>
+      </c>
+      <c r="F115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" t="s">
+        <v>744</v>
+      </c>
+      <c r="E116" t="s">
+        <v>93</v>
+      </c>
+      <c r="F116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" t="s">
+        <v>50</v>
+      </c>
+      <c r="D117" t="s">
+        <v>745</v>
+      </c>
+      <c r="E117" t="s">
+        <v>757</v>
+      </c>
+      <c r="F117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118" t="s">
+        <v>50</v>
+      </c>
+      <c r="D118" t="s">
+        <v>746</v>
+      </c>
+      <c r="E118" t="s">
+        <v>101</v>
+      </c>
+      <c r="F118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>39</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C119" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D119" t="s">
+        <v>748</v>
+      </c>
+      <c r="E119" t="s">
+        <v>758</v>
+      </c>
+      <c r="F119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>39</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C120" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D120" t="s">
+        <v>749</v>
+      </c>
+      <c r="E120" t="s">
+        <v>759</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C121" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D121" t="s">
+        <v>750</v>
+      </c>
+      <c r="E121" t="s">
+        <v>760</v>
+      </c>
+      <c r="F121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C122" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D122" t="s">
+        <v>751</v>
+      </c>
+      <c r="E122" t="s">
+        <v>751</v>
+      </c>
+      <c r="F122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C123" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D123" t="s">
+        <v>752</v>
+      </c>
+      <c r="E123" t="s">
+        <v>761</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -5194,8 +5713,17 @@
       <c r="C124" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>753</v>
+      </c>
+      <c r="E124" t="s">
+        <v>762</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -5203,40 +5731,58 @@
         <v>49</v>
       </c>
       <c r="C125" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D125" t="s">
+        <v>754</v>
+      </c>
+      <c r="E125" t="s">
+        <v>763</v>
+      </c>
+      <c r="F125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C126" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D126" t="s">
+        <v>89</v>
+      </c>
+      <c r="E126" t="s">
+        <v>84</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>39</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>39</v>
       </c>
       <c r="B128" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C128" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5244,10 +5790,10 @@
         <v>39</v>
       </c>
       <c r="B129" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C129" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -5255,64 +5801,130 @@
         <v>39</v>
       </c>
       <c r="B130" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C130" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>65</v>
-      </c>
-      <c r="B131" t="s">
-        <v>66</v>
-      </c>
-      <c r="C131" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B132" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C132" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C133" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B134" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C134" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" t="s">
+        <v>64</v>
+      </c>
+      <c r="C137" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>65</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B138" t="s">
+        <v>66</v>
+      </c>
+      <c r="C138" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>65</v>
+      </c>
+      <c r="B139" t="s">
+        <v>66</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>65</v>
+      </c>
+      <c r="B140" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>65</v>
+      </c>
+      <c r="B141" t="s">
+        <v>69</v>
+      </c>
+      <c r="C141" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>65</v>
+      </c>
+      <c r="B142" t="s">
         <v>73</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C142" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5324,10 +5936,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S90"/>
+  <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88:F90"/>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7773,6 +8385,9 @@
       <c r="F88" t="s">
         <v>674</v>
       </c>
+      <c r="Q88" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -7830,6 +8445,408 @@
       </c>
       <c r="S90" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>697</v>
+      </c>
+      <c r="B91" t="s">
+        <v>689</v>
+      </c>
+      <c r="C91" t="s">
+        <v>690</v>
+      </c>
+      <c r="D91" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>697</v>
+      </c>
+      <c r="B92" t="s">
+        <v>691</v>
+      </c>
+      <c r="C92" t="s">
+        <v>692</v>
+      </c>
+      <c r="D92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>697</v>
+      </c>
+      <c r="B93" t="s">
+        <v>713</v>
+      </c>
+      <c r="C93" t="s">
+        <v>713</v>
+      </c>
+      <c r="D93" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>714</v>
+      </c>
+      <c r="K93" t="s">
+        <v>247</v>
+      </c>
+      <c r="L93" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>252</v>
+      </c>
+      <c r="S93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>722</v>
+      </c>
+      <c r="B94" t="s">
+        <v>693</v>
+      </c>
+      <c r="C94" t="s">
+        <v>694</v>
+      </c>
+      <c r="D94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>722</v>
+      </c>
+      <c r="B95" t="s">
+        <v>715</v>
+      </c>
+      <c r="C95" t="s">
+        <v>716</v>
+      </c>
+      <c r="D95" t="s">
+        <v>243</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>717</v>
+      </c>
+      <c r="S95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>722</v>
+      </c>
+      <c r="B96" t="s">
+        <v>720</v>
+      </c>
+      <c r="C96" t="s">
+        <v>721</v>
+      </c>
+      <c r="D96" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>723</v>
+      </c>
+      <c r="K96" t="s">
+        <v>247</v>
+      </c>
+      <c r="L96" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>252</v>
+      </c>
+      <c r="S96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>695</v>
+      </c>
+      <c r="B97" t="s">
+        <v>727</v>
+      </c>
+      <c r="C97" t="s">
+        <v>730</v>
+      </c>
+      <c r="D97" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>695</v>
+      </c>
+      <c r="B98" t="s">
+        <v>728</v>
+      </c>
+      <c r="C98" t="s">
+        <v>731</v>
+      </c>
+      <c r="D98" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>695</v>
+      </c>
+      <c r="B99" t="s">
+        <v>729</v>
+      </c>
+      <c r="C99" t="s">
+        <v>732</v>
+      </c>
+      <c r="D99" t="s">
+        <v>108</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>739</v>
+      </c>
+      <c r="B100" t="s">
+        <v>739</v>
+      </c>
+      <c r="C100" t="s">
+        <v>740</v>
+      </c>
+      <c r="D100" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>741</v>
+      </c>
+      <c r="B101" t="s">
+        <v>741</v>
+      </c>
+      <c r="C101" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>742</v>
+      </c>
+      <c r="B102" t="s">
+        <v>742</v>
+      </c>
+      <c r="C102" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>743</v>
+      </c>
+      <c r="B103" t="s">
+        <v>743</v>
+      </c>
+      <c r="C103" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>744</v>
+      </c>
+      <c r="B104" t="s">
+        <v>744</v>
+      </c>
+      <c r="C104" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>745</v>
+      </c>
+      <c r="B105" t="s">
+        <v>745</v>
+      </c>
+      <c r="C105" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>746</v>
+      </c>
+      <c r="B106" t="s">
+        <v>747</v>
+      </c>
+      <c r="C106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>746</v>
+      </c>
+      <c r="B107" t="s">
+        <v>746</v>
+      </c>
+      <c r="C107" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>748</v>
+      </c>
+      <c r="B108" t="s">
+        <v>748</v>
+      </c>
+      <c r="C108" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>749</v>
+      </c>
+      <c r="B109" t="s">
+        <v>749</v>
+      </c>
+      <c r="C109" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>750</v>
+      </c>
+      <c r="B110" t="s">
+        <v>750</v>
+      </c>
+      <c r="C110" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>751</v>
+      </c>
+      <c r="B111" t="s">
+        <v>751</v>
+      </c>
+      <c r="C111" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>752</v>
+      </c>
+      <c r="B112" t="s">
+        <v>752</v>
+      </c>
+      <c r="C112" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>753</v>
+      </c>
+      <c r="B113" t="s">
+        <v>753</v>
+      </c>
+      <c r="C113" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>754</v>
+      </c>
+      <c r="B114" t="s">
+        <v>754</v>
+      </c>
+      <c r="C114" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -7840,10 +8857,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F253"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="D254" sqref="D254"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11518,6 +12535,302 @@
         <v>3</v>
       </c>
     </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>698</v>
+      </c>
+      <c r="B254" t="s">
+        <v>701</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>698</v>
+      </c>
+      <c r="B255" t="s">
+        <v>702</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>698</v>
+      </c>
+      <c r="B256" t="s">
+        <v>703</v>
+      </c>
+      <c r="D256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>698</v>
+      </c>
+      <c r="B257" t="s">
+        <v>704</v>
+      </c>
+      <c r="D257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>698</v>
+      </c>
+      <c r="B258" t="s">
+        <v>705</v>
+      </c>
+      <c r="D258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>698</v>
+      </c>
+      <c r="B259" t="s">
+        <v>706</v>
+      </c>
+      <c r="D259">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>699</v>
+      </c>
+      <c r="B260" t="s">
+        <v>707</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>699</v>
+      </c>
+      <c r="B261" t="s">
+        <v>708</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>699</v>
+      </c>
+      <c r="B262" t="s">
+        <v>709</v>
+      </c>
+      <c r="D262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>699</v>
+      </c>
+      <c r="B263" t="s">
+        <v>710</v>
+      </c>
+      <c r="D263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>699</v>
+      </c>
+      <c r="B264" t="s">
+        <v>711</v>
+      </c>
+      <c r="D264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>699</v>
+      </c>
+      <c r="B265" t="s">
+        <v>712</v>
+      </c>
+      <c r="D265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>713</v>
+      </c>
+      <c r="B266" t="s">
+        <v>116</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>713</v>
+      </c>
+      <c r="B267" t="s">
+        <v>704</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>700</v>
+      </c>
+      <c r="B268" t="s">
+        <v>116</v>
+      </c>
+      <c r="C268" t="s">
+        <v>718</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>700</v>
+      </c>
+      <c r="B269" t="s">
+        <v>452</v>
+      </c>
+      <c r="C269" t="s">
+        <v>719</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>717</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>723</v>
+      </c>
+      <c r="B271" t="s">
+        <v>724</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>723</v>
+      </c>
+      <c r="B272" t="s">
+        <v>725</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>723</v>
+      </c>
+      <c r="B273" t="s">
+        <v>704</v>
+      </c>
+      <c r="D273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>723</v>
+      </c>
+      <c r="B274" t="s">
+        <v>726</v>
+      </c>
+      <c r="D274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>733</v>
+      </c>
+      <c r="B275" t="s">
+        <v>736</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>733</v>
+      </c>
+      <c r="B276" t="s">
+        <v>737</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>734</v>
+      </c>
+      <c r="B277" t="s">
+        <v>738</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>735</v>
+      </c>
+      <c r="B278" t="s">
+        <v>532</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>765</v>
+      </c>
+      <c r="B279" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>766</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD7F332-AC90-462D-B0AC-FEF3A0621512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AC3BAD-E02F-4418-959B-50C05EEFC3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="825">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2337,6 +2337,180 @@
   </si>
   <si>
     <t>FST</t>
+  </si>
+  <si>
+    <t>Festo</t>
+  </si>
+  <si>
+    <t>SIE,SCH,XXX,Yok</t>
+  </si>
+  <si>
+    <t>SIE,SCH,ALB,XXX,Yok</t>
+  </si>
+  <si>
+    <t>İstif_Tipi_opts</t>
+  </si>
+  <si>
+    <t>BSC</t>
+  </si>
+  <si>
+    <t>OPT</t>
+  </si>
+  <si>
+    <t>PRM</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Optimum</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Konveyor_opts</t>
+  </si>
+  <si>
+    <t>Microfeeder_opts</t>
+  </si>
+  <si>
+    <t>İstasyon_Sayisi_opts</t>
+  </si>
+  <si>
+    <t>Hiz_Hat_opts</t>
+  </si>
+  <si>
+    <t>Hiz_İstif_opts</t>
+  </si>
+  <si>
+    <t>Kesilecek_Urun_Tipi_opts</t>
+  </si>
+  <si>
+    <t>Dusurme_Tahrik_opts</t>
+  </si>
+  <si>
+    <t>Makara_Tahrik_opts</t>
+  </si>
+  <si>
+    <t>Tokatlama_opts</t>
+  </si>
+  <si>
+    <t>Palet_Tipi_opts</t>
+  </si>
+  <si>
+    <t>Araba_Hareketi_opts</t>
+  </si>
+  <si>
+    <t>Araba_Asansor_opts</t>
+  </si>
+  <si>
+    <t>BSC,OPT</t>
+  </si>
+  <si>
+    <t>BSC,OPT,PRM</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_İstif_Min</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_İstif_Max</t>
+  </si>
+  <si>
+    <t>Minimum Sac Genişliği</t>
+  </si>
+  <si>
+    <t>Maksimum Sac Genişliği</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_İstif_Min_opts</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_İstif_Max_opts</t>
+  </si>
+  <si>
+    <t>Tek İstif Tek Araba</t>
+  </si>
+  <si>
+    <t>Tek İstif Çift Araba</t>
+  </si>
+  <si>
+    <t>Çift İstif Çift Araba</t>
+  </si>
+  <si>
+    <t>OPT,PRM</t>
+  </si>
+  <si>
+    <t>(80 m/dk hat hızı)</t>
+  </si>
+  <si>
+    <t>(120 m/dk hat hızı)</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>GV</t>
+  </si>
+  <si>
+    <t>Galvaniz</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Aluminyum</t>
+  </si>
+  <si>
+    <t>Paslanmaz Çelik</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>Bakır</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Çelik</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Pnömatik</t>
+  </si>
+  <si>
+    <t>SIE ES</t>
+  </si>
+  <si>
+    <t>FST ES</t>
+  </si>
+  <si>
+    <t>Siemens Elektronik Silindir</t>
+  </si>
+  <si>
+    <t>Festo Elektronik Silindir</t>
+  </si>
+  <si>
+    <t>Motorlu</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>Euro palet</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Özel palet</t>
   </si>
 </sst>
 </file>
@@ -3214,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112:E125"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5936,10 +6110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S114"/>
+  <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q116" sqref="Q116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8603,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>695</v>
       </c>
@@ -8626,7 +8800,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>695</v>
       </c>
@@ -8649,7 +8823,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>695</v>
       </c>
@@ -8672,7 +8846,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>739</v>
       </c>
@@ -8695,7 +8869,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>741</v>
       </c>
@@ -8705,8 +8879,20 @@
       <c r="C101" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>770</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>742</v>
       </c>
@@ -8716,8 +8902,20 @@
       <c r="C102" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>743</v>
       </c>
@@ -8727,126 +8925,299 @@
       <c r="C103" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>108</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>744</v>
       </c>
       <c r="B104" t="s">
+        <v>791</v>
+      </c>
+      <c r="C104" t="s">
+        <v>793</v>
+      </c>
+      <c r="D104" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>744</v>
       </c>
-      <c r="C104" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
+        <v>792</v>
+      </c>
+      <c r="C105" t="s">
+        <v>794</v>
+      </c>
+      <c r="D105" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>745</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>745</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>746</v>
-      </c>
-      <c r="B106" t="s">
-        <v>747</v>
-      </c>
-      <c r="C106" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>746</v>
       </c>
       <c r="B107" t="s">
+        <v>747</v>
+      </c>
+      <c r="C107" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>780</v>
+      </c>
+      <c r="K107" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>746</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>746</v>
+      </c>
+      <c r="C108" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="D108" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>781</v>
+      </c>
+      <c r="L108" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>748</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>748</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="D109" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>749</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>749</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="D110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>750</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>750</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="D111" t="s">
+        <v>108</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>784</v>
+      </c>
+      <c r="N111" t="s">
+        <v>741</v>
+      </c>
+      <c r="O111" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>252</v>
+      </c>
+      <c r="R111" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>751</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>751</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="D112" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>752</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>752</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="D113" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>753</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>753</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="D114" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>754</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>754</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>763</v>
+      </c>
+      <c r="D115" t="s">
+        <v>108</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8857,16 +9228,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279"/>
+    <sheetView topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="D311" sqref="D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -12747,7 +13118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>723</v>
       </c>
@@ -12758,7 +13129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>723</v>
       </c>
@@ -12769,7 +13140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>733</v>
       </c>
@@ -12780,7 +13151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>733</v>
       </c>
@@ -12791,7 +13162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>734</v>
       </c>
@@ -12802,7 +13173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>735</v>
       </c>
@@ -12813,22 +13184,485 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>765</v>
       </c>
       <c r="B279" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
+        <v>111</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279" t="s">
+        <v>106</v>
+      </c>
+      <c r="F279" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>765</v>
+      </c>
       <c r="B280" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>115</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280" t="s">
+        <v>106</v>
+      </c>
+      <c r="F280" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>765</v>
+      </c>
       <c r="B281" t="s">
         <v>766</v>
+      </c>
+      <c r="C281" t="s">
+        <v>767</v>
+      </c>
+      <c r="D281">
+        <v>3</v>
+      </c>
+      <c r="E281" t="s">
+        <v>106</v>
+      </c>
+      <c r="F281" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>770</v>
+      </c>
+      <c r="B282" t="s">
+        <v>771</v>
+      </c>
+      <c r="C282" t="s">
+        <v>774</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>770</v>
+      </c>
+      <c r="B283" t="s">
+        <v>772</v>
+      </c>
+      <c r="C283" t="s">
+        <v>775</v>
+      </c>
+      <c r="D283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>770</v>
+      </c>
+      <c r="B284" t="s">
+        <v>773</v>
+      </c>
+      <c r="C284" t="s">
+        <v>776</v>
+      </c>
+      <c r="D284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>777</v>
+      </c>
+      <c r="B285" t="s">
+        <v>128</v>
+      </c>
+      <c r="C285" t="s">
+        <v>513</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285" t="s">
+        <v>741</v>
+      </c>
+      <c r="F285" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>777</v>
+      </c>
+      <c r="B286" t="s">
+        <v>116</v>
+      </c>
+      <c r="C286" t="s">
+        <v>513</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
+      </c>
+      <c r="E286" t="s">
+        <v>741</v>
+      </c>
+      <c r="F286" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>778</v>
+      </c>
+      <c r="B287" t="s">
+        <v>128</v>
+      </c>
+      <c r="C287" t="s">
+        <v>513</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287" t="s">
+        <v>741</v>
+      </c>
+      <c r="F287" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>778</v>
+      </c>
+      <c r="B288" t="s">
+        <v>116</v>
+      </c>
+      <c r="C288" t="s">
+        <v>513</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+      <c r="E288" t="s">
+        <v>741</v>
+      </c>
+      <c r="F288" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>795</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>796</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>779</v>
+      </c>
+      <c r="B291" t="s">
+        <v>797</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291" t="s">
+        <v>741</v>
+      </c>
+      <c r="F291" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>779</v>
+      </c>
+      <c r="B292" t="s">
+        <v>798</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+      <c r="E292" t="s">
+        <v>741</v>
+      </c>
+      <c r="F292" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>779</v>
+      </c>
+      <c r="B293" t="s">
+        <v>799</v>
+      </c>
+      <c r="D293">
+        <v>3</v>
+      </c>
+      <c r="E293" t="s">
+        <v>741</v>
+      </c>
+      <c r="F293" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>780</v>
+      </c>
+      <c r="B294">
+        <v>80</v>
+      </c>
+      <c r="C294" t="s">
+        <v>801</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>780</v>
+      </c>
+      <c r="B295">
+        <v>120</v>
+      </c>
+      <c r="C295" t="s">
+        <v>802</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>781</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>782</v>
+      </c>
+      <c r="B297" t="s">
+        <v>804</v>
+      </c>
+      <c r="C297" t="s">
+        <v>805</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>782</v>
+      </c>
+      <c r="B298" t="s">
+        <v>806</v>
+      </c>
+      <c r="C298" t="s">
+        <v>807</v>
+      </c>
+      <c r="D298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>782</v>
+      </c>
+      <c r="B299" t="s">
+        <v>811</v>
+      </c>
+      <c r="C299" t="s">
+        <v>808</v>
+      </c>
+      <c r="D299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>782</v>
+      </c>
+      <c r="B300" t="s">
+        <v>809</v>
+      </c>
+      <c r="C300" t="s">
+        <v>810</v>
+      </c>
+      <c r="D300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>782</v>
+      </c>
+      <c r="B301" t="s">
+        <v>812</v>
+      </c>
+      <c r="C301" t="s">
+        <v>813</v>
+      </c>
+      <c r="D301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>783</v>
+      </c>
+      <c r="B302" t="s">
+        <v>814</v>
+      </c>
+      <c r="C302" t="s">
+        <v>815</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>783</v>
+      </c>
+      <c r="B303" t="s">
+        <v>816</v>
+      </c>
+      <c r="C303" t="s">
+        <v>818</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>783</v>
+      </c>
+      <c r="B304" t="s">
+        <v>817</v>
+      </c>
+      <c r="C304" t="s">
+        <v>819</v>
+      </c>
+      <c r="D304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>784</v>
+      </c>
+      <c r="B305" t="s">
+        <v>128</v>
+      </c>
+      <c r="C305" t="s">
+        <v>513</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>784</v>
+      </c>
+      <c r="B306" t="s">
+        <v>116</v>
+      </c>
+      <c r="C306" t="s">
+        <v>513</v>
+      </c>
+      <c r="D306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>785</v>
+      </c>
+      <c r="B307" t="s">
+        <v>814</v>
+      </c>
+      <c r="C307" t="s">
+        <v>815</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>785</v>
+      </c>
+      <c r="B308" t="s">
+        <v>185</v>
+      </c>
+      <c r="C308" t="s">
+        <v>820</v>
+      </c>
+      <c r="D308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>786</v>
+      </c>
+      <c r="B309" t="s">
+        <v>821</v>
+      </c>
+      <c r="C309" t="s">
+        <v>822</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>786</v>
+      </c>
+      <c r="B310" t="s">
+        <v>823</v>
+      </c>
+      <c r="C310" t="s">
+        <v>824</v>
+      </c>
+      <c r="D310">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AC3BAD-E02F-4418-959B-50C05EEFC3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E06CBBA-114C-4C39-835B-F3FFE9F2AF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="832">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2511,6 +2511,27 @@
   </si>
   <si>
     <t>Özel palet</t>
+  </si>
+  <si>
+    <t>1I1A</t>
+  </si>
+  <si>
+    <t>1I2A</t>
+  </si>
+  <si>
+    <t>2I2A</t>
+  </si>
+  <si>
+    <t>MF PU</t>
+  </si>
+  <si>
+    <t>Poliüretan merdaneli microfeeder</t>
+  </si>
+  <si>
+    <t>Konveyör var</t>
+  </si>
+  <si>
+    <t>Makara Tahrik var</t>
   </si>
 </sst>
 </file>
@@ -6113,7 +6134,7 @@
   <dimension ref="A1:S115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q116" sqref="Q116"/>
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9228,10 +9249,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F310"/>
+  <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="D311" sqref="D311"/>
+    <sheetView topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13291,10 +13312,10 @@
         <v>777</v>
       </c>
       <c r="B285" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="C285" t="s">
-        <v>513</v>
+        <v>830</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -13331,10 +13352,10 @@
         <v>778</v>
       </c>
       <c r="B287" t="s">
-        <v>128</v>
+        <v>828</v>
       </c>
       <c r="C287" t="s">
-        <v>513</v>
+        <v>829</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -13387,6 +13408,9 @@
         <v>779</v>
       </c>
       <c r="B291" t="s">
+        <v>825</v>
+      </c>
+      <c r="C291" t="s">
         <v>797</v>
       </c>
       <c r="D291">
@@ -13404,6 +13428,9 @@
         <v>779</v>
       </c>
       <c r="B292" t="s">
+        <v>826</v>
+      </c>
+      <c r="C292" t="s">
         <v>798</v>
       </c>
       <c r="D292">
@@ -13421,6 +13448,9 @@
         <v>779</v>
       </c>
       <c r="B293" t="s">
+        <v>827</v>
+      </c>
+      <c r="C293" t="s">
         <v>799</v>
       </c>
       <c r="D293">
@@ -13586,10 +13616,10 @@
         <v>784</v>
       </c>
       <c r="B305" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C305" t="s">
-        <v>513</v>
+        <v>831</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -13663,6 +13693,16 @@
       </c>
       <c r="D310">
         <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E06CBBA-114C-4C39-835B-F3FFE9F2AF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF48B92-BC56-478F-BA2E-E196A8A40607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="833">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2532,6 +2532,9 @@
   </si>
   <si>
     <t>Makara Tahrik var</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -6134,7 +6137,7 @@
   <dimension ref="A1:S115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+      <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8977,6 +8980,9 @@
       </c>
       <c r="F104" t="s">
         <v>795</v>
+      </c>
+      <c r="L104" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF48B92-BC56-478F-BA2E-E196A8A40607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DF7F32-6786-4253-9A66-08935A5FE993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="833">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2931,7 +2931,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3412,8 +3412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6137,7 +6137,7 @@
   <dimension ref="A1:S115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9257,8 +9257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13067,21 +13067,27 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B266" t="s">
         <v>116</v>
       </c>
+      <c r="C266" t="s">
+        <v>513</v>
+      </c>
       <c r="D266">
         <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B267" t="s">
         <v>704</v>
+      </c>
+      <c r="C267" t="s">
+        <v>513</v>
       </c>
       <c r="D267">
         <v>2</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DF7F32-6786-4253-9A66-08935A5FE993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327D6250-0052-4E76-82CA-B9CAAB8CE0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="942">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2393,9 +2393,6 @@
     <t>Makara_Tahrik_opts</t>
   </si>
   <si>
-    <t>Tokatlama_opts</t>
-  </si>
-  <si>
     <t>Palet_Tipi_opts</t>
   </si>
   <si>
@@ -2535,6 +2532,336 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Tahrik_Tipi</t>
+  </si>
+  <si>
+    <t>Bant_Adedi</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_Konveyor</t>
+  </si>
+  <si>
+    <t>Hiz_Konveyor</t>
+  </si>
+  <si>
+    <t>Yana_Acilma</t>
+  </si>
+  <si>
+    <t>Tokatlama_Konveyor</t>
+  </si>
+  <si>
+    <t>Tokatlama_İstif</t>
+  </si>
+  <si>
+    <t>Tokatlama_İstif_opts</t>
+  </si>
+  <si>
+    <t>Dayama_Konveyor</t>
+  </si>
+  <si>
+    <t>Merkezleme_Konveyor</t>
+  </si>
+  <si>
+    <t>Yer_Baglanti_tipi_Konveyor</t>
+  </si>
+  <si>
+    <t>Sac_Gecis_Olcusu_Konveyor</t>
+  </si>
+  <si>
+    <t>Tahrik Tipi</t>
+  </si>
+  <si>
+    <t>Bant Adedi</t>
+  </si>
+  <si>
+    <t>Yana Açılma</t>
+  </si>
+  <si>
+    <t>Dayama</t>
+  </si>
+  <si>
+    <t>Tahrik_Tipi_opts</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Servo Motorlu</t>
+  </si>
+  <si>
+    <t>AC Motorlu</t>
+  </si>
+  <si>
+    <t>Bant_Adedi_opts</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>(2 Bantlı Konveyör)</t>
+  </si>
+  <si>
+    <t>(3 Bantlı Konveyör)</t>
+  </si>
+  <si>
+    <t>(4 Bantlı Konveyör)</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_Konveyor_opts</t>
+  </si>
+  <si>
+    <t>Hiz_Konveyor_opts</t>
+  </si>
+  <si>
+    <t>Yana_Acilma_opts</t>
+  </si>
+  <si>
+    <t>Yana_Acilma_Tipi</t>
+  </si>
+  <si>
+    <t>Yana Açılma Tipi</t>
+  </si>
+  <si>
+    <t>Yana_Acilma_Tipi_opts</t>
+  </si>
+  <si>
+    <t>YAM</t>
+  </si>
+  <si>
+    <t>YAO</t>
+  </si>
+  <si>
+    <t>Manuel Yana Açılma</t>
+  </si>
+  <si>
+    <t>Otomatik Yana Açılma</t>
+  </si>
+  <si>
+    <t>Tokatlama_Konveyor_opts</t>
+  </si>
+  <si>
+    <t>Tokatlama_Konveyor_Tipi</t>
+  </si>
+  <si>
+    <t>Tokatlama Tipi</t>
+  </si>
+  <si>
+    <t>Tokatlama Metodu</t>
+  </si>
+  <si>
+    <t>Tokatlama_Konveyor_Metodu</t>
+  </si>
+  <si>
+    <t>Tokatlama_Konveyor_Metodu_opts</t>
+  </si>
+  <si>
+    <t>Tokatlama_Konveyor_Tipi_opts</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Sabit Tokatlama Sistemi</t>
+  </si>
+  <si>
+    <t>Hareketli Tokatlama Sistemi</t>
+  </si>
+  <si>
+    <t>Pnömatik??</t>
+  </si>
+  <si>
+    <t>Servo Kontrollü</t>
+  </si>
+  <si>
+    <t>Dayama_Konveyor_opts</t>
+  </si>
+  <si>
+    <t>Merkezleme_Konveyor_opts</t>
+  </si>
+  <si>
+    <t>Yer_Baglanti_tipi_Konveyor_opts</t>
+  </si>
+  <si>
+    <t>Seviye Ayar Metodu</t>
+  </si>
+  <si>
+    <t>Seviye_Ayar_Metodu_Konveyor</t>
+  </si>
+  <si>
+    <t>Seviye_Ayar_Metodu_Konveyor_opts</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>Teleskop_Konveyor_Strok</t>
+  </si>
+  <si>
+    <t>Teleskop Strok</t>
+  </si>
+  <si>
+    <t>Teleskop_Konveyor_Strok_opts</t>
+  </si>
+  <si>
+    <t>T500</t>
+  </si>
+  <si>
+    <t>T750</t>
+  </si>
+  <si>
+    <t>(500 mm strok)</t>
+  </si>
+  <si>
+    <t>(750 mm strok)</t>
+  </si>
+  <si>
+    <t>Piston_Cap</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_Giyotin</t>
+  </si>
+  <si>
+    <t>Piston Çapı</t>
+  </si>
+  <si>
+    <t>Proses Tipi</t>
+  </si>
+  <si>
+    <t>Piston_Cap_opts</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_Giyotin_opts</t>
+  </si>
+  <si>
+    <t>Proses_Tipi_Ayari</t>
+  </si>
+  <si>
+    <t>Ayar Tipi</t>
+  </si>
+  <si>
+    <t>Proses_Tipi_Ayari_opts</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Uç Kesme Prosesi</t>
+  </si>
+  <si>
+    <t>Boy Kesme Prosesi (Bıçak Ayarlı)</t>
+  </si>
+  <si>
+    <t>Motorlu??</t>
+  </si>
+  <si>
+    <t>Manuel??</t>
+  </si>
+  <si>
+    <t>Giyotin_Tipi</t>
+  </si>
+  <si>
+    <t>Proses_Tipi_CMSG</t>
+  </si>
+  <si>
+    <t>Proses_Tipi_CMHG</t>
+  </si>
+  <si>
+    <t>Proses_Tipi_CMHG_opts</t>
+  </si>
+  <si>
+    <t>Giyotin Tipi</t>
+  </si>
+  <si>
+    <t>Giyotin_Tipi_opts</t>
+  </si>
+  <si>
+    <t>Proses_Tipi_CMSG_opts</t>
+  </si>
+  <si>
+    <t>PROXX</t>
+  </si>
+  <si>
+    <t>PRO60</t>
+  </si>
+  <si>
+    <t>PRO75</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>BSC,PROXX,PRO60,PRO75</t>
+  </si>
+  <si>
+    <t>Merdane_Capi</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_CMKY</t>
+  </si>
+  <si>
+    <t>Merdane Çapı</t>
+  </si>
+  <si>
+    <t>Merdane_Capi_opts</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_CMKY_opts</t>
+  </si>
+  <si>
+    <t>(Ø60 mm keçe kaplı yağlama merdanesi)</t>
+  </si>
+  <si>
+    <t>(Ø110 mm keçe kaplı yağlama merdanesi)</t>
+  </si>
+  <si>
+    <t>Marka</t>
+  </si>
+  <si>
+    <t>Paket</t>
+  </si>
+  <si>
+    <t>Guvenlik_Sistemi</t>
+  </si>
+  <si>
+    <t>Marka_opts</t>
+  </si>
+  <si>
+    <t>Paket_opts</t>
+  </si>
+  <si>
+    <t>TRX</t>
+  </si>
+  <si>
+    <t>SFC</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Troax</t>
+  </si>
+  <si>
+    <t>Surfence</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -2615,7 +2942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2626,6 +2953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2931,7 +3259,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157:E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5872,7 +6200,7 @@
         <v>50</v>
       </c>
       <c r="D122" t="s">
-        <v>751</v>
+        <v>838</v>
       </c>
       <c r="E122" t="s">
         <v>751</v>
@@ -5966,10 +6294,19 @@
         <v>39</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C127" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="D127" t="s">
+        <v>832</v>
+      </c>
+      <c r="E127" t="s">
+        <v>844</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -5977,68 +6314,142 @@
         <v>39</v>
       </c>
       <c r="B128" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C128" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D128" t="s">
+        <v>833</v>
+      </c>
+      <c r="E128" t="s">
+        <v>845</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>39</v>
       </c>
       <c r="B129" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C129" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D129" t="s">
+        <v>834</v>
+      </c>
+      <c r="E129" t="s">
+        <v>93</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>39</v>
       </c>
       <c r="B130" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C130" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D130" t="s">
+        <v>835</v>
+      </c>
+      <c r="E130" t="s">
+        <v>101</v>
+      </c>
+      <c r="F130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>39</v>
+      </c>
+      <c r="B131" t="s">
+        <v>59</v>
+      </c>
+      <c r="C131" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" t="s">
+        <v>836</v>
+      </c>
+      <c r="E131" t="s">
+        <v>846</v>
+      </c>
+      <c r="F131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>39</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C132" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D132" t="s">
+        <v>837</v>
+      </c>
+      <c r="E132" t="s">
+        <v>751</v>
+      </c>
+      <c r="F132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>39</v>
       </c>
       <c r="B133" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C133" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D133" t="s">
+        <v>840</v>
+      </c>
+      <c r="E133" t="s">
+        <v>847</v>
+      </c>
+      <c r="F133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>39</v>
       </c>
       <c r="B134" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C134" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D134" t="s">
+        <v>841</v>
+      </c>
+      <c r="E134" t="s">
+        <v>82</v>
+      </c>
+      <c r="F134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>39</v>
       </c>
@@ -6048,8 +6459,17 @@
       <c r="C135" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>842</v>
+      </c>
+      <c r="E135" t="s">
+        <v>412</v>
+      </c>
+      <c r="F135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>39</v>
       </c>
@@ -6057,73 +6477,535 @@
         <v>59</v>
       </c>
       <c r="C136" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D136" t="s">
+        <v>843</v>
+      </c>
+      <c r="E136" t="s">
+        <v>414</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>39</v>
       </c>
       <c r="B137" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" t="s">
+        <v>60</v>
+      </c>
+      <c r="D137" t="s">
+        <v>89</v>
+      </c>
+      <c r="E137" t="s">
+        <v>84</v>
+      </c>
+      <c r="F137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" t="s">
+        <v>832</v>
+      </c>
+      <c r="E138" t="s">
+        <v>844</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>39</v>
+      </c>
+      <c r="B139" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" t="s">
+        <v>833</v>
+      </c>
+      <c r="E139" t="s">
+        <v>845</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>39</v>
+      </c>
+      <c r="B140" t="s">
+        <v>59</v>
+      </c>
+      <c r="C140" t="s">
+        <v>61</v>
+      </c>
+      <c r="D140" t="s">
+        <v>834</v>
+      </c>
+      <c r="E140" t="s">
+        <v>93</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>39</v>
+      </c>
+      <c r="B141" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" t="s">
+        <v>61</v>
+      </c>
+      <c r="D141" t="s">
+        <v>835</v>
+      </c>
+      <c r="E141" t="s">
+        <v>101</v>
+      </c>
+      <c r="F141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>39</v>
+      </c>
+      <c r="B142" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" t="s">
+        <v>61</v>
+      </c>
+      <c r="D142" t="s">
+        <v>889</v>
+      </c>
+      <c r="E142" t="s">
+        <v>890</v>
+      </c>
+      <c r="F142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143" t="s">
+        <v>59</v>
+      </c>
+      <c r="C143" t="s">
+        <v>61</v>
+      </c>
+      <c r="D143" t="s">
+        <v>842</v>
+      </c>
+      <c r="E143" t="s">
+        <v>412</v>
+      </c>
+      <c r="F143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144" t="s">
+        <v>59</v>
+      </c>
+      <c r="C144" t="s">
+        <v>61</v>
+      </c>
+      <c r="D144" t="s">
+        <v>843</v>
+      </c>
+      <c r="E144" t="s">
+        <v>414</v>
+      </c>
+      <c r="F144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" t="s">
+        <v>61</v>
+      </c>
+      <c r="D145" t="s">
+        <v>89</v>
+      </c>
+      <c r="E145" t="s">
+        <v>84</v>
+      </c>
+      <c r="F145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>65</v>
+      </c>
+      <c r="B146" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146" t="s">
+        <v>67</v>
+      </c>
+      <c r="D146" t="s">
+        <v>896</v>
+      </c>
+      <c r="E146" t="s">
+        <v>898</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>65</v>
+      </c>
+      <c r="B147" t="s">
+        <v>66</v>
+      </c>
+      <c r="C147" t="s">
+        <v>67</v>
+      </c>
+      <c r="D147" t="s">
+        <v>913</v>
+      </c>
+      <c r="E147" t="s">
+        <v>899</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>65</v>
+      </c>
+      <c r="B148" t="s">
+        <v>66</v>
+      </c>
+      <c r="C148" t="s">
+        <v>67</v>
+      </c>
+      <c r="D148" t="s">
+        <v>897</v>
+      </c>
+      <c r="E148" t="s">
+        <v>93</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>65</v>
+      </c>
+      <c r="B149" t="s">
+        <v>66</v>
+      </c>
+      <c r="C149" t="s">
+        <v>67</v>
+      </c>
+      <c r="D149" t="s">
+        <v>89</v>
+      </c>
+      <c r="E149" t="s">
+        <v>84</v>
+      </c>
+      <c r="F149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>65</v>
+      </c>
+      <c r="B150" t="s">
+        <v>66</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>911</v>
+      </c>
+      <c r="E150" t="s">
+        <v>915</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>65</v>
+      </c>
+      <c r="B151" t="s">
+        <v>66</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>912</v>
+      </c>
+      <c r="E151" t="s">
+        <v>899</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>65</v>
+      </c>
+      <c r="B152" t="s">
+        <v>66</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>897</v>
+      </c>
+      <c r="E152" t="s">
+        <v>93</v>
+      </c>
+      <c r="F152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>65</v>
+      </c>
+      <c r="B153" t="s">
+        <v>66</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>89</v>
+      </c>
+      <c r="E153" t="s">
+        <v>84</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>65</v>
+      </c>
+      <c r="B154" t="s">
+        <v>69</v>
+      </c>
+      <c r="C154" t="s">
+        <v>70</v>
+      </c>
+      <c r="D154" t="s">
+        <v>923</v>
+      </c>
+      <c r="E154" t="s">
+        <v>925</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>65</v>
+      </c>
+      <c r="B155" t="s">
+        <v>69</v>
+      </c>
+      <c r="C155" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155" t="s">
+        <v>924</v>
+      </c>
+      <c r="E155" t="s">
+        <v>93</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>65</v>
+      </c>
+      <c r="B156" t="s">
+        <v>69</v>
+      </c>
+      <c r="C156" t="s">
+        <v>70</v>
+      </c>
+      <c r="D156" t="s">
+        <v>89</v>
+      </c>
+      <c r="E156" t="s">
+        <v>84</v>
+      </c>
+      <c r="F156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>65</v>
+      </c>
+      <c r="B157" t="s">
+        <v>73</v>
+      </c>
+      <c r="C157" t="s">
+        <v>72</v>
+      </c>
+      <c r="D157" t="s">
+        <v>932</v>
+      </c>
+      <c r="E157" t="s">
+        <v>78</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>39</v>
+      </c>
+      <c r="B169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C169" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>39</v>
+      </c>
+      <c r="B170" t="s">
+        <v>47</v>
+      </c>
+      <c r="C170" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>39</v>
+      </c>
+      <c r="B171" t="s">
+        <v>47</v>
+      </c>
+      <c r="C171" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>39</v>
+      </c>
+      <c r="B172" t="s">
+        <v>47</v>
+      </c>
+      <c r="C172" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>39</v>
+      </c>
+      <c r="B173" t="s">
+        <v>49</v>
+      </c>
+      <c r="C173" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>39</v>
+      </c>
+      <c r="B174" t="s">
+        <v>54</v>
+      </c>
+      <c r="C174" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>39</v>
+      </c>
+      <c r="B175" t="s">
+        <v>54</v>
+      </c>
+      <c r="C175" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>39</v>
+      </c>
+      <c r="B177" t="s">
         <v>64</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C177" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>65</v>
       </c>
-      <c r="B138" t="s">
-        <v>66</v>
-      </c>
-      <c r="C138" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>65</v>
-      </c>
-      <c r="B139" t="s">
-        <v>66</v>
-      </c>
-      <c r="C139" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>65</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="B181" t="s">
         <v>69</v>
       </c>
-      <c r="C140" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>65</v>
-      </c>
-      <c r="B141" t="s">
-        <v>69</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="C181" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>65</v>
-      </c>
-      <c r="B142" t="s">
-        <v>73</v>
-      </c>
-      <c r="C142" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6134,10 +7016,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S115"/>
+  <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F142" sqref="F142:F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8967,10 +9849,10 @@
         <v>744</v>
       </c>
       <c r="B104" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C104" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D104" t="s">
         <v>135</v>
@@ -8979,10 +9861,10 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="L104" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -8990,10 +9872,10 @@
         <v>744</v>
       </c>
       <c r="B105" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C105" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D105" t="s">
         <v>135</v>
@@ -9002,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -9074,7 +9956,7 @@
         <v>781</v>
       </c>
       <c r="L108" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -9157,10 +10039,10 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>751</v>
+        <v>838</v>
       </c>
       <c r="B112" t="s">
-        <v>751</v>
+        <v>838</v>
       </c>
       <c r="C112" t="s">
         <v>751</v>
@@ -9172,13 +10054,13 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>785</v>
+        <v>839</v>
       </c>
       <c r="Q112" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>752</v>
       </c>
@@ -9195,13 +10077,13 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="Q113" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>753</v>
       </c>
@@ -9218,13 +10100,13 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q114" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>754</v>
       </c>
@@ -9241,9 +10123,722 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="Q115" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>832</v>
+      </c>
+      <c r="B116" t="s">
+        <v>832</v>
+      </c>
+      <c r="C116" t="s">
+        <v>844</v>
+      </c>
+      <c r="D116" t="s">
+        <v>108</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>848</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>833</v>
+      </c>
+      <c r="B117" t="s">
+        <v>833</v>
+      </c>
+      <c r="C117" t="s">
+        <v>845</v>
+      </c>
+      <c r="D117" t="s">
+        <v>108</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>834</v>
+      </c>
+      <c r="B118" t="s">
+        <v>834</v>
+      </c>
+      <c r="C118" t="s">
+        <v>93</v>
+      </c>
+      <c r="D118" t="s">
+        <v>135</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>835</v>
+      </c>
+      <c r="B119" t="s">
+        <v>835</v>
+      </c>
+      <c r="C119" t="s">
+        <v>101</v>
+      </c>
+      <c r="D119" t="s">
+        <v>108</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>861</v>
+      </c>
+      <c r="N119" t="s">
+        <v>832</v>
+      </c>
+      <c r="O119" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>252</v>
+      </c>
+      <c r="R119" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>836</v>
+      </c>
+      <c r="B120" t="s">
+        <v>836</v>
+      </c>
+      <c r="C120" t="s">
+        <v>846</v>
+      </c>
+      <c r="D120" t="s">
+        <v>108</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>836</v>
+      </c>
+      <c r="B121" t="s">
+        <v>863</v>
+      </c>
+      <c r="C121" t="s">
+        <v>864</v>
+      </c>
+      <c r="D121" t="s">
+        <v>108</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>865</v>
+      </c>
+      <c r="N121" t="s">
+        <v>836</v>
+      </c>
+      <c r="O121" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>252</v>
+      </c>
+      <c r="R121" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>837</v>
+      </c>
+      <c r="B122" t="s">
+        <v>837</v>
+      </c>
+      <c r="C122" t="s">
+        <v>751</v>
+      </c>
+      <c r="D122" t="s">
+        <v>108</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>837</v>
+      </c>
+      <c r="B123" t="s">
+        <v>871</v>
+      </c>
+      <c r="C123" t="s">
+        <v>872</v>
+      </c>
+      <c r="D123" t="s">
+        <v>108</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" t="s">
+        <v>876</v>
+      </c>
+      <c r="N123" t="s">
+        <v>837</v>
+      </c>
+      <c r="O123" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>252</v>
+      </c>
+      <c r="R123" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>837</v>
+      </c>
+      <c r="B124" t="s">
+        <v>874</v>
+      </c>
+      <c r="C124" t="s">
+        <v>873</v>
+      </c>
+      <c r="D124" t="s">
+        <v>108</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>875</v>
+      </c>
+      <c r="N124" t="s">
+        <v>837</v>
+      </c>
+      <c r="O124" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>252</v>
+      </c>
+      <c r="R124" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>840</v>
+      </c>
+      <c r="B125" t="s">
+        <v>840</v>
+      </c>
+      <c r="C125" t="s">
+        <v>847</v>
+      </c>
+      <c r="D125" t="s">
+        <v>108</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>841</v>
+      </c>
+      <c r="B126" t="s">
+        <v>841</v>
+      </c>
+      <c r="C126" t="s">
+        <v>82</v>
+      </c>
+      <c r="D126" t="s">
+        <v>108</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>842</v>
+      </c>
+      <c r="B127" t="s">
+        <v>842</v>
+      </c>
+      <c r="C127" t="s">
+        <v>412</v>
+      </c>
+      <c r="D127" t="s">
+        <v>108</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>842</v>
+      </c>
+      <c r="B128" t="s">
+        <v>886</v>
+      </c>
+      <c r="C128" t="s">
+        <v>885</v>
+      </c>
+      <c r="D128" t="s">
+        <v>108</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>887</v>
+      </c>
+      <c r="N128" t="s">
+        <v>842</v>
+      </c>
+      <c r="O128" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>252</v>
+      </c>
+      <c r="R128" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>843</v>
+      </c>
+      <c r="B129" t="s">
+        <v>413</v>
+      </c>
+      <c r="C129" t="s">
+        <v>414</v>
+      </c>
+      <c r="D129" t="s">
+        <v>135</v>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>843</v>
+      </c>
+      <c r="B130" t="s">
+        <v>617</v>
+      </c>
+      <c r="C130" t="s">
+        <v>618</v>
+      </c>
+      <c r="D130" t="s">
+        <v>108</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>619</v>
+      </c>
+      <c r="K130" t="s">
+        <v>247</v>
+      </c>
+      <c r="L130" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>252</v>
+      </c>
+      <c r="S130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>889</v>
+      </c>
+      <c r="B131" t="s">
+        <v>889</v>
+      </c>
+      <c r="C131" t="s">
+        <v>890</v>
+      </c>
+      <c r="D131" t="s">
+        <v>108</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>896</v>
+      </c>
+      <c r="B132" t="s">
+        <v>896</v>
+      </c>
+      <c r="C132" t="s">
+        <v>898</v>
+      </c>
+      <c r="D132" t="s">
+        <v>108</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>913</v>
+      </c>
+      <c r="B133" t="s">
+        <v>913</v>
+      </c>
+      <c r="C133" t="s">
+        <v>899</v>
+      </c>
+      <c r="D133" t="s">
+        <v>108</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>913</v>
+      </c>
+      <c r="B134" t="s">
+        <v>902</v>
+      </c>
+      <c r="C134" t="s">
+        <v>903</v>
+      </c>
+      <c r="D134" t="s">
+        <v>108</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>904</v>
+      </c>
+      <c r="N134" t="s">
+        <v>913</v>
+      </c>
+      <c r="O134" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>252</v>
+      </c>
+      <c r="R134" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>897</v>
+      </c>
+      <c r="B135" t="s">
+        <v>897</v>
+      </c>
+      <c r="C135" t="s">
+        <v>93</v>
+      </c>
+      <c r="D135" t="s">
+        <v>108</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>901</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>897</v>
+      </c>
+      <c r="B136" t="s">
+        <v>388</v>
+      </c>
+      <c r="C136" t="s">
+        <v>389</v>
+      </c>
+      <c r="D136" t="s">
+        <v>135</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>390</v>
+      </c>
+      <c r="N136" t="s">
+        <v>897</v>
+      </c>
+      <c r="O136" t="s">
+        <v>139</v>
+      </c>
+      <c r="R136" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>911</v>
+      </c>
+      <c r="B137" t="s">
+        <v>911</v>
+      </c>
+      <c r="C137" t="s">
+        <v>915</v>
+      </c>
+      <c r="D137" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>916</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>912</v>
+      </c>
+      <c r="B138" t="s">
+        <v>912</v>
+      </c>
+      <c r="C138" t="s">
+        <v>899</v>
+      </c>
+      <c r="D138" t="s">
+        <v>108</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>912</v>
+      </c>
+      <c r="B139" t="s">
+        <v>902</v>
+      </c>
+      <c r="C139" t="s">
+        <v>903</v>
+      </c>
+      <c r="D139" t="s">
+        <v>108</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>904</v>
+      </c>
+      <c r="N139" t="s">
+        <v>912</v>
+      </c>
+      <c r="O139" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>252</v>
+      </c>
+      <c r="R139" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>923</v>
+      </c>
+      <c r="B140" t="s">
+        <v>923</v>
+      </c>
+      <c r="C140" t="s">
+        <v>925</v>
+      </c>
+      <c r="D140" t="s">
+        <v>108</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>924</v>
+      </c>
+      <c r="B141" t="s">
+        <v>924</v>
+      </c>
+      <c r="C141" t="s">
+        <v>93</v>
+      </c>
+      <c r="D141" t="s">
+        <v>108</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>932</v>
+      </c>
+      <c r="B142" t="s">
+        <v>930</v>
+      </c>
+      <c r="C142" t="s">
+        <v>930</v>
+      </c>
+      <c r="D142" t="s">
+        <v>108</v>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>933</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>932</v>
+      </c>
+      <c r="B143" t="s">
+        <v>931</v>
+      </c>
+      <c r="C143" t="s">
+        <v>931</v>
+      </c>
+      <c r="D143" t="s">
+        <v>108</v>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>934</v>
+      </c>
+      <c r="Q143" t="s">
         <v>252</v>
       </c>
     </row>
@@ -9255,10 +10850,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F312"/>
+  <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A254" sqref="A254"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="D367" sqref="D367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13327,7 +14922,7 @@
         <v>178</v>
       </c>
       <c r="C285" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -13336,7 +14931,7 @@
         <v>741</v>
       </c>
       <c r="F285" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -13356,7 +14951,7 @@
         <v>741</v>
       </c>
       <c r="F286" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -13364,10 +14959,10 @@
         <v>778</v>
       </c>
       <c r="B287" t="s">
+        <v>827</v>
+      </c>
+      <c r="C287" t="s">
         <v>828</v>
-      </c>
-      <c r="C287" t="s">
-        <v>829</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -13376,7 +14971,7 @@
         <v>741</v>
       </c>
       <c r="F287" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -13401,7 +14996,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -13409,7 +15004,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D290">
         <v>2</v>
@@ -13420,10 +15015,10 @@
         <v>779</v>
       </c>
       <c r="B291" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C291" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -13432,7 +15027,7 @@
         <v>741</v>
       </c>
       <c r="F291" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -13440,10 +15035,10 @@
         <v>779</v>
       </c>
       <c r="B292" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C292" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D292">
         <v>2</v>
@@ -13452,7 +15047,7 @@
         <v>741</v>
       </c>
       <c r="F292" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -13460,10 +15055,10 @@
         <v>779</v>
       </c>
       <c r="B293" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C293" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D293">
         <v>3</v>
@@ -13472,7 +15067,7 @@
         <v>741</v>
       </c>
       <c r="F293" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -13483,7 +15078,7 @@
         <v>80</v>
       </c>
       <c r="C294" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -13497,7 +15092,7 @@
         <v>120</v>
       </c>
       <c r="C295" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D295">
         <v>2</v>
@@ -13516,10 +15111,10 @@
         <v>782</v>
       </c>
       <c r="B297" t="s">
+        <v>803</v>
+      </c>
+      <c r="C297" t="s">
         <v>804</v>
-      </c>
-      <c r="C297" t="s">
-        <v>805</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -13530,10 +15125,10 @@
         <v>782</v>
       </c>
       <c r="B298" t="s">
+        <v>805</v>
+      </c>
+      <c r="C298" t="s">
         <v>806</v>
-      </c>
-      <c r="C298" t="s">
-        <v>807</v>
       </c>
       <c r="D298">
         <v>2</v>
@@ -13544,10 +15139,10 @@
         <v>782</v>
       </c>
       <c r="B299" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C299" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D299">
         <v>3</v>
@@ -13558,10 +15153,10 @@
         <v>782</v>
       </c>
       <c r="B300" t="s">
+        <v>808</v>
+      </c>
+      <c r="C300" t="s">
         <v>809</v>
-      </c>
-      <c r="C300" t="s">
-        <v>810</v>
       </c>
       <c r="D300">
         <v>4</v>
@@ -13572,10 +15167,10 @@
         <v>782</v>
       </c>
       <c r="B301" t="s">
+        <v>811</v>
+      </c>
+      <c r="C301" t="s">
         <v>812</v>
-      </c>
-      <c r="C301" t="s">
-        <v>813</v>
       </c>
       <c r="D301">
         <v>5</v>
@@ -13586,10 +15181,10 @@
         <v>783</v>
       </c>
       <c r="B302" t="s">
+        <v>813</v>
+      </c>
+      <c r="C302" t="s">
         <v>814</v>
-      </c>
-      <c r="C302" t="s">
-        <v>815</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -13600,10 +15195,10 @@
         <v>783</v>
       </c>
       <c r="B303" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C303" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D303">
         <v>2</v>
@@ -13614,10 +15209,10 @@
         <v>783</v>
       </c>
       <c r="B304" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C304" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D304">
         <v>3</v>
@@ -13631,7 +15226,7 @@
         <v>129</v>
       </c>
       <c r="C305" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -13653,13 +15248,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>785</v>
+        <v>839</v>
       </c>
       <c r="B307" t="s">
+        <v>813</v>
+      </c>
+      <c r="C307" t="s">
         <v>814</v>
-      </c>
-      <c r="C307" t="s">
-        <v>815</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -13667,13 +15262,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>785</v>
+        <v>839</v>
       </c>
       <c r="B308" t="s">
         <v>185</v>
       </c>
       <c r="C308" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D308">
         <v>2</v>
@@ -13681,13 +15276,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B309" t="s">
+        <v>820</v>
+      </c>
+      <c r="C309" t="s">
         <v>821</v>
-      </c>
-      <c r="C309" t="s">
-        <v>822</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -13695,13 +15290,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B310" t="s">
+        <v>822</v>
+      </c>
+      <c r="C310" t="s">
         <v>823</v>
-      </c>
-      <c r="C310" t="s">
-        <v>824</v>
       </c>
       <c r="D310">
         <v>2</v>
@@ -13709,12 +15304,778 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>787</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="B311" s="5"/>
+      <c r="C311" s="5"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>788</v>
+        <v>787</v>
+      </c>
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>848</v>
+      </c>
+      <c r="B313" t="s">
+        <v>849</v>
+      </c>
+      <c r="C313" t="s">
+        <v>851</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>848</v>
+      </c>
+      <c r="B314" t="s">
+        <v>850</v>
+      </c>
+      <c r="C314" t="s">
+        <v>852</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>853</v>
+      </c>
+      <c r="B315" t="s">
+        <v>854</v>
+      </c>
+      <c r="C315" t="s">
+        <v>857</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>853</v>
+      </c>
+      <c r="B316" t="s">
+        <v>855</v>
+      </c>
+      <c r="C316" t="s">
+        <v>858</v>
+      </c>
+      <c r="D316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>853</v>
+      </c>
+      <c r="B317" t="s">
+        <v>856</v>
+      </c>
+      <c r="C317" t="s">
+        <v>859</v>
+      </c>
+      <c r="D317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>860</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>862</v>
+      </c>
+      <c r="B319" t="s">
+        <v>128</v>
+      </c>
+      <c r="C319" t="s">
+        <v>513</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>862</v>
+      </c>
+      <c r="B320" t="s">
+        <v>116</v>
+      </c>
+      <c r="C320" t="s">
+        <v>513</v>
+      </c>
+      <c r="D320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>865</v>
+      </c>
+      <c r="B321" t="s">
+        <v>866</v>
+      </c>
+      <c r="C321" t="s">
+        <v>868</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>865</v>
+      </c>
+      <c r="B322" t="s">
+        <v>867</v>
+      </c>
+      <c r="C322" t="s">
+        <v>869</v>
+      </c>
+      <c r="D322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>870</v>
+      </c>
+      <c r="B323" t="s">
+        <v>128</v>
+      </c>
+      <c r="C323" t="s">
+        <v>513</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>870</v>
+      </c>
+      <c r="B324" t="s">
+        <v>116</v>
+      </c>
+      <c r="C324" t="s">
+        <v>513</v>
+      </c>
+      <c r="D324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>876</v>
+      </c>
+      <c r="B325" t="s">
+        <v>704</v>
+      </c>
+      <c r="C325" t="s">
+        <v>878</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>876</v>
+      </c>
+      <c r="B326" t="s">
+        <v>877</v>
+      </c>
+      <c r="C326" t="s">
+        <v>879</v>
+      </c>
+      <c r="D326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>875</v>
+      </c>
+      <c r="B327" t="s">
+        <v>738</v>
+      </c>
+      <c r="C327" t="s">
+        <v>880</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>875</v>
+      </c>
+      <c r="B328" t="s">
+        <v>849</v>
+      </c>
+      <c r="C328" t="s">
+        <v>881</v>
+      </c>
+      <c r="D328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>884</v>
+      </c>
+      <c r="B331" t="s">
+        <v>607</v>
+      </c>
+      <c r="C331" t="s">
+        <v>610</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>884</v>
+      </c>
+      <c r="B332" t="s">
+        <v>608</v>
+      </c>
+      <c r="C332" t="s">
+        <v>611</v>
+      </c>
+      <c r="D332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>887</v>
+      </c>
+      <c r="B333" t="s">
+        <v>116</v>
+      </c>
+      <c r="C333" t="s">
+        <v>513</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>887</v>
+      </c>
+      <c r="B334" t="s">
+        <v>849</v>
+      </c>
+      <c r="C334" t="s">
+        <v>888</v>
+      </c>
+      <c r="D334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>891</v>
+      </c>
+      <c r="B335" t="s">
+        <v>892</v>
+      </c>
+      <c r="C335" t="s">
+        <v>894</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>891</v>
+      </c>
+      <c r="B336" t="s">
+        <v>893</v>
+      </c>
+      <c r="C336" t="s">
+        <v>895</v>
+      </c>
+      <c r="D336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>900</v>
+      </c>
+      <c r="B337">
+        <v>100</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>900</v>
+      </c>
+      <c r="B338">
+        <v>125</v>
+      </c>
+      <c r="D338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>914</v>
+      </c>
+      <c r="B339" t="s">
+        <v>532</v>
+      </c>
+      <c r="C339" t="s">
+        <v>907</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>914</v>
+      </c>
+      <c r="B340" t="s">
+        <v>905</v>
+      </c>
+      <c r="C340" t="s">
+        <v>908</v>
+      </c>
+      <c r="D340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>904</v>
+      </c>
+      <c r="B341" t="s">
+        <v>607</v>
+      </c>
+      <c r="C341" t="s">
+        <v>910</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>904</v>
+      </c>
+      <c r="B342" t="s">
+        <v>906</v>
+      </c>
+      <c r="C342" t="s">
+        <v>909</v>
+      </c>
+      <c r="D342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>901</v>
+      </c>
+      <c r="B343">
+        <v>800</v>
+      </c>
+      <c r="C343" t="s">
+        <v>425</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>901</v>
+      </c>
+      <c r="B344">
+        <v>1000</v>
+      </c>
+      <c r="C344" t="s">
+        <v>426</v>
+      </c>
+      <c r="D344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>901</v>
+      </c>
+      <c r="B345">
+        <v>1300</v>
+      </c>
+      <c r="C345" t="s">
+        <v>427</v>
+      </c>
+      <c r="D345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>901</v>
+      </c>
+      <c r="B346">
+        <v>1600</v>
+      </c>
+      <c r="C346" t="s">
+        <v>429</v>
+      </c>
+      <c r="D346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>901</v>
+      </c>
+      <c r="B347" t="s">
+        <v>139</v>
+      </c>
+      <c r="C347" t="s">
+        <v>140</v>
+      </c>
+      <c r="D347">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>390</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>916</v>
+      </c>
+      <c r="B349" t="s">
+        <v>771</v>
+      </c>
+      <c r="C349" t="s">
+        <v>774</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>916</v>
+      </c>
+      <c r="B350" t="s">
+        <v>918</v>
+      </c>
+      <c r="C350" t="s">
+        <v>921</v>
+      </c>
+      <c r="D350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>916</v>
+      </c>
+      <c r="B351" t="s">
+        <v>919</v>
+      </c>
+      <c r="C351" t="s">
+        <v>921</v>
+      </c>
+      <c r="D351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>916</v>
+      </c>
+      <c r="B352" t="s">
+        <v>920</v>
+      </c>
+      <c r="C352" t="s">
+        <v>921</v>
+      </c>
+      <c r="D352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>917</v>
+      </c>
+      <c r="B353" t="s">
+        <v>532</v>
+      </c>
+      <c r="C353" t="s">
+        <v>907</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353" t="s">
+        <v>912</v>
+      </c>
+      <c r="F353" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>917</v>
+      </c>
+      <c r="B354" t="s">
+        <v>905</v>
+      </c>
+      <c r="C354" t="s">
+        <v>908</v>
+      </c>
+      <c r="D354">
+        <v>2</v>
+      </c>
+      <c r="E354" t="s">
+        <v>912</v>
+      </c>
+      <c r="F354" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>926</v>
+      </c>
+      <c r="B355">
+        <v>60</v>
+      </c>
+      <c r="C355" t="s">
+        <v>928</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>926</v>
+      </c>
+      <c r="B356">
+        <v>110</v>
+      </c>
+      <c r="C356" t="s">
+        <v>929</v>
+      </c>
+      <c r="D356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>927</v>
+      </c>
+      <c r="B357">
+        <v>600</v>
+      </c>
+      <c r="C357" t="s">
+        <v>424</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357" t="s">
+        <v>923</v>
+      </c>
+      <c r="F357">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>927</v>
+      </c>
+      <c r="B358">
+        <v>800</v>
+      </c>
+      <c r="C358" t="s">
+        <v>425</v>
+      </c>
+      <c r="D358">
+        <v>2</v>
+      </c>
+      <c r="E358" t="s">
+        <v>923</v>
+      </c>
+      <c r="F358" s="6">
+        <v>60110</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>927</v>
+      </c>
+      <c r="B359">
+        <v>1000</v>
+      </c>
+      <c r="C359" t="s">
+        <v>426</v>
+      </c>
+      <c r="D359">
+        <v>3</v>
+      </c>
+      <c r="E359" t="s">
+        <v>923</v>
+      </c>
+      <c r="F359" s="6">
+        <v>60110</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>927</v>
+      </c>
+      <c r="B360">
+        <v>1300</v>
+      </c>
+      <c r="C360" t="s">
+        <v>427</v>
+      </c>
+      <c r="D360">
+        <v>4</v>
+      </c>
+      <c r="E360" t="s">
+        <v>923</v>
+      </c>
+      <c r="F360">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>927</v>
+      </c>
+      <c r="B361">
+        <v>1600</v>
+      </c>
+      <c r="C361" t="s">
+        <v>429</v>
+      </c>
+      <c r="D361">
+        <v>5</v>
+      </c>
+      <c r="E361" t="s">
+        <v>923</v>
+      </c>
+      <c r="F361">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>933</v>
+      </c>
+      <c r="B362" t="s">
+        <v>935</v>
+      </c>
+      <c r="C362" t="s">
+        <v>939</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>933</v>
+      </c>
+      <c r="B363" t="s">
+        <v>936</v>
+      </c>
+      <c r="C363" t="s">
+        <v>940</v>
+      </c>
+      <c r="D363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>934</v>
+      </c>
+      <c r="B364" t="s">
+        <v>937</v>
+      </c>
+      <c r="C364" t="s">
+        <v>941</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>934</v>
+      </c>
+      <c r="B365" t="s">
+        <v>938</v>
+      </c>
+      <c r="C365" t="s">
+        <v>941</v>
+      </c>
+      <c r="D365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>934</v>
+      </c>
+      <c r="B366" t="s">
+        <v>738</v>
+      </c>
+      <c r="C366" t="s">
+        <v>941</v>
+      </c>
+      <c r="D366">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327D6250-0052-4E76-82CA-B9CAAB8CE0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCB60D4-9BDD-4457-8C9F-41A14D0F8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -3258,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,7 +3302,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -10852,7 +10852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+    <sheetView topLeftCell="A322" workbookViewId="0">
       <selection activeCell="D367" sqref="D367"/>
     </sheetView>
   </sheetViews>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCB60D4-9BDD-4457-8C9F-41A14D0F8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C954CD6-6796-45B8-95C0-D971F9639640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3259,7 +3259,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,7 +3319,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3336,7 +3336,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3353,7 +3353,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3387,7 +3387,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3404,7 +3404,7 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3421,7 +3421,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3438,7 +3438,7 @@
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3455,7 +3455,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3472,7 +3472,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3540,7 +3540,7 @@
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
         <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3574,7 +3574,7 @@
         <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3591,7 +3591,7 @@
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3608,7 +3608,7 @@
         <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3625,7 +3625,7 @@
         <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3659,7 +3659,7 @@
         <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3676,7 +3676,7 @@
         <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3693,7 +3693,7 @@
         <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3710,7 +3710,7 @@
         <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3727,7 +3727,7 @@
         <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C954CD6-6796-45B8-95C0-D971F9639640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C33B2-B4D7-4EA7-AB9F-C0D97E25D7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="957">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2210,42 +2210,12 @@
     <t>Asansor_Tipi_opts</t>
   </si>
   <si>
-    <t>LS</t>
-  </si>
-  <si>
     <t>LB</t>
   </si>
   <si>
     <t>TB</t>
   </si>
   <si>
-    <t>Ayirici_bune</t>
-  </si>
-  <si>
-    <t>Ayirici_bune1</t>
-  </si>
-  <si>
-    <t>Ayirici_bune2</t>
-  </si>
-  <si>
-    <t>Ayırıcı Bune</t>
-  </si>
-  <si>
-    <t>Ayırıcı Bune1</t>
-  </si>
-  <si>
-    <t>Ayırıcı Bune2</t>
-  </si>
-  <si>
-    <t>Ayirici_bune_opts</t>
-  </si>
-  <si>
-    <t>Ayirici_bune1_opts</t>
-  </si>
-  <si>
-    <t>Ayirici_bune2_opts</t>
-  </si>
-  <si>
     <t>SK</t>
   </si>
   <si>
@@ -2862,6 +2832,81 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Tek Araba</t>
+  </si>
+  <si>
+    <t>Çift Araba</t>
+  </si>
+  <si>
+    <t>Döner Tabla</t>
+  </si>
+  <si>
+    <t>Tek Sehpa</t>
+  </si>
+  <si>
+    <t>Çift Sehpa</t>
+  </si>
+  <si>
+    <t>Tek Araba Çift İstasyon</t>
+  </si>
+  <si>
+    <t>Lift Sistemi - Küçük Tip</t>
+  </si>
+  <si>
+    <t>Lift Sistemi - Büyük Tip</t>
+  </si>
+  <si>
+    <t>Tij Mili - Küçük Tip</t>
+  </si>
+  <si>
+    <t>Tij Mili - Büyük Tip</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>Akrobat Kol</t>
+  </si>
+  <si>
+    <t>Sabit Kol</t>
+  </si>
+  <si>
+    <t>Uzun</t>
+  </si>
+  <si>
+    <t>Ayirici_Tipi_opts</t>
+  </si>
+  <si>
+    <t>Ayirici_Manyetik_opts</t>
+  </si>
+  <si>
+    <t>Pnömatik Mıknatıs Ayırma</t>
+  </si>
+  <si>
+    <t>Ayirici_Direk_Tipi_opts</t>
+  </si>
+  <si>
+    <t>Ayirici_Tipi</t>
+  </si>
+  <si>
+    <t>Ayirici_Manyetik</t>
+  </si>
+  <si>
+    <t>Ayırıcı Tipi</t>
+  </si>
+  <si>
+    <t>Ayırıcı Manyetik</t>
+  </si>
+  <si>
+    <t>Ayırıcı Direk_Tipi</t>
+  </si>
+  <si>
+    <t>Ayirici_Direk_Tipi</t>
   </si>
 </sst>
 </file>
@@ -3258,7 +3303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -6000,10 +6045,10 @@
         <v>50</v>
       </c>
       <c r="D112" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="E112" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -6020,10 +6065,10 @@
         <v>50</v>
       </c>
       <c r="D113" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="E113" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="F113">
         <v>3</v>
@@ -6040,10 +6085,10 @@
         <v>50</v>
       </c>
       <c r="D114" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="E114" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="F114">
         <v>4</v>
@@ -6060,10 +6105,10 @@
         <v>50</v>
       </c>
       <c r="D115" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="E115" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F115">
         <v>5</v>
@@ -6080,7 +6125,7 @@
         <v>50</v>
       </c>
       <c r="D116" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E116" t="s">
         <v>93</v>
@@ -6100,10 +6145,10 @@
         <v>50</v>
       </c>
       <c r="D117" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="E117" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F117">
         <v>7</v>
@@ -6120,7 +6165,7 @@
         <v>50</v>
       </c>
       <c r="D118" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="E118" t="s">
         <v>101</v>
@@ -6140,10 +6185,10 @@
         <v>50</v>
       </c>
       <c r="D119" t="s">
+        <v>738</v>
+      </c>
+      <c r="E119" t="s">
         <v>748</v>
-      </c>
-      <c r="E119" t="s">
-        <v>758</v>
       </c>
       <c r="F119">
         <v>9</v>
@@ -6160,10 +6205,10 @@
         <v>50</v>
       </c>
       <c r="D120" t="s">
+        <v>739</v>
+      </c>
+      <c r="E120" t="s">
         <v>749</v>
-      </c>
-      <c r="E120" t="s">
-        <v>759</v>
       </c>
       <c r="F120">
         <v>10</v>
@@ -6180,10 +6225,10 @@
         <v>50</v>
       </c>
       <c r="D121" t="s">
+        <v>740</v>
+      </c>
+      <c r="E121" t="s">
         <v>750</v>
-      </c>
-      <c r="E121" t="s">
-        <v>760</v>
       </c>
       <c r="F121">
         <v>11</v>
@@ -6200,10 +6245,10 @@
         <v>50</v>
       </c>
       <c r="D122" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="E122" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F122">
         <v>12</v>
@@ -6220,10 +6265,10 @@
         <v>50</v>
       </c>
       <c r="D123" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="E123" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F123">
         <v>13</v>
@@ -6240,10 +6285,10 @@
         <v>50</v>
       </c>
       <c r="D124" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="E124" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="F124">
         <v>14</v>
@@ -6260,10 +6305,10 @@
         <v>50</v>
       </c>
       <c r="D125" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="E125" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F125">
         <v>15</v>
@@ -6300,10 +6345,10 @@
         <v>60</v>
       </c>
       <c r="D127" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="E127" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -6320,10 +6365,10 @@
         <v>60</v>
       </c>
       <c r="D128" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="E128" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F128">
         <v>2</v>
@@ -6340,7 +6385,7 @@
         <v>60</v>
       </c>
       <c r="D129" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="E129" t="s">
         <v>93</v>
@@ -6360,7 +6405,7 @@
         <v>60</v>
       </c>
       <c r="D130" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="E130" t="s">
         <v>101</v>
@@ -6380,10 +6425,10 @@
         <v>60</v>
       </c>
       <c r="D131" t="s">
+        <v>826</v>
+      </c>
+      <c r="E131" t="s">
         <v>836</v>
-      </c>
-      <c r="E131" t="s">
-        <v>846</v>
       </c>
       <c r="F131">
         <v>5</v>
@@ -6400,10 +6445,10 @@
         <v>60</v>
       </c>
       <c r="D132" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="E132" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F132">
         <v>6</v>
@@ -6420,10 +6465,10 @@
         <v>60</v>
       </c>
       <c r="D133" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="E133" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -6440,7 +6485,7 @@
         <v>60</v>
       </c>
       <c r="D134" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="E134" t="s">
         <v>82</v>
@@ -6460,7 +6505,7 @@
         <v>60</v>
       </c>
       <c r="D135" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="E135" t="s">
         <v>412</v>
@@ -6480,7 +6525,7 @@
         <v>60</v>
       </c>
       <c r="D136" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="E136" t="s">
         <v>414</v>
@@ -6520,10 +6565,10 @@
         <v>61</v>
       </c>
       <c r="D138" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="E138" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -6540,10 +6585,10 @@
         <v>61</v>
       </c>
       <c r="D139" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="E139" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F139">
         <v>2</v>
@@ -6560,7 +6605,7 @@
         <v>61</v>
       </c>
       <c r="D140" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="E140" t="s">
         <v>93</v>
@@ -6580,7 +6625,7 @@
         <v>61</v>
       </c>
       <c r="D141" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="E141" t="s">
         <v>101</v>
@@ -6600,10 +6645,10 @@
         <v>61</v>
       </c>
       <c r="D142" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="E142" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -6620,7 +6665,7 @@
         <v>61</v>
       </c>
       <c r="D143" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="E143" t="s">
         <v>412</v>
@@ -6640,7 +6685,7 @@
         <v>61</v>
       </c>
       <c r="D144" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="E144" t="s">
         <v>414</v>
@@ -6680,10 +6725,10 @@
         <v>67</v>
       </c>
       <c r="D146" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="E146" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -6700,10 +6745,10 @@
         <v>67</v>
       </c>
       <c r="D147" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="E147" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -6720,7 +6765,7 @@
         <v>67</v>
       </c>
       <c r="D148" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="E148" t="s">
         <v>93</v>
@@ -6760,10 +6805,10 @@
         <v>68</v>
       </c>
       <c r="D150" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="E150" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -6780,10 +6825,10 @@
         <v>68</v>
       </c>
       <c r="D151" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="E151" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -6800,7 +6845,7 @@
         <v>68</v>
       </c>
       <c r="D152" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="E152" t="s">
         <v>93</v>
@@ -6840,10 +6885,10 @@
         <v>70</v>
       </c>
       <c r="D154" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="E154" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -6860,7 +6905,7 @@
         <v>70</v>
       </c>
       <c r="D155" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="E155" t="s">
         <v>93</v>
@@ -6900,7 +6945,7 @@
         <v>72</v>
       </c>
       <c r="D157" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="E157" t="s">
         <v>78</v>
@@ -7018,8 +7063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142:F143"/>
+    <sheetView topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9688,10 +9733,10 @@
         <v>695</v>
       </c>
       <c r="B97" t="s">
-        <v>727</v>
+        <v>951</v>
       </c>
       <c r="C97" t="s">
-        <v>730</v>
+        <v>953</v>
       </c>
       <c r="D97" t="s">
         <v>108</v>
@@ -9700,7 +9745,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>733</v>
+        <v>947</v>
       </c>
       <c r="Q97" t="s">
         <v>252</v>
@@ -9711,10 +9756,10 @@
         <v>695</v>
       </c>
       <c r="B98" t="s">
-        <v>728</v>
+        <v>952</v>
       </c>
       <c r="C98" t="s">
-        <v>731</v>
+        <v>954</v>
       </c>
       <c r="D98" t="s">
         <v>108</v>
@@ -9723,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>734</v>
+        <v>948</v>
       </c>
       <c r="Q98" t="s">
         <v>252</v>
@@ -9734,10 +9779,10 @@
         <v>695</v>
       </c>
       <c r="B99" t="s">
-        <v>729</v>
+        <v>956</v>
       </c>
       <c r="C99" t="s">
-        <v>732</v>
+        <v>955</v>
       </c>
       <c r="D99" t="s">
         <v>108</v>
@@ -9746,7 +9791,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>735</v>
+        <v>950</v>
       </c>
       <c r="Q99" t="s">
         <v>252</v>
@@ -9754,13 +9799,13 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="B100" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C100" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D100" t="s">
         <v>108</v>
@@ -9769,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="Q100" t="s">
         <v>252</v>
@@ -9777,13 +9822,13 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B101" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="C101" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="D101" t="s">
         <v>108</v>
@@ -9792,7 +9837,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="Q101" t="s">
         <v>252</v>
@@ -9800,13 +9845,13 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="B102" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C102" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="D102" t="s">
         <v>108</v>
@@ -9815,7 +9860,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="Q102" t="s">
         <v>252</v>
@@ -9823,13 +9868,13 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="B103" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C103" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D103" t="s">
         <v>108</v>
@@ -9838,7 +9883,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="Q103" t="s">
         <v>252</v>
@@ -9846,13 +9891,13 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B104" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="C104" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="D104" t="s">
         <v>135</v>
@@ -9861,21 +9906,21 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="L104" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B105" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="C105" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="D105" t="s">
         <v>135</v>
@@ -9884,18 +9929,18 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B106" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C106" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="D106" t="s">
         <v>108</v>
@@ -9904,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="Q106" t="s">
         <v>252</v>
@@ -9912,10 +9957,10 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="B107" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="C107" t="s">
         <v>104</v>
@@ -9927,7 +9972,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="K107" t="s">
         <v>345</v>
@@ -9938,13 +9983,13 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="B108" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="C108" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D108" t="s">
         <v>135</v>
@@ -9953,21 +9998,21 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="L108" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>738</v>
+      </c>
+      <c r="B109" t="s">
+        <v>738</v>
+      </c>
+      <c r="C109" t="s">
         <v>748</v>
-      </c>
-      <c r="B109" t="s">
-        <v>748</v>
-      </c>
-      <c r="C109" t="s">
-        <v>758</v>
       </c>
       <c r="D109" t="s">
         <v>108</v>
@@ -9976,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="Q109" t="s">
         <v>252</v>
@@ -9984,13 +10029,13 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>739</v>
+      </c>
+      <c r="B110" t="s">
+        <v>739</v>
+      </c>
+      <c r="C110" t="s">
         <v>749</v>
-      </c>
-      <c r="B110" t="s">
-        <v>749</v>
-      </c>
-      <c r="C110" t="s">
-        <v>759</v>
       </c>
       <c r="D110" t="s">
         <v>108</v>
@@ -9999,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="Q110" t="s">
         <v>252</v>
@@ -10007,13 +10052,13 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>740</v>
+      </c>
+      <c r="B111" t="s">
+        <v>740</v>
+      </c>
+      <c r="C111" t="s">
         <v>750</v>
-      </c>
-      <c r="B111" t="s">
-        <v>750</v>
-      </c>
-      <c r="C111" t="s">
-        <v>760</v>
       </c>
       <c r="D111" t="s">
         <v>108</v>
@@ -10022,13 +10067,13 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="N111" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="O111" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="Q111" t="s">
         <v>252</v>
@@ -10039,13 +10084,13 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B112" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C112" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D112" t="s">
         <v>108</v>
@@ -10054,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="Q112" t="s">
         <v>252</v>
@@ -10062,13 +10107,13 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="B113" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="C113" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="D113" t="s">
         <v>108</v>
@@ -10077,7 +10122,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="Q113" t="s">
         <v>252</v>
@@ -10085,13 +10130,13 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B114" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="C114" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="D114" t="s">
         <v>108</v>
@@ -10100,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="Q114" t="s">
         <v>252</v>
@@ -10108,13 +10153,13 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="B115" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="C115" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="D115" t="s">
         <v>108</v>
@@ -10123,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="Q115" t="s">
         <v>252</v>
@@ -10131,13 +10176,13 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="B116" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="C116" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="D116" t="s">
         <v>108</v>
@@ -10146,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="Q116" t="s">
         <v>252</v>
@@ -10154,13 +10199,13 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="B117" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="C117" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="D117" t="s">
         <v>108</v>
@@ -10169,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="Q117" t="s">
         <v>252</v>
@@ -10177,10 +10222,10 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="B118" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="C118" t="s">
         <v>93</v>
@@ -10192,15 +10237,15 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B119" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="C119" t="s">
         <v>101</v>
@@ -10212,13 +10257,13 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="N119" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="O119" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="Q119" t="s">
         <v>252</v>
@@ -10229,13 +10274,13 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>826</v>
+      </c>
+      <c r="B120" t="s">
+        <v>826</v>
+      </c>
+      <c r="C120" t="s">
         <v>836</v>
-      </c>
-      <c r="B120" t="s">
-        <v>836</v>
-      </c>
-      <c r="C120" t="s">
-        <v>846</v>
       </c>
       <c r="D120" t="s">
         <v>108</v>
@@ -10244,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="Q120" t="s">
         <v>252</v>
@@ -10252,13 +10297,13 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="B121" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C121" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="D121" t="s">
         <v>108</v>
@@ -10267,10 +10312,10 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="N121" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="O121" t="s">
         <v>128</v>
@@ -10284,13 +10329,13 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B122" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="C122" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D122" t="s">
         <v>108</v>
@@ -10299,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="Q122" t="s">
         <v>252</v>
@@ -10307,13 +10352,13 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B123" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="C123" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D123" t="s">
         <v>108</v>
@@ -10322,10 +10367,10 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="N123" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="O123" t="s">
         <v>128</v>
@@ -10339,13 +10384,13 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B124" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="C124" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="D124" t="s">
         <v>108</v>
@@ -10354,10 +10399,10 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="N124" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="O124" t="s">
         <v>128</v>
@@ -10371,13 +10416,13 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="B125" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="C125" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="D125" t="s">
         <v>108</v>
@@ -10386,7 +10431,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="Q125" t="s">
         <v>252</v>
@@ -10394,10 +10439,10 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="B126" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="C126" t="s">
         <v>82</v>
@@ -10409,7 +10454,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="Q126" t="s">
         <v>252</v>
@@ -10417,10 +10462,10 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="B127" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="C127" t="s">
         <v>412</v>
@@ -10432,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="Q127" t="s">
         <v>252</v>
@@ -10440,13 +10485,13 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="B128" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="C128" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="D128" t="s">
         <v>108</v>
@@ -10455,10 +10500,10 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="N128" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="O128" t="s">
         <v>608</v>
@@ -10472,7 +10517,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B129" t="s">
         <v>413</v>
@@ -10492,7 +10537,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B130" t="s">
         <v>617</v>
@@ -10524,13 +10569,13 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="B131" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="C131" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="D131" t="s">
         <v>108</v>
@@ -10539,7 +10584,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="Q131" t="s">
         <v>252</v>
@@ -10547,13 +10592,13 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="B132" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="C132" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="D132" t="s">
         <v>108</v>
@@ -10562,7 +10607,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="Q132" t="s">
         <v>252</v>
@@ -10570,13 +10615,13 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="B133" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="C133" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="D133" t="s">
         <v>108</v>
@@ -10585,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="Q133" t="s">
         <v>252</v>
@@ -10593,13 +10638,13 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="B134" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="C134" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="D134" t="s">
         <v>108</v>
@@ -10608,13 +10653,13 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="N134" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="O134" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="Q134" t="s">
         <v>252</v>
@@ -10625,10 +10670,10 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="B135" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="C135" t="s">
         <v>93</v>
@@ -10640,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="Q135" t="s">
         <v>252</v>
@@ -10648,7 +10693,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="B136" t="s">
         <v>388</v>
@@ -10666,7 +10711,7 @@
         <v>390</v>
       </c>
       <c r="N136" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="O136" t="s">
         <v>139</v>
@@ -10677,13 +10722,13 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B137" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="C137" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="D137" t="s">
         <v>108</v>
@@ -10692,7 +10737,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="Q137" t="s">
         <v>252</v>
@@ -10700,13 +10745,13 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="B138" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="C138" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="D138" t="s">
         <v>108</v>
@@ -10715,18 +10760,18 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="B139" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="C139" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="D139" t="s">
         <v>108</v>
@@ -10735,13 +10780,13 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="N139" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="O139" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="Q139" t="s">
         <v>252</v>
@@ -10752,13 +10797,13 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="B140" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="C140" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="D140" t="s">
         <v>108</v>
@@ -10767,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="Q140" t="s">
         <v>252</v>
@@ -10775,10 +10820,10 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="B141" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="C141" t="s">
         <v>93</v>
@@ -10790,7 +10835,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="Q141" t="s">
         <v>252</v>
@@ -10798,13 +10843,13 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="B142" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="C142" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="D142" t="s">
         <v>108</v>
@@ -10813,7 +10858,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="Q142" t="s">
         <v>252</v>
@@ -10821,13 +10866,13 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="B143" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="C143" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="D143" t="s">
         <v>108</v>
@@ -10836,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="Q143" t="s">
         <v>252</v>
@@ -10852,8 +10897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="D367" sqref="D367"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14535,6 +14580,9 @@
       <c r="B254" t="s">
         <v>701</v>
       </c>
+      <c r="C254" t="s">
+        <v>932</v>
+      </c>
       <c r="D254">
         <v>1</v>
       </c>
@@ -14546,6 +14594,9 @@
       <c r="B255" t="s">
         <v>702</v>
       </c>
+      <c r="C255" t="s">
+        <v>933</v>
+      </c>
       <c r="D255">
         <v>2</v>
       </c>
@@ -14557,6 +14608,9 @@
       <c r="B256" t="s">
         <v>703</v>
       </c>
+      <c r="C256" t="s">
+        <v>934</v>
+      </c>
       <c r="D256">
         <v>3</v>
       </c>
@@ -14568,6 +14622,9 @@
       <c r="B257" t="s">
         <v>704</v>
       </c>
+      <c r="C257" t="s">
+        <v>935</v>
+      </c>
       <c r="D257">
         <v>4</v>
       </c>
@@ -14579,6 +14636,9 @@
       <c r="B258" t="s">
         <v>705</v>
       </c>
+      <c r="C258" t="s">
+        <v>936</v>
+      </c>
       <c r="D258">
         <v>5</v>
       </c>
@@ -14590,6 +14650,9 @@
       <c r="B259" t="s">
         <v>706</v>
       </c>
+      <c r="C259" t="s">
+        <v>937</v>
+      </c>
       <c r="D259">
         <v>6</v>
       </c>
@@ -14661,13 +14724,13 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="A266" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="5" t="s">
         <v>513</v>
       </c>
       <c r="D266">
@@ -14675,13 +14738,13 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="A267" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="5" t="s">
         <v>513</v>
       </c>
       <c r="D267">
@@ -14729,7 +14792,10 @@
         <v>723</v>
       </c>
       <c r="B271" t="s">
-        <v>724</v>
+        <v>942</v>
+      </c>
+      <c r="C271" t="s">
+        <v>938</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -14740,7 +14806,10 @@
         <v>723</v>
       </c>
       <c r="B272" t="s">
-        <v>725</v>
+        <v>724</v>
+      </c>
+      <c r="C272" t="s">
+        <v>939</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -14751,7 +14820,10 @@
         <v>723</v>
       </c>
       <c r="B273" t="s">
-        <v>704</v>
+        <v>943</v>
+      </c>
+      <c r="C273" t="s">
+        <v>940</v>
       </c>
       <c r="D273">
         <v>3</v>
@@ -14762,7 +14834,10 @@
         <v>723</v>
       </c>
       <c r="B274" t="s">
-        <v>726</v>
+        <v>725</v>
+      </c>
+      <c r="C274" t="s">
+        <v>941</v>
       </c>
       <c r="D274">
         <v>4</v>
@@ -14770,10 +14845,13 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>733</v>
+        <v>947</v>
       </c>
       <c r="B275" t="s">
-        <v>736</v>
+        <v>726</v>
+      </c>
+      <c r="C275" t="s">
+        <v>945</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -14781,10 +14859,13 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>733</v>
+        <v>947</v>
       </c>
       <c r="B276" t="s">
-        <v>737</v>
+        <v>727</v>
+      </c>
+      <c r="C276" t="s">
+        <v>944</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -14792,10 +14873,13 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>734</v>
+        <v>948</v>
       </c>
       <c r="B277" t="s">
-        <v>738</v>
+        <v>728</v>
+      </c>
+      <c r="C277" t="s">
+        <v>949</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -14803,18 +14887,21 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>735</v>
+        <v>950</v>
       </c>
       <c r="B278" t="s">
         <v>532</v>
       </c>
+      <c r="C278" t="s">
+        <v>946</v>
+      </c>
       <c r="D278">
         <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B279" t="s">
         <v>110</v>
@@ -14829,12 +14916,12 @@
         <v>106</v>
       </c>
       <c r="F279" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B280" t="s">
         <v>114</v>
@@ -14849,18 +14936,18 @@
         <v>106</v>
       </c>
       <c r="F280" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B281" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="C281" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="D281">
         <v>3</v>
@@ -14869,18 +14956,18 @@
         <v>106</v>
       </c>
       <c r="F281" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B282" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="C282" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -14888,13 +14975,13 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B283" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="C283" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="D283">
         <v>2</v>
@@ -14902,13 +14989,13 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B284" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="C284" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="D284">
         <v>3</v>
@@ -14916,27 +15003,27 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="B285" t="s">
         <v>178</v>
       </c>
       <c r="C285" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="D285">
         <v>1</v>
       </c>
       <c r="E285" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F285" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="B286" t="s">
         <v>116</v>
@@ -14948,35 +15035,35 @@
         <v>2</v>
       </c>
       <c r="E286" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F286" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B287" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C287" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="D287">
         <v>1</v>
       </c>
       <c r="E287" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F287" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B288" t="s">
         <v>116</v>
@@ -14988,15 +15075,15 @@
         <v>2</v>
       </c>
       <c r="E288" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F288" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -15004,7 +15091,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="D290">
         <v>2</v>
@@ -15012,73 +15099,73 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>769</v>
+      </c>
+      <c r="B291" t="s">
+        <v>814</v>
+      </c>
+      <c r="C291" t="s">
+        <v>786</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291" t="s">
+        <v>731</v>
+      </c>
+      <c r="F291" t="s">
         <v>779</v>
-      </c>
-      <c r="B291" t="s">
-        <v>824</v>
-      </c>
-      <c r="C291" t="s">
-        <v>796</v>
-      </c>
-      <c r="D291">
-        <v>1</v>
-      </c>
-      <c r="E291" t="s">
-        <v>741</v>
-      </c>
-      <c r="F291" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="B292" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="C292" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="D292">
         <v>2</v>
       </c>
       <c r="E292" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F292" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="B293" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="C293" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="D293">
         <v>3</v>
       </c>
       <c r="E293" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F293" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="B294">
         <v>80</v>
       </c>
       <c r="C294" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -15086,13 +15173,13 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="B295">
         <v>120</v>
       </c>
       <c r="C295" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="D295">
         <v>2</v>
@@ -15100,7 +15187,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -15108,13 +15195,13 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="B297" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="C297" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -15122,13 +15209,13 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="B298" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="C298" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D298">
         <v>2</v>
@@ -15136,13 +15223,13 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="B299" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="C299" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="D299">
         <v>3</v>
@@ -15150,13 +15237,13 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="B300" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="C300" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="D300">
         <v>4</v>
@@ -15164,13 +15251,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="B301" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="C301" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="D301">
         <v>5</v>
@@ -15178,13 +15265,13 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B302" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="C302" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -15192,13 +15279,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B303" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="C303" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="D303">
         <v>2</v>
@@ -15206,13 +15293,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B304" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="C304" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="D304">
         <v>3</v>
@@ -15220,13 +15307,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="B305" t="s">
         <v>129</v>
       </c>
       <c r="C305" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -15234,7 +15321,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="B306" t="s">
         <v>116</v>
@@ -15248,13 +15335,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B307" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="C307" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -15262,13 +15349,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B308" t="s">
         <v>185</v>
       </c>
       <c r="C308" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="D308">
         <v>2</v>
@@ -15276,13 +15363,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="B309" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="C309" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -15290,13 +15377,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="B310" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="C310" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="D310">
         <v>2</v>
@@ -15304,27 +15391,27 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="B313" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C313" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -15332,13 +15419,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="B314" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="C314" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="D314">
         <v>2</v>
@@ -15346,13 +15433,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B315" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="C315" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -15360,13 +15447,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B316" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="C316" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D316">
         <v>2</v>
@@ -15374,13 +15461,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B317" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="C317" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="D317">
         <v>3</v>
@@ -15388,7 +15475,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -15396,7 +15483,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B319" t="s">
         <v>128</v>
@@ -15410,7 +15497,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B320" t="s">
         <v>116</v>
@@ -15424,13 +15511,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="B321" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="C321" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -15438,13 +15525,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="B322" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="C322" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="D322">
         <v>2</v>
@@ -15452,7 +15539,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="B323" t="s">
         <v>128</v>
@@ -15466,7 +15553,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="B324" t="s">
         <v>116</v>
@@ -15480,13 +15567,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="B325" t="s">
         <v>704</v>
       </c>
       <c r="C325" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -15494,13 +15581,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="B326" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="C326" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="D326">
         <v>2</v>
@@ -15508,13 +15595,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="B327" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="C327" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -15522,13 +15609,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="B328" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C328" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="D328">
         <v>2</v>
@@ -15536,17 +15623,17 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="B331" t="s">
         <v>607</v>
@@ -15560,7 +15647,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="B332" t="s">
         <v>608</v>
@@ -15574,7 +15661,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="B333" t="s">
         <v>116</v>
@@ -15588,13 +15675,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="B334" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C334" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="D334">
         <v>2</v>
@@ -15602,13 +15689,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="B335" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="C335" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -15616,13 +15703,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="B336" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="C336" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="D336">
         <v>2</v>
@@ -15630,7 +15717,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B337">
         <v>100</v>
@@ -15641,7 +15728,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B338">
         <v>125</v>
@@ -15652,13 +15739,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="B339" t="s">
         <v>532</v>
       </c>
       <c r="C339" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="D339">
         <v>1</v>
@@ -15666,13 +15753,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="B340" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="C340" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D340">
         <v>2</v>
@@ -15680,13 +15767,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="B341" t="s">
         <v>607</v>
       </c>
       <c r="C341" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -15694,13 +15781,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="B342" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="C342" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D342">
         <v>2</v>
@@ -15708,7 +15795,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="B343">
         <v>800</v>
@@ -15722,7 +15809,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="B344">
         <v>1000</v>
@@ -15736,7 +15823,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="B345">
         <v>1300</v>
@@ -15750,7 +15837,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="B346">
         <v>1600</v>
@@ -15764,7 +15851,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="B347" t="s">
         <v>139</v>
@@ -15786,13 +15873,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="B349" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="C349" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="D349">
         <v>1</v>
@@ -15800,13 +15887,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="B350" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="C350" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="D350">
         <v>2</v>
@@ -15814,13 +15901,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="B351" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="C351" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="D351">
         <v>3</v>
@@ -15828,13 +15915,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="B352" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="C352" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="D352">
         <v>4</v>
@@ -15842,53 +15929,53 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="B353" t="s">
         <v>532</v>
       </c>
       <c r="C353" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="D353">
         <v>1</v>
       </c>
       <c r="E353" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="F353" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="B354" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="C354" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D354">
         <v>2</v>
       </c>
       <c r="E354" t="s">
+        <v>902</v>
+      </c>
+      <c r="F354" t="s">
         <v>912</v>
-      </c>
-      <c r="F354" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="B355">
         <v>60</v>
       </c>
       <c r="C355" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="D355">
         <v>1</v>
@@ -15896,13 +15983,13 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="B356">
         <v>110</v>
       </c>
       <c r="C356" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="D356">
         <v>2</v>
@@ -15910,7 +15997,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="B357">
         <v>600</v>
@@ -15922,7 +16009,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="F357">
         <v>60</v>
@@ -15930,7 +16017,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="B358">
         <v>800</v>
@@ -15942,7 +16029,7 @@
         <v>2</v>
       </c>
       <c r="E358" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="F358" s="6">
         <v>60110</v>
@@ -15950,7 +16037,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="B359">
         <v>1000</v>
@@ -15962,7 +16049,7 @@
         <v>3</v>
       </c>
       <c r="E359" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="F359" s="6">
         <v>60110</v>
@@ -15970,7 +16057,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="B360">
         <v>1300</v>
@@ -15982,7 +16069,7 @@
         <v>4</v>
       </c>
       <c r="E360" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="F360">
         <v>110</v>
@@ -15990,7 +16077,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="B361">
         <v>1600</v>
@@ -16002,7 +16089,7 @@
         <v>5</v>
       </c>
       <c r="E361" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="F361">
         <v>110</v>
@@ -16010,13 +16097,13 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="B362" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="C362" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="D362">
         <v>1</v>
@@ -16024,13 +16111,13 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="B363" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="C363" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="D363">
         <v>2</v>
@@ -16038,13 +16125,13 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="B364" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="C364" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="D364">
         <v>1</v>
@@ -16052,13 +16139,13 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="B365" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="C365" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="D365">
         <v>2</v>
@@ -16066,13 +16153,13 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="B366" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="C366" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="D366">
         <v>3</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C33B2-B4D7-4EA7-AB9F-C0D97E25D7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E60DF-C1EB-4009-8778-2B204900CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="957">
   <si>
     <t>Kategori1</t>
   </si>
@@ -10895,10 +10895,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:F368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="A277" sqref="A277"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14876,10 +14876,10 @@
         <v>948</v>
       </c>
       <c r="B277" t="s">
-        <v>728</v>
+        <v>116</v>
       </c>
       <c r="C277" t="s">
-        <v>949</v>
+        <v>513</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -14887,56 +14887,44 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B278" t="s">
-        <v>532</v>
+        <v>728</v>
       </c>
       <c r="C278" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>755</v>
+        <v>950</v>
       </c>
       <c r="B279" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C279" t="s">
-        <v>111</v>
+        <v>513</v>
       </c>
       <c r="D279">
         <v>1</v>
-      </c>
-      <c r="E279" t="s">
-        <v>106</v>
-      </c>
-      <c r="F279" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>755</v>
+        <v>950</v>
       </c>
       <c r="B280" t="s">
-        <v>114</v>
+        <v>532</v>
       </c>
       <c r="C280" t="s">
-        <v>115</v>
+        <v>946</v>
       </c>
       <c r="D280">
         <v>2</v>
-      </c>
-      <c r="E280" t="s">
-        <v>106</v>
-      </c>
-      <c r="F280" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -14944,47 +14932,59 @@
         <v>755</v>
       </c>
       <c r="B281" t="s">
-        <v>756</v>
+        <v>110</v>
       </c>
       <c r="C281" t="s">
-        <v>757</v>
+        <v>111</v>
       </c>
       <c r="D281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E281" t="s">
         <v>106</v>
       </c>
       <c r="F281" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B282" t="s">
-        <v>761</v>
+        <v>114</v>
       </c>
       <c r="C282" t="s">
-        <v>764</v>
+        <v>115</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E282" t="s">
+        <v>106</v>
+      </c>
+      <c r="F282" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B283" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C283" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D283">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E283" t="s">
+        <v>106</v>
+      </c>
+      <c r="F283" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -14992,64 +14992,52 @@
         <v>760</v>
       </c>
       <c r="B284" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C284" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D284">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B285" t="s">
-        <v>178</v>
+        <v>762</v>
       </c>
       <c r="C285" t="s">
-        <v>819</v>
+        <v>765</v>
       </c>
       <c r="D285">
-        <v>1</v>
-      </c>
-      <c r="E285" t="s">
-        <v>731</v>
-      </c>
-      <c r="F285" t="s">
-        <v>779</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B286" t="s">
-        <v>116</v>
+        <v>763</v>
       </c>
       <c r="C286" t="s">
-        <v>513</v>
+        <v>766</v>
       </c>
       <c r="D286">
-        <v>2</v>
-      </c>
-      <c r="E286" t="s">
-        <v>731</v>
-      </c>
-      <c r="F286" t="s">
-        <v>778</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B287" t="s">
-        <v>817</v>
+        <v>178</v>
       </c>
       <c r="C287" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -15063,7 +15051,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B288" t="s">
         <v>116</v>
@@ -15078,63 +15066,63 @@
         <v>731</v>
       </c>
       <c r="F288" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>784</v>
+        <v>768</v>
+      </c>
+      <c r="B289" t="s">
+        <v>817</v>
+      </c>
+      <c r="C289" t="s">
+        <v>818</v>
       </c>
       <c r="D289">
         <v>1</v>
+      </c>
+      <c r="E289" t="s">
+        <v>731</v>
+      </c>
+      <c r="F289" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>785</v>
+        <v>768</v>
+      </c>
+      <c r="B290" t="s">
+        <v>116</v>
+      </c>
+      <c r="C290" t="s">
+        <v>513</v>
       </c>
       <c r="D290">
         <v>2</v>
       </c>
+      <c r="E290" t="s">
+        <v>731</v>
+      </c>
+      <c r="F290" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>769</v>
-      </c>
-      <c r="B291" t="s">
-        <v>814</v>
-      </c>
-      <c r="C291" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D291">
         <v>1</v>
-      </c>
-      <c r="E291" t="s">
-        <v>731</v>
-      </c>
-      <c r="F291" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>769</v>
-      </c>
-      <c r="B292" t="s">
-        <v>815</v>
-      </c>
-      <c r="C292" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D292">
         <v>2</v>
-      </c>
-      <c r="E292" t="s">
-        <v>731</v>
-      </c>
-      <c r="F292" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -15142,52 +15130,70 @@
         <v>769</v>
       </c>
       <c r="B293" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C293" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E293" t="s">
         <v>731</v>
       </c>
       <c r="F293" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>770</v>
-      </c>
-      <c r="B294">
-        <v>80</v>
+        <v>769</v>
+      </c>
+      <c r="B294" t="s">
+        <v>815</v>
       </c>
       <c r="C294" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E294" t="s">
+        <v>731</v>
+      </c>
+      <c r="F294" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>770</v>
-      </c>
-      <c r="B295">
-        <v>120</v>
+        <v>769</v>
+      </c>
+      <c r="B295" t="s">
+        <v>816</v>
       </c>
       <c r="C295" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D295">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E295" t="s">
+        <v>731</v>
+      </c>
+      <c r="F295" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>771</v>
+        <v>770</v>
+      </c>
+      <c r="B296">
+        <v>80</v>
+      </c>
+      <c r="C296" t="s">
+        <v>790</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -15195,30 +15201,24 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>772</v>
-      </c>
-      <c r="B297" t="s">
-        <v>793</v>
+        <v>770</v>
+      </c>
+      <c r="B297">
+        <v>120</v>
       </c>
       <c r="C297" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>772</v>
-      </c>
-      <c r="B298" t="s">
-        <v>795</v>
-      </c>
-      <c r="C298" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="D298">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -15226,13 +15226,13 @@
         <v>772</v>
       </c>
       <c r="B299" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C299" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D299">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -15240,13 +15240,13 @@
         <v>772</v>
       </c>
       <c r="B300" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C300" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D300">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -15254,41 +15254,41 @@
         <v>772</v>
       </c>
       <c r="B301" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C301" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D301">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B302" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C302" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B303" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C303" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D303">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -15296,52 +15296,52 @@
         <v>773</v>
       </c>
       <c r="B304" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C304" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D304">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B305" t="s">
-        <v>129</v>
+        <v>805</v>
       </c>
       <c r="C305" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B306" t="s">
-        <v>116</v>
+        <v>806</v>
       </c>
       <c r="C306" t="s">
-        <v>513</v>
+        <v>808</v>
       </c>
       <c r="D306">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>829</v>
+        <v>774</v>
       </c>
       <c r="B307" t="s">
-        <v>803</v>
+        <v>129</v>
       </c>
       <c r="C307" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -15349,13 +15349,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>829</v>
+        <v>774</v>
       </c>
       <c r="B308" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="C308" t="s">
-        <v>809</v>
+        <v>513</v>
       </c>
       <c r="D308">
         <v>2</v>
@@ -15363,13 +15363,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="B309" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C309" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -15377,13 +15377,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="B310" t="s">
-        <v>812</v>
+        <v>185</v>
       </c>
       <c r="C310" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D310">
         <v>2</v>
@@ -15391,55 +15391,55 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>776</v>
-      </c>
-      <c r="B311" s="5"/>
-      <c r="C311" s="5"/>
+        <v>775</v>
+      </c>
+      <c r="B311" t="s">
+        <v>810</v>
+      </c>
+      <c r="C311" t="s">
+        <v>811</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>777</v>
-      </c>
-      <c r="B312" s="5"/>
-      <c r="C312" s="5"/>
+        <v>775</v>
+      </c>
+      <c r="B312" t="s">
+        <v>812</v>
+      </c>
+      <c r="C312" t="s">
+        <v>813</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>838</v>
-      </c>
-      <c r="B313" t="s">
-        <v>839</v>
-      </c>
-      <c r="C313" t="s">
-        <v>841</v>
-      </c>
-      <c r="D313">
-        <v>1</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>838</v>
-      </c>
-      <c r="B314" t="s">
-        <v>840</v>
-      </c>
-      <c r="C314" t="s">
-        <v>842</v>
-      </c>
-      <c r="D314">
-        <v>2</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B315" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C315" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -15447,13 +15447,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B316" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C316" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D316">
         <v>2</v>
@@ -15464,60 +15464,60 @@
         <v>843</v>
       </c>
       <c r="B317" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C317" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D317">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>850</v>
+        <v>843</v>
+      </c>
+      <c r="B318" t="s">
+        <v>845</v>
+      </c>
+      <c r="C318" t="s">
+        <v>848</v>
       </c>
       <c r="D318">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="B319" t="s">
-        <v>128</v>
+        <v>846</v>
       </c>
       <c r="C319" t="s">
-        <v>513</v>
+        <v>849</v>
       </c>
       <c r="D319">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>852</v>
-      </c>
-      <c r="B320" t="s">
-        <v>116</v>
-      </c>
-      <c r="C320" t="s">
-        <v>513</v>
+        <v>850</v>
       </c>
       <c r="D320">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B321" t="s">
-        <v>856</v>
+        <v>128</v>
       </c>
       <c r="C321" t="s">
-        <v>858</v>
+        <v>513</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -15525,13 +15525,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B322" t="s">
-        <v>857</v>
+        <v>116</v>
       </c>
       <c r="C322" t="s">
-        <v>859</v>
+        <v>513</v>
       </c>
       <c r="D322">
         <v>2</v>
@@ -15539,13 +15539,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B323" t="s">
-        <v>128</v>
+        <v>856</v>
       </c>
       <c r="C323" t="s">
-        <v>513</v>
+        <v>858</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -15553,13 +15553,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B324" t="s">
-        <v>116</v>
+        <v>857</v>
       </c>
       <c r="C324" t="s">
-        <v>513</v>
+        <v>859</v>
       </c>
       <c r="D324">
         <v>2</v>
@@ -15567,13 +15567,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B325" t="s">
-        <v>704</v>
+        <v>128</v>
       </c>
       <c r="C325" t="s">
-        <v>868</v>
+        <v>513</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -15581,13 +15581,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B326" t="s">
-        <v>867</v>
+        <v>116</v>
       </c>
       <c r="C326" t="s">
-        <v>869</v>
+        <v>513</v>
       </c>
       <c r="D326">
         <v>2</v>
@@ -15595,13 +15595,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B327" t="s">
-        <v>728</v>
+        <v>704</v>
       </c>
       <c r="C327" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -15609,13 +15609,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B328" t="s">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="C328" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D328">
         <v>2</v>
@@ -15623,51 +15623,51 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>872</v>
+        <v>865</v>
+      </c>
+      <c r="B329" t="s">
+        <v>728</v>
+      </c>
+      <c r="C329" t="s">
+        <v>870</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>873</v>
+        <v>865</v>
+      </c>
+      <c r="B330" t="s">
+        <v>839</v>
+      </c>
+      <c r="C330" t="s">
+        <v>871</v>
+      </c>
+      <c r="D330">
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>874</v>
-      </c>
-      <c r="B331" t="s">
-        <v>607</v>
-      </c>
-      <c r="C331" t="s">
-        <v>610</v>
-      </c>
-      <c r="D331">
-        <v>1</v>
+        <v>872</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>874</v>
-      </c>
-      <c r="B332" t="s">
-        <v>608</v>
-      </c>
-      <c r="C332" t="s">
-        <v>611</v>
-      </c>
-      <c r="D332">
-        <v>2</v>
+        <v>873</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B333" t="s">
-        <v>116</v>
+        <v>607</v>
       </c>
       <c r="C333" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -15675,13 +15675,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B334" t="s">
-        <v>839</v>
+        <v>608</v>
       </c>
       <c r="C334" t="s">
-        <v>878</v>
+        <v>611</v>
       </c>
       <c r="D334">
         <v>2</v>
@@ -15689,13 +15689,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B335" t="s">
-        <v>882</v>
+        <v>116</v>
       </c>
       <c r="C335" t="s">
-        <v>884</v>
+        <v>513</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -15703,13 +15703,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B336" t="s">
-        <v>883</v>
+        <v>839</v>
       </c>
       <c r="C336" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="D336">
         <v>2</v>
@@ -15717,10 +15717,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>890</v>
-      </c>
-      <c r="B337">
-        <v>100</v>
+        <v>881</v>
+      </c>
+      <c r="B337" t="s">
+        <v>882</v>
+      </c>
+      <c r="C337" t="s">
+        <v>884</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -15728,10 +15731,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>890</v>
-      </c>
-      <c r="B338">
-        <v>125</v>
+        <v>881</v>
+      </c>
+      <c r="B338" t="s">
+        <v>883</v>
+      </c>
+      <c r="C338" t="s">
+        <v>885</v>
       </c>
       <c r="D338">
         <v>2</v>
@@ -15739,13 +15745,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>904</v>
-      </c>
-      <c r="B339" t="s">
-        <v>532</v>
-      </c>
-      <c r="C339" t="s">
-        <v>897</v>
+        <v>890</v>
+      </c>
+      <c r="B339">
+        <v>100</v>
       </c>
       <c r="D339">
         <v>1</v>
@@ -15753,13 +15756,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>904</v>
-      </c>
-      <c r="B340" t="s">
-        <v>895</v>
-      </c>
-      <c r="C340" t="s">
-        <v>898</v>
+        <v>890</v>
+      </c>
+      <c r="B340">
+        <v>125</v>
       </c>
       <c r="D340">
         <v>2</v>
@@ -15767,13 +15767,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="B341" t="s">
-        <v>607</v>
+        <v>532</v>
       </c>
       <c r="C341" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -15781,13 +15781,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="B342" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C342" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D342">
         <v>2</v>
@@ -15795,13 +15795,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>891</v>
-      </c>
-      <c r="B343">
-        <v>800</v>
+        <v>894</v>
+      </c>
+      <c r="B343" t="s">
+        <v>607</v>
       </c>
       <c r="C343" t="s">
-        <v>425</v>
+        <v>900</v>
       </c>
       <c r="D343">
         <v>1</v>
@@ -15809,13 +15809,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>891</v>
-      </c>
-      <c r="B344">
-        <v>1000</v>
+        <v>894</v>
+      </c>
+      <c r="B344" t="s">
+        <v>896</v>
       </c>
       <c r="C344" t="s">
-        <v>426</v>
+        <v>899</v>
       </c>
       <c r="D344">
         <v>2</v>
@@ -15826,13 +15826,13 @@
         <v>891</v>
       </c>
       <c r="B345">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="C345" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D345">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -15840,63 +15840,63 @@
         <v>891</v>
       </c>
       <c r="B346">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="C346" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D346">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>891</v>
       </c>
-      <c r="B347" t="s">
-        <v>139</v>
+      <c r="B347">
+        <v>1300</v>
       </c>
       <c r="C347" t="s">
-        <v>140</v>
+        <v>427</v>
       </c>
       <c r="D347">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>390</v>
+        <v>891</v>
+      </c>
+      <c r="B348">
+        <v>1600</v>
+      </c>
+      <c r="C348" t="s">
+        <v>429</v>
       </c>
       <c r="D348">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="B349" t="s">
-        <v>761</v>
+        <v>139</v>
       </c>
       <c r="C349" t="s">
-        <v>764</v>
+        <v>140</v>
       </c>
       <c r="D349">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>906</v>
-      </c>
-      <c r="B350" t="s">
-        <v>908</v>
-      </c>
-      <c r="C350" t="s">
-        <v>911</v>
+        <v>390</v>
       </c>
       <c r="D350">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -15904,13 +15904,13 @@
         <v>906</v>
       </c>
       <c r="B351" t="s">
-        <v>909</v>
+        <v>761</v>
       </c>
       <c r="C351" t="s">
-        <v>911</v>
+        <v>764</v>
       </c>
       <c r="D351">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -15918,121 +15918,109 @@
         <v>906</v>
       </c>
       <c r="B352" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C352" t="s">
         <v>911</v>
       </c>
       <c r="D352">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B353" t="s">
-        <v>532</v>
+        <v>909</v>
       </c>
       <c r="C353" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="D353">
-        <v>1</v>
-      </c>
-      <c r="E353" t="s">
-        <v>902</v>
-      </c>
-      <c r="F353" t="s">
-        <v>761</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B354" t="s">
-        <v>895</v>
+        <v>910</v>
       </c>
       <c r="C354" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="D354">
-        <v>2</v>
-      </c>
-      <c r="E354" t="s">
-        <v>902</v>
-      </c>
-      <c r="F354" t="s">
-        <v>912</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>916</v>
-      </c>
-      <c r="B355">
-        <v>60</v>
+        <v>907</v>
+      </c>
+      <c r="B355" t="s">
+        <v>532</v>
       </c>
       <c r="C355" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="D355">
         <v>1</v>
+      </c>
+      <c r="E355" t="s">
+        <v>902</v>
+      </c>
+      <c r="F355" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>916</v>
-      </c>
-      <c r="B356">
-        <v>110</v>
+        <v>907</v>
+      </c>
+      <c r="B356" t="s">
+        <v>895</v>
       </c>
       <c r="C356" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="D356">
         <v>2</v>
       </c>
+      <c r="E356" t="s">
+        <v>902</v>
+      </c>
+      <c r="F356" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B357">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="C357" t="s">
-        <v>424</v>
+        <v>918</v>
       </c>
       <c r="D357">
         <v>1</v>
-      </c>
-      <c r="E357" t="s">
-        <v>913</v>
-      </c>
-      <c r="F357">
-        <v>60</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B358">
-        <v>800</v>
+        <v>110</v>
       </c>
       <c r="C358" t="s">
-        <v>425</v>
+        <v>919</v>
       </c>
       <c r="D358">
         <v>2</v>
-      </c>
-      <c r="E358" t="s">
-        <v>913</v>
-      </c>
-      <c r="F358" s="6">
-        <v>60110</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -16040,19 +16028,19 @@
         <v>917</v>
       </c>
       <c r="B359">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C359" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D359">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E359" t="s">
         <v>913</v>
       </c>
-      <c r="F359" s="6">
-        <v>60110</v>
+      <c r="F359">
+        <v>60</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -16060,19 +16048,19 @@
         <v>917</v>
       </c>
       <c r="B360">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="C360" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D360">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E360" t="s">
         <v>913</v>
       </c>
-      <c r="F360">
-        <v>110</v>
+      <c r="F360" s="6">
+        <v>60110</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -16080,58 +16068,70 @@
         <v>917</v>
       </c>
       <c r="B361">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="C361" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D361">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E361" t="s">
         <v>913</v>
       </c>
-      <c r="F361">
-        <v>110</v>
+      <c r="F361" s="6">
+        <v>60110</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>923</v>
-      </c>
-      <c r="B362" t="s">
-        <v>925</v>
+        <v>917</v>
+      </c>
+      <c r="B362">
+        <v>1300</v>
       </c>
       <c r="C362" t="s">
-        <v>929</v>
+        <v>427</v>
       </c>
       <c r="D362">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E362" t="s">
+        <v>913</v>
+      </c>
+      <c r="F362">
+        <v>110</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>923</v>
-      </c>
-      <c r="B363" t="s">
-        <v>926</v>
+        <v>917</v>
+      </c>
+      <c r="B363">
+        <v>1600</v>
       </c>
       <c r="C363" t="s">
-        <v>930</v>
+        <v>429</v>
       </c>
       <c r="D363">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E363" t="s">
+        <v>913</v>
+      </c>
+      <c r="F363">
+        <v>110</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B364" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C364" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D364">
         <v>1</v>
@@ -16139,13 +16139,13 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B365" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C365" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D365">
         <v>2</v>
@@ -16156,12 +16156,40 @@
         <v>924</v>
       </c>
       <c r="B366" t="s">
-        <v>728</v>
+        <v>927</v>
       </c>
       <c r="C366" t="s">
         <v>931</v>
       </c>
       <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>924</v>
+      </c>
+      <c r="B367" t="s">
+        <v>928</v>
+      </c>
+      <c r="C367" t="s">
+        <v>931</v>
+      </c>
+      <c r="D367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>924</v>
+      </c>
+      <c r="B368" t="s">
+        <v>728</v>
+      </c>
+      <c r="C368" t="s">
+        <v>931</v>
+      </c>
+      <c r="D368">
         <v>3</v>
       </c>
     </row>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E60DF-C1EB-4009-8778-2B204900CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86420F60-178D-4AA5-B376-3E0658E8B808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="960">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2177,12 +2177,6 @@
     <t>1600 x 2500</t>
   </si>
   <si>
-    <t>BuNeAmk</t>
-  </si>
-  <si>
-    <t>BuNeAmk_opts</t>
-  </si>
-  <si>
     <t>Asansor_Strok</t>
   </si>
   <si>
@@ -2907,6 +2901,21 @@
   </si>
   <si>
     <t>Ayirici_Direk_Tipi</t>
+  </si>
+  <si>
+    <t>Tabla_Tipi_opts</t>
+  </si>
+  <si>
+    <t>T-Slot Yok</t>
+  </si>
+  <si>
+    <t>T-Slot Var</t>
+  </si>
+  <si>
+    <t>Tabla_Tipi</t>
+  </si>
+  <si>
+    <t>Tabla Tipi</t>
   </si>
 </sst>
 </file>
@@ -2987,7 +2996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2999,6 +3008,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5985,10 +5995,10 @@
         <v>43</v>
       </c>
       <c r="D109" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E109" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -6045,10 +6055,10 @@
         <v>50</v>
       </c>
       <c r="D112" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E112" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -6065,10 +6075,10 @@
         <v>50</v>
       </c>
       <c r="D113" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E113" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F113">
         <v>3</v>
@@ -6085,10 +6095,10 @@
         <v>50</v>
       </c>
       <c r="D114" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E114" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F114">
         <v>4</v>
@@ -6105,10 +6115,10 @@
         <v>50</v>
       </c>
       <c r="D115" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E115" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F115">
         <v>5</v>
@@ -6125,7 +6135,7 @@
         <v>50</v>
       </c>
       <c r="D116" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E116" t="s">
         <v>93</v>
@@ -6145,10 +6155,10 @@
         <v>50</v>
       </c>
       <c r="D117" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E117" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F117">
         <v>7</v>
@@ -6165,7 +6175,7 @@
         <v>50</v>
       </c>
       <c r="D118" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E118" t="s">
         <v>101</v>
@@ -6185,10 +6195,10 @@
         <v>50</v>
       </c>
       <c r="D119" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E119" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F119">
         <v>9</v>
@@ -6205,10 +6215,10 @@
         <v>50</v>
       </c>
       <c r="D120" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E120" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F120">
         <v>10</v>
@@ -6225,10 +6235,10 @@
         <v>50</v>
       </c>
       <c r="D121" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E121" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F121">
         <v>11</v>
@@ -6245,10 +6255,10 @@
         <v>50</v>
       </c>
       <c r="D122" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E122" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F122">
         <v>12</v>
@@ -6265,10 +6275,10 @@
         <v>50</v>
       </c>
       <c r="D123" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E123" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F123">
         <v>13</v>
@@ -6285,10 +6295,10 @@
         <v>50</v>
       </c>
       <c r="D124" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E124" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F124">
         <v>14</v>
@@ -6305,10 +6315,10 @@
         <v>50</v>
       </c>
       <c r="D125" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E125" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F125">
         <v>15</v>
@@ -6345,10 +6355,10 @@
         <v>60</v>
       </c>
       <c r="D127" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E127" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -6365,10 +6375,10 @@
         <v>60</v>
       </c>
       <c r="D128" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E128" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F128">
         <v>2</v>
@@ -6385,7 +6395,7 @@
         <v>60</v>
       </c>
       <c r="D129" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E129" t="s">
         <v>93</v>
@@ -6405,7 +6415,7 @@
         <v>60</v>
       </c>
       <c r="D130" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E130" t="s">
         <v>101</v>
@@ -6425,10 +6435,10 @@
         <v>60</v>
       </c>
       <c r="D131" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E131" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F131">
         <v>5</v>
@@ -6445,10 +6455,10 @@
         <v>60</v>
       </c>
       <c r="D132" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E132" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F132">
         <v>6</v>
@@ -6465,10 +6475,10 @@
         <v>60</v>
       </c>
       <c r="D133" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E133" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -6485,7 +6495,7 @@
         <v>60</v>
       </c>
       <c r="D134" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E134" t="s">
         <v>82</v>
@@ -6505,7 +6515,7 @@
         <v>60</v>
       </c>
       <c r="D135" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E135" t="s">
         <v>412</v>
@@ -6525,7 +6535,7 @@
         <v>60</v>
       </c>
       <c r="D136" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E136" t="s">
         <v>414</v>
@@ -6565,10 +6575,10 @@
         <v>61</v>
       </c>
       <c r="D138" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E138" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -6585,10 +6595,10 @@
         <v>61</v>
       </c>
       <c r="D139" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E139" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F139">
         <v>2</v>
@@ -6605,7 +6615,7 @@
         <v>61</v>
       </c>
       <c r="D140" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E140" t="s">
         <v>93</v>
@@ -6625,7 +6635,7 @@
         <v>61</v>
       </c>
       <c r="D141" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E141" t="s">
         <v>101</v>
@@ -6645,10 +6655,10 @@
         <v>61</v>
       </c>
       <c r="D142" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E142" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -6665,7 +6675,7 @@
         <v>61</v>
       </c>
       <c r="D143" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E143" t="s">
         <v>412</v>
@@ -6685,7 +6695,7 @@
         <v>61</v>
       </c>
       <c r="D144" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E144" t="s">
         <v>414</v>
@@ -6725,10 +6735,10 @@
         <v>67</v>
       </c>
       <c r="D146" t="s">
+        <v>884</v>
+      </c>
+      <c r="E146" t="s">
         <v>886</v>
-      </c>
-      <c r="E146" t="s">
-        <v>888</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -6745,10 +6755,10 @@
         <v>67</v>
       </c>
       <c r="D147" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E147" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -6765,7 +6775,7 @@
         <v>67</v>
       </c>
       <c r="D148" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E148" t="s">
         <v>93</v>
@@ -6805,10 +6815,10 @@
         <v>68</v>
       </c>
       <c r="D150" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E150" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -6825,10 +6835,10 @@
         <v>68</v>
       </c>
       <c r="D151" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E151" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -6845,7 +6855,7 @@
         <v>68</v>
       </c>
       <c r="D152" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E152" t="s">
         <v>93</v>
@@ -6885,10 +6895,10 @@
         <v>70</v>
       </c>
       <c r="D154" t="s">
+        <v>911</v>
+      </c>
+      <c r="E154" t="s">
         <v>913</v>
-      </c>
-      <c r="E154" t="s">
-        <v>915</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -6905,7 +6915,7 @@
         <v>70</v>
       </c>
       <c r="D155" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E155" t="s">
         <v>93</v>
@@ -6945,7 +6955,7 @@
         <v>72</v>
       </c>
       <c r="D157" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E157" t="s">
         <v>78</v>
@@ -7063,8 +7073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9623,10 +9633,10 @@
         <v>697</v>
       </c>
       <c r="B93" t="s">
-        <v>713</v>
+        <v>958</v>
       </c>
       <c r="C93" t="s">
-        <v>713</v>
+        <v>959</v>
       </c>
       <c r="D93" t="s">
         <v>108</v>
@@ -9635,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>714</v>
+        <v>955</v>
       </c>
       <c r="K93" t="s">
         <v>247</v>
@@ -9652,7 +9662,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B94" t="s">
         <v>693</v>
@@ -9675,13 +9685,13 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B95" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C95" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D95" t="s">
         <v>243</v>
@@ -9690,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="S95" t="b">
         <v>1</v>
@@ -9698,13 +9708,13 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B96" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C96" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D96" t="s">
         <v>108</v>
@@ -9713,7 +9723,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K96" t="s">
         <v>247</v>
@@ -9733,10 +9743,10 @@
         <v>695</v>
       </c>
       <c r="B97" t="s">
+        <v>949</v>
+      </c>
+      <c r="C97" t="s">
         <v>951</v>
-      </c>
-      <c r="C97" t="s">
-        <v>953</v>
       </c>
       <c r="D97" t="s">
         <v>108</v>
@@ -9745,7 +9755,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="Q97" t="s">
         <v>252</v>
@@ -9756,10 +9766,10 @@
         <v>695</v>
       </c>
       <c r="B98" t="s">
+        <v>950</v>
+      </c>
+      <c r="C98" t="s">
         <v>952</v>
-      </c>
-      <c r="C98" t="s">
-        <v>954</v>
       </c>
       <c r="D98" t="s">
         <v>108</v>
@@ -9768,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="Q98" t="s">
         <v>252</v>
@@ -9779,10 +9789,10 @@
         <v>695</v>
       </c>
       <c r="B99" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C99" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D99" t="s">
         <v>108</v>
@@ -9791,7 +9801,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="Q99" t="s">
         <v>252</v>
@@ -9799,13 +9809,13 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B100" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C100" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D100" t="s">
         <v>108</v>
@@ -9814,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="Q100" t="s">
         <v>252</v>
@@ -9822,13 +9832,13 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B101" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C101" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D101" t="s">
         <v>108</v>
@@ -9837,7 +9847,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="Q101" t="s">
         <v>252</v>
@@ -9845,13 +9855,13 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B102" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C102" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D102" t="s">
         <v>108</v>
@@ -9860,7 +9870,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="Q102" t="s">
         <v>252</v>
@@ -9868,13 +9878,13 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B103" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C103" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D103" t="s">
         <v>108</v>
@@ -9883,7 +9893,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="Q103" t="s">
         <v>252</v>
@@ -9891,13 +9901,13 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B104" t="s">
+        <v>778</v>
+      </c>
+      <c r="C104" t="s">
         <v>780</v>
-      </c>
-      <c r="C104" t="s">
-        <v>782</v>
       </c>
       <c r="D104" t="s">
         <v>135</v>
@@ -9906,21 +9916,21 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="L104" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B105" t="s">
+        <v>779</v>
+      </c>
+      <c r="C105" t="s">
         <v>781</v>
-      </c>
-      <c r="C105" t="s">
-        <v>783</v>
       </c>
       <c r="D105" t="s">
         <v>135</v>
@@ -9929,18 +9939,18 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B106" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C106" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D106" t="s">
         <v>108</v>
@@ -9949,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="Q106" t="s">
         <v>252</v>
@@ -9957,10 +9967,10 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B107" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C107" t="s">
         <v>104</v>
@@ -9972,7 +9982,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="K107" t="s">
         <v>345</v>
@@ -9983,13 +9993,13 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B108" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C108" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D108" t="s">
         <v>135</v>
@@ -9998,21 +10008,21 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="L108" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B109" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C109" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D109" t="s">
         <v>108</v>
@@ -10021,7 +10031,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="Q109" t="s">
         <v>252</v>
@@ -10029,13 +10039,13 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B110" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C110" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D110" t="s">
         <v>108</v>
@@ -10044,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="Q110" t="s">
         <v>252</v>
@@ -10052,13 +10062,13 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B111" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C111" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D111" t="s">
         <v>108</v>
@@ -10067,13 +10077,13 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="N111" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="O111" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="Q111" t="s">
         <v>252</v>
@@ -10084,13 +10094,13 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B112" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C112" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D112" t="s">
         <v>108</v>
@@ -10099,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="Q112" t="s">
         <v>252</v>
@@ -10107,13 +10117,13 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B113" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C113" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D113" t="s">
         <v>108</v>
@@ -10122,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="Q113" t="s">
         <v>252</v>
@@ -10130,13 +10140,13 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B114" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C114" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D114" t="s">
         <v>108</v>
@@ -10145,7 +10155,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="Q114" t="s">
         <v>252</v>
@@ -10153,13 +10163,13 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B115" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C115" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D115" t="s">
         <v>108</v>
@@ -10168,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="Q115" t="s">
         <v>252</v>
@@ -10176,13 +10186,13 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B116" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C116" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D116" t="s">
         <v>108</v>
@@ -10191,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="Q116" t="s">
         <v>252</v>
@@ -10199,13 +10209,13 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B117" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C117" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D117" t="s">
         <v>108</v>
@@ -10214,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="Q117" t="s">
         <v>252</v>
@@ -10222,10 +10232,10 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B118" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C118" t="s">
         <v>93</v>
@@ -10237,15 +10247,15 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B119" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C119" t="s">
         <v>101</v>
@@ -10257,13 +10267,13 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="N119" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="O119" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="Q119" t="s">
         <v>252</v>
@@ -10274,13 +10284,13 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B120" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C120" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D120" t="s">
         <v>108</v>
@@ -10289,7 +10299,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="Q120" t="s">
         <v>252</v>
@@ -10297,13 +10307,13 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B121" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C121" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D121" t="s">
         <v>108</v>
@@ -10312,10 +10322,10 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="N121" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="O121" t="s">
         <v>128</v>
@@ -10329,13 +10339,13 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B122" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C122" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D122" t="s">
         <v>108</v>
@@ -10344,7 +10354,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="Q122" t="s">
         <v>252</v>
@@ -10352,13 +10362,13 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B123" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C123" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D123" t="s">
         <v>108</v>
@@ -10367,10 +10377,10 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N123" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="O123" t="s">
         <v>128</v>
@@ -10384,13 +10394,13 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B124" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C124" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D124" t="s">
         <v>108</v>
@@ -10399,10 +10409,10 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="N124" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="O124" t="s">
         <v>128</v>
@@ -10416,13 +10426,13 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B125" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C125" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D125" t="s">
         <v>108</v>
@@ -10431,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="Q125" t="s">
         <v>252</v>
@@ -10439,10 +10449,10 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B126" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C126" t="s">
         <v>82</v>
@@ -10454,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="Q126" t="s">
         <v>252</v>
@@ -10462,10 +10472,10 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B127" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C127" t="s">
         <v>412</v>
@@ -10477,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="Q127" t="s">
         <v>252</v>
@@ -10485,13 +10495,13 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B128" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C128" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D128" t="s">
         <v>108</v>
@@ -10500,10 +10510,10 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="N128" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="O128" t="s">
         <v>608</v>
@@ -10517,7 +10527,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B129" t="s">
         <v>413</v>
@@ -10537,7 +10547,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B130" t="s">
         <v>617</v>
@@ -10569,13 +10579,13 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B131" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C131" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D131" t="s">
         <v>108</v>
@@ -10584,7 +10594,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="Q131" t="s">
         <v>252</v>
@@ -10592,13 +10602,13 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>884</v>
+      </c>
+      <c r="B132" t="s">
+        <v>884</v>
+      </c>
+      <c r="C132" t="s">
         <v>886</v>
-      </c>
-      <c r="B132" t="s">
-        <v>886</v>
-      </c>
-      <c r="C132" t="s">
-        <v>888</v>
       </c>
       <c r="D132" t="s">
         <v>108</v>
@@ -10607,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="Q132" t="s">
         <v>252</v>
@@ -10615,13 +10625,13 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B133" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C133" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D133" t="s">
         <v>108</v>
@@ -10630,7 +10640,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="Q133" t="s">
         <v>252</v>
@@ -10638,13 +10648,13 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B134" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C134" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D134" t="s">
         <v>108</v>
@@ -10653,13 +10663,13 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="N134" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="O134" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="Q134" t="s">
         <v>252</v>
@@ -10670,10 +10680,10 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B135" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C135" t="s">
         <v>93</v>
@@ -10685,7 +10695,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="Q135" t="s">
         <v>252</v>
@@ -10693,7 +10703,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B136" t="s">
         <v>388</v>
@@ -10711,7 +10721,7 @@
         <v>390</v>
       </c>
       <c r="N136" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="O136" t="s">
         <v>139</v>
@@ -10722,13 +10732,13 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B137" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C137" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D137" t="s">
         <v>108</v>
@@ -10737,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="Q137" t="s">
         <v>252</v>
@@ -10745,13 +10755,13 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B138" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C138" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D138" t="s">
         <v>108</v>
@@ -10760,18 +10770,18 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B139" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C139" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D139" t="s">
         <v>108</v>
@@ -10780,13 +10790,13 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="N139" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="O139" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="Q139" t="s">
         <v>252</v>
@@ -10797,13 +10807,13 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>911</v>
+      </c>
+      <c r="B140" t="s">
+        <v>911</v>
+      </c>
+      <c r="C140" t="s">
         <v>913</v>
-      </c>
-      <c r="B140" t="s">
-        <v>913</v>
-      </c>
-      <c r="C140" t="s">
-        <v>915</v>
       </c>
       <c r="D140" t="s">
         <v>108</v>
@@ -10812,7 +10822,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="Q140" t="s">
         <v>252</v>
@@ -10820,10 +10830,10 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B141" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C141" t="s">
         <v>93</v>
@@ -10835,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q141" t="s">
         <v>252</v>
@@ -10843,13 +10853,13 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B142" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C142" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D142" t="s">
         <v>108</v>
@@ -10858,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="Q142" t="s">
         <v>252</v>
@@ -10866,13 +10876,13 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B143" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C143" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D143" t="s">
         <v>108</v>
@@ -10881,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="Q143" t="s">
         <v>252</v>
@@ -10897,8 +10907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="C270" sqref="C270"/>
+    <sheetView topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14581,7 +14591,7 @@
         <v>701</v>
       </c>
       <c r="C254" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -14595,7 +14605,7 @@
         <v>702</v>
       </c>
       <c r="C255" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D255">
         <v>2</v>
@@ -14609,7 +14619,7 @@
         <v>703</v>
       </c>
       <c r="C256" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D256">
         <v>3</v>
@@ -14623,7 +14633,7 @@
         <v>704</v>
       </c>
       <c r="C257" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D257">
         <v>4</v>
@@ -14637,7 +14647,7 @@
         <v>705</v>
       </c>
       <c r="C258" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D258">
         <v>5</v>
@@ -14651,7 +14661,7 @@
         <v>706</v>
       </c>
       <c r="C259" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D259">
         <v>6</v>
@@ -14724,28 +14734,28 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="B266" s="5" t="s">
+      <c r="A266" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="B266" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C266" s="5" t="s">
-        <v>513</v>
+      <c r="C266" s="7" t="s">
+        <v>956</v>
       </c>
       <c r="D266">
         <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="B267" s="5" t="s">
+      <c r="A267" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="B267" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="C267" s="5" t="s">
-        <v>513</v>
+      <c r="C267" s="7" t="s">
+        <v>957</v>
       </c>
       <c r="D267">
         <v>2</v>
@@ -14759,7 +14769,7 @@
         <v>116</v>
       </c>
       <c r="C268" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -14773,7 +14783,7 @@
         <v>452</v>
       </c>
       <c r="C269" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D269">
         <v>2</v>
@@ -14781,7 +14791,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -14789,13 +14799,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B271" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C271" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -14803,13 +14813,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B272" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C272" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -14817,13 +14827,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B273" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C273" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D273">
         <v>3</v>
@@ -14831,13 +14841,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>721</v>
+      </c>
+      <c r="B274" t="s">
         <v>723</v>
       </c>
-      <c r="B274" t="s">
-        <v>725</v>
-      </c>
       <c r="C274" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D274">
         <v>4</v>
@@ -14845,13 +14855,13 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B275" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C275" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -14859,13 +14869,13 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B276" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C276" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -14873,7 +14883,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B277" t="s">
         <v>116</v>
@@ -14887,13 +14897,13 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B278" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C278" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D278">
         <v>2</v>
@@ -14901,7 +14911,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B279" t="s">
         <v>116</v>
@@ -14915,13 +14925,13 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B280" t="s">
         <v>532</v>
       </c>
       <c r="C280" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D280">
         <v>2</v>
@@ -14929,7 +14939,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B281" t="s">
         <v>110</v>
@@ -14944,12 +14954,12 @@
         <v>106</v>
       </c>
       <c r="F281" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B282" t="s">
         <v>114</v>
@@ -14964,18 +14974,18 @@
         <v>106</v>
       </c>
       <c r="F282" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>753</v>
+      </c>
+      <c r="B283" t="s">
+        <v>754</v>
+      </c>
+      <c r="C283" t="s">
         <v>755</v>
-      </c>
-      <c r="B283" t="s">
-        <v>756</v>
-      </c>
-      <c r="C283" t="s">
-        <v>757</v>
       </c>
       <c r="D283">
         <v>3</v>
@@ -14984,18 +14994,18 @@
         <v>106</v>
       </c>
       <c r="F283" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B284" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C284" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -15003,13 +15013,13 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>758</v>
+      </c>
+      <c r="B285" t="s">
         <v>760</v>
       </c>
-      <c r="B285" t="s">
-        <v>762</v>
-      </c>
       <c r="C285" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D285">
         <v>2</v>
@@ -15017,13 +15027,13 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B286" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C286" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D286">
         <v>3</v>
@@ -15031,27 +15041,27 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B287" t="s">
         <v>178</v>
       </c>
       <c r="C287" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D287">
         <v>1</v>
       </c>
       <c r="E287" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F287" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B288" t="s">
         <v>116</v>
@@ -15063,35 +15073,35 @@
         <v>2</v>
       </c>
       <c r="E288" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F288" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B289" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C289" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D289">
         <v>1</v>
       </c>
       <c r="E289" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F289" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B290" t="s">
         <v>116</v>
@@ -15103,15 +15113,15 @@
         <v>2</v>
       </c>
       <c r="E290" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F290" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -15119,7 +15129,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D292">
         <v>2</v>
@@ -15127,73 +15137,73 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B293" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C293" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D293">
         <v>1</v>
       </c>
       <c r="E293" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F293" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B294" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C294" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D294">
         <v>2</v>
       </c>
       <c r="E294" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F294" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B295" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C295" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D295">
         <v>3</v>
       </c>
       <c r="E295" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F295" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B296">
         <v>80</v>
       </c>
       <c r="C296" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -15201,13 +15211,13 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B297">
         <v>120</v>
       </c>
       <c r="C297" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D297">
         <v>2</v>
@@ -15215,7 +15225,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -15223,13 +15233,13 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B299" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C299" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -15237,13 +15247,13 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B300" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C300" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D300">
         <v>2</v>
@@ -15251,13 +15261,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B301" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C301" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D301">
         <v>3</v>
@@ -15265,13 +15275,13 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B302" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C302" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D302">
         <v>4</v>
@@ -15279,13 +15289,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B303" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C303" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D303">
         <v>5</v>
@@ -15293,13 +15303,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B304" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C304" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -15307,13 +15317,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B305" t="s">
+        <v>803</v>
+      </c>
+      <c r="C305" t="s">
         <v>805</v>
-      </c>
-      <c r="C305" t="s">
-        <v>807</v>
       </c>
       <c r="D305">
         <v>2</v>
@@ -15321,13 +15331,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B306" t="s">
+        <v>804</v>
+      </c>
+      <c r="C306" t="s">
         <v>806</v>
-      </c>
-      <c r="C306" t="s">
-        <v>808</v>
       </c>
       <c r="D306">
         <v>3</v>
@@ -15335,13 +15345,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B307" t="s">
         <v>129</v>
       </c>
       <c r="C307" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -15349,7 +15359,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B308" t="s">
         <v>116</v>
@@ -15363,13 +15373,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B309" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C309" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -15377,13 +15387,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B310" t="s">
         <v>185</v>
       </c>
       <c r="C310" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D310">
         <v>2</v>
@@ -15391,13 +15401,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B311" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C311" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -15405,13 +15415,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B312" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C312" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D312">
         <v>2</v>
@@ -15419,27 +15429,27 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B315" t="s">
+        <v>837</v>
+      </c>
+      <c r="C315" t="s">
         <v>839</v>
-      </c>
-      <c r="C315" t="s">
-        <v>841</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -15447,13 +15457,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>836</v>
+      </c>
+      <c r="B316" t="s">
         <v>838</v>
       </c>
-      <c r="B316" t="s">
+      <c r="C316" t="s">
         <v>840</v>
-      </c>
-      <c r="C316" t="s">
-        <v>842</v>
       </c>
       <c r="D316">
         <v>2</v>
@@ -15461,13 +15471,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B317" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C317" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -15475,13 +15485,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>841</v>
+      </c>
+      <c r="B318" t="s">
         <v>843</v>
       </c>
-      <c r="B318" t="s">
-        <v>845</v>
-      </c>
       <c r="C318" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D318">
         <v>2</v>
@@ -15489,13 +15499,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B319" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C319" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D319">
         <v>3</v>
@@ -15503,7 +15513,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -15511,7 +15521,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B321" t="s">
         <v>128</v>
@@ -15525,7 +15535,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B322" t="s">
         <v>116</v>
@@ -15539,13 +15549,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B323" t="s">
+        <v>854</v>
+      </c>
+      <c r="C323" t="s">
         <v>856</v>
-      </c>
-      <c r="C323" t="s">
-        <v>858</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -15553,13 +15563,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>853</v>
+      </c>
+      <c r="B324" t="s">
         <v>855</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
         <v>857</v>
-      </c>
-      <c r="C324" t="s">
-        <v>859</v>
       </c>
       <c r="D324">
         <v>2</v>
@@ -15567,7 +15577,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B325" t="s">
         <v>128</v>
@@ -15581,7 +15591,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B326" t="s">
         <v>116</v>
@@ -15595,13 +15605,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B327" t="s">
         <v>704</v>
       </c>
       <c r="C327" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -15609,13 +15619,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B328" t="s">
+        <v>865</v>
+      </c>
+      <c r="C328" t="s">
         <v>867</v>
-      </c>
-      <c r="C328" t="s">
-        <v>869</v>
       </c>
       <c r="D328">
         <v>2</v>
@@ -15623,13 +15633,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B329" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C329" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -15637,13 +15647,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B330" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C330" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D330">
         <v>2</v>
@@ -15651,17 +15661,17 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B333" t="s">
         <v>607</v>
@@ -15675,7 +15685,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B334" t="s">
         <v>608</v>
@@ -15689,7 +15699,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B335" t="s">
         <v>116</v>
@@ -15703,13 +15713,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B336" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C336" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D336">
         <v>2</v>
@@ -15717,13 +15727,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B337" t="s">
+        <v>880</v>
+      </c>
+      <c r="C337" t="s">
         <v>882</v>
-      </c>
-      <c r="C337" t="s">
-        <v>884</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -15731,13 +15741,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>879</v>
+      </c>
+      <c r="B338" t="s">
         <v>881</v>
       </c>
-      <c r="B338" t="s">
+      <c r="C338" t="s">
         <v>883</v>
-      </c>
-      <c r="C338" t="s">
-        <v>885</v>
       </c>
       <c r="D338">
         <v>2</v>
@@ -15745,7 +15755,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B339">
         <v>100</v>
@@ -15756,7 +15766,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B340">
         <v>125</v>
@@ -15767,13 +15777,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B341" t="s">
         <v>532</v>
       </c>
       <c r="C341" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -15781,13 +15791,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B342" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C342" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D342">
         <v>2</v>
@@ -15795,13 +15805,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B343" t="s">
         <v>607</v>
       </c>
       <c r="C343" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D343">
         <v>1</v>
@@ -15809,13 +15819,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>892</v>
+      </c>
+      <c r="B344" t="s">
         <v>894</v>
       </c>
-      <c r="B344" t="s">
-        <v>896</v>
-      </c>
       <c r="C344" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D344">
         <v>2</v>
@@ -15823,7 +15833,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B345">
         <v>800</v>
@@ -15837,7 +15847,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B346">
         <v>1000</v>
@@ -15851,7 +15861,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B347">
         <v>1300</v>
@@ -15865,7 +15875,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B348">
         <v>1600</v>
@@ -15879,7 +15889,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B349" t="s">
         <v>139</v>
@@ -15901,13 +15911,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B351" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C351" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D351">
         <v>1</v>
@@ -15915,13 +15925,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>904</v>
+      </c>
+      <c r="B352" t="s">
         <v>906</v>
       </c>
-      <c r="B352" t="s">
-        <v>908</v>
-      </c>
       <c r="C352" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D352">
         <v>2</v>
@@ -15929,13 +15939,13 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B353" t="s">
+        <v>907</v>
+      </c>
+      <c r="C353" t="s">
         <v>909</v>
-      </c>
-      <c r="C353" t="s">
-        <v>911</v>
       </c>
       <c r="D353">
         <v>3</v>
@@ -15943,13 +15953,13 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B354" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C354" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D354">
         <v>4</v>
@@ -15957,53 +15967,53 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B355" t="s">
         <v>532</v>
       </c>
       <c r="C355" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D355">
         <v>1</v>
       </c>
       <c r="E355" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F355" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B356" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C356" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D356">
         <v>2</v>
       </c>
       <c r="E356" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F356" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B357">
         <v>60</v>
       </c>
       <c r="C357" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -16011,13 +16021,13 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B358">
         <v>110</v>
       </c>
       <c r="C358" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D358">
         <v>2</v>
@@ -16025,7 +16035,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B359">
         <v>600</v>
@@ -16037,7 +16047,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F359">
         <v>60</v>
@@ -16045,7 +16055,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B360">
         <v>800</v>
@@ -16057,7 +16067,7 @@
         <v>2</v>
       </c>
       <c r="E360" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F360" s="6">
         <v>60110</v>
@@ -16065,7 +16075,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B361">
         <v>1000</v>
@@ -16077,7 +16087,7 @@
         <v>3</v>
       </c>
       <c r="E361" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F361" s="6">
         <v>60110</v>
@@ -16085,7 +16095,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B362">
         <v>1300</v>
@@ -16097,7 +16107,7 @@
         <v>4</v>
       </c>
       <c r="E362" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F362">
         <v>110</v>
@@ -16105,7 +16115,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B363">
         <v>1600</v>
@@ -16117,7 +16127,7 @@
         <v>5</v>
       </c>
       <c r="E363" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F363">
         <v>110</v>
@@ -16125,13 +16135,13 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>921</v>
+      </c>
+      <c r="B364" t="s">
         <v>923</v>
       </c>
-      <c r="B364" t="s">
-        <v>925</v>
-      </c>
       <c r="C364" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D364">
         <v>1</v>
@@ -16139,13 +16149,13 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B365" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C365" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D365">
         <v>2</v>
@@ -16153,13 +16163,13 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B366" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C366" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D366">
         <v>1</v>
@@ -16167,13 +16177,13 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B367" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C367" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D367">
         <v>2</v>
@@ -16181,13 +16191,13 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B368" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C368" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D368">
         <v>3</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86420F60-178D-4AA5-B376-3E0658E8B808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DA383E-1D00-46F0-B6A2-B67D024380E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="960">
   <si>
     <t>Kategori1</t>
   </si>
@@ -7073,8 +7073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9701,6 +9701,15 @@
       </c>
       <c r="F95" t="s">
         <v>715</v>
+      </c>
+      <c r="N95" t="s">
+        <v>693</v>
+      </c>
+      <c r="O95" t="s">
+        <v>128</v>
+      </c>
+      <c r="R95" t="s">
+        <v>383</v>
       </c>
       <c r="S95" t="b">
         <v>1</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DA383E-1D00-46F0-B6A2-B67D024380E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C844ACDF-4406-412F-AD6F-6B5468A5ECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="980">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2054,9 +2054,6 @@
     <t>Kartezyen Adedi</t>
   </si>
   <si>
-    <t>Vakum Şekli??</t>
-  </si>
-  <si>
     <t>Vakum_Sekli</t>
   </si>
   <si>
@@ -2081,9 +2078,6 @@
     <t>K4015_P</t>
   </si>
   <si>
-    <t>... x … aluminyum? Kartezyen</t>
-  </si>
-  <si>
     <t>Tek kartezyen robot</t>
   </si>
   <si>
@@ -2096,15 +2090,6 @@
     <t>VQ</t>
   </si>
   <si>
-    <t>Küçük vakum seti??</t>
-  </si>
-  <si>
-    <t>Büyük vakum seti??</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Araba_Tipi</t>
   </si>
   <si>
@@ -2916,6 +2901,81 @@
   </si>
   <si>
     <t>Tabla Tipi</t>
+  </si>
+  <si>
+    <t>Küçük vakum seti</t>
+  </si>
+  <si>
+    <t>Büyük vakum seti</t>
+  </si>
+  <si>
+    <t>VK</t>
+  </si>
+  <si>
+    <t>Quick-Change sistemi</t>
+  </si>
+  <si>
+    <t>Vakum Şekli</t>
+  </si>
+  <si>
+    <t>Shuttle_Tipi</t>
+  </si>
+  <si>
+    <t>Teleskop_Shuttle</t>
+  </si>
+  <si>
+    <t>Shuttle Tipi</t>
+  </si>
+  <si>
+    <t>Teleskop</t>
+  </si>
+  <si>
+    <t>Shuttle_Tipi_opts</t>
+  </si>
+  <si>
+    <t>Teleskop_Shuttle_opts</t>
+  </si>
+  <si>
+    <t>200mm yatay / 100mm dikey profilli kartezyen</t>
+  </si>
+  <si>
+    <t>300mm yatay / 150mm dikey profilli kartezyen</t>
+  </si>
+  <si>
+    <t>400mm yatay / 150mm dikey profilli kartezyen - standart</t>
+  </si>
+  <si>
+    <t>400mm yatay / 150mm dikey profilli kartezyen - premium</t>
+  </si>
+  <si>
+    <t>200mm yatay profil genişliği</t>
+  </si>
+  <si>
+    <t>300mm yatay profil genişliği</t>
+  </si>
+  <si>
+    <t>400mm yatay profil genişliği - standart</t>
+  </si>
+  <si>
+    <t>400mm yatay profil genişliği - premium</t>
+  </si>
+  <si>
+    <t>Teleskop Yok</t>
+  </si>
+  <si>
+    <t>Teleskop Var</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S40_S</t>
+  </si>
+  <si>
+    <t>S40_P</t>
   </si>
 </sst>
 </file>
@@ -2996,7 +3056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3009,6 +3069,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3795,8 +3856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157:E157"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159:E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5975,10 +6036,10 @@
         <v>43</v>
       </c>
       <c r="D108" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E108" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -5995,10 +6056,10 @@
         <v>43</v>
       </c>
       <c r="D109" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E109" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -6015,10 +6076,10 @@
         <v>43</v>
       </c>
       <c r="D110" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E110" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F110">
         <v>4</v>
@@ -6055,10 +6116,10 @@
         <v>50</v>
       </c>
       <c r="D112" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E112" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -6075,10 +6136,10 @@
         <v>50</v>
       </c>
       <c r="D113" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E113" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F113">
         <v>3</v>
@@ -6095,10 +6156,10 @@
         <v>50</v>
       </c>
       <c r="D114" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E114" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="F114">
         <v>4</v>
@@ -6115,10 +6176,10 @@
         <v>50</v>
       </c>
       <c r="D115" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E115" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F115">
         <v>5</v>
@@ -6135,7 +6196,7 @@
         <v>50</v>
       </c>
       <c r="D116" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E116" t="s">
         <v>93</v>
@@ -6155,10 +6216,10 @@
         <v>50</v>
       </c>
       <c r="D117" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E117" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F117">
         <v>7</v>
@@ -6175,7 +6236,7 @@
         <v>50</v>
       </c>
       <c r="D118" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E118" t="s">
         <v>101</v>
@@ -6195,10 +6256,10 @@
         <v>50</v>
       </c>
       <c r="D119" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E119" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F119">
         <v>9</v>
@@ -6215,10 +6276,10 @@
         <v>50</v>
       </c>
       <c r="D120" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="E120" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F120">
         <v>10</v>
@@ -6235,10 +6296,10 @@
         <v>50</v>
       </c>
       <c r="D121" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E121" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F121">
         <v>11</v>
@@ -6255,10 +6316,10 @@
         <v>50</v>
       </c>
       <c r="D122" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E122" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F122">
         <v>12</v>
@@ -6275,10 +6336,10 @@
         <v>50</v>
       </c>
       <c r="D123" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E123" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F123">
         <v>13</v>
@@ -6295,10 +6356,10 @@
         <v>50</v>
       </c>
       <c r="D124" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="E124" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F124">
         <v>14</v>
@@ -6315,10 +6376,10 @@
         <v>50</v>
       </c>
       <c r="D125" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E125" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F125">
         <v>15</v>
@@ -6355,10 +6416,10 @@
         <v>60</v>
       </c>
       <c r="D127" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E127" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -6375,10 +6436,10 @@
         <v>60</v>
       </c>
       <c r="D128" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E128" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="F128">
         <v>2</v>
@@ -6395,7 +6456,7 @@
         <v>60</v>
       </c>
       <c r="D129" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="E129" t="s">
         <v>93</v>
@@ -6415,7 +6476,7 @@
         <v>60</v>
       </c>
       <c r="D130" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E130" t="s">
         <v>101</v>
@@ -6435,10 +6496,10 @@
         <v>60</v>
       </c>
       <c r="D131" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E131" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="F131">
         <v>5</v>
@@ -6455,10 +6516,10 @@
         <v>60</v>
       </c>
       <c r="D132" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E132" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F132">
         <v>6</v>
@@ -6475,10 +6536,10 @@
         <v>60</v>
       </c>
       <c r="D133" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E133" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -6495,7 +6556,7 @@
         <v>60</v>
       </c>
       <c r="D134" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="E134" t="s">
         <v>82</v>
@@ -6515,7 +6576,7 @@
         <v>60</v>
       </c>
       <c r="D135" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="E135" t="s">
         <v>412</v>
@@ -6535,7 +6596,7 @@
         <v>60</v>
       </c>
       <c r="D136" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E136" t="s">
         <v>414</v>
@@ -6575,10 +6636,10 @@
         <v>61</v>
       </c>
       <c r="D138" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E138" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -6595,10 +6656,10 @@
         <v>61</v>
       </c>
       <c r="D139" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E139" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="F139">
         <v>2</v>
@@ -6615,7 +6676,7 @@
         <v>61</v>
       </c>
       <c r="D140" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="E140" t="s">
         <v>93</v>
@@ -6635,7 +6696,7 @@
         <v>61</v>
       </c>
       <c r="D141" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E141" t="s">
         <v>101</v>
@@ -6655,10 +6716,10 @@
         <v>61</v>
       </c>
       <c r="D142" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E142" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -6675,7 +6736,7 @@
         <v>61</v>
       </c>
       <c r="D143" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="E143" t="s">
         <v>412</v>
@@ -6695,7 +6756,7 @@
         <v>61</v>
       </c>
       <c r="D144" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E144" t="s">
         <v>414</v>
@@ -6735,10 +6796,10 @@
         <v>67</v>
       </c>
       <c r="D146" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="E146" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -6755,10 +6816,10 @@
         <v>67</v>
       </c>
       <c r="D147" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="E147" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -6775,7 +6836,7 @@
         <v>67</v>
       </c>
       <c r="D148" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="E148" t="s">
         <v>93</v>
@@ -6815,10 +6876,10 @@
         <v>68</v>
       </c>
       <c r="D150" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="E150" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -6835,10 +6896,10 @@
         <v>68</v>
       </c>
       <c r="D151" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="E151" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -6855,7 +6916,7 @@
         <v>68</v>
       </c>
       <c r="D152" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="E152" t="s">
         <v>93</v>
@@ -6895,10 +6956,10 @@
         <v>70</v>
       </c>
       <c r="D154" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="E154" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -6915,7 +6976,7 @@
         <v>70</v>
       </c>
       <c r="D155" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="E155" t="s">
         <v>93</v>
@@ -6955,7 +7016,7 @@
         <v>72</v>
       </c>
       <c r="D157" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="E157" t="s">
         <v>78</v>
@@ -6964,18 +7025,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>39</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B158" t="s">
         <v>40</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C158" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>79</v>
+      </c>
+      <c r="E158" t="s">
+        <v>90</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" t="s">
+        <v>40</v>
+      </c>
+      <c r="C159" t="s">
+        <v>45</v>
+      </c>
+      <c r="D159" t="s">
+        <v>960</v>
+      </c>
+      <c r="E159" t="s">
+        <v>962</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>39</v>
+      </c>
+      <c r="B160" t="s">
+        <v>40</v>
+      </c>
+      <c r="C160" t="s">
+        <v>45</v>
+      </c>
+      <c r="D160" t="s">
+        <v>961</v>
+      </c>
+      <c r="E160" t="s">
+        <v>963</v>
+      </c>
+      <c r="F160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161" t="s">
+        <v>40</v>
+      </c>
+      <c r="C161" t="s">
+        <v>45</v>
+      </c>
+      <c r="D161" t="s">
+        <v>89</v>
+      </c>
+      <c r="E161" t="s">
+        <v>84</v>
+      </c>
+      <c r="F161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>39</v>
       </c>
@@ -6986,7 +7116,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>39</v>
       </c>
@@ -6997,7 +7127,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>39</v>
       </c>
@@ -7008,7 +7138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>39</v>
       </c>
@@ -7019,7 +7149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>39</v>
       </c>
@@ -7030,7 +7160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>39</v>
       </c>
@@ -7071,10 +7201,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S143"/>
+  <dimension ref="A1:S145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144:F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9518,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q88" t="s">
         <v>252</v>
@@ -9541,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K89" t="s">
         <v>48</v>
@@ -9558,10 +9688,10 @@
         <v>668</v>
       </c>
       <c r="B90" t="s">
-        <v>673</v>
-      </c>
-      <c r="C90" s="5" t="s">
         <v>672</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>959</v>
       </c>
       <c r="D90" t="s">
         <v>108</v>
@@ -9570,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K90" t="s">
         <v>48</v>
@@ -9584,13 +9714,13 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B91" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C91" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D91" t="s">
         <v>108</v>
@@ -9599,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="Q91" t="s">
         <v>252</v>
@@ -9607,13 +9737,13 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B92" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C92" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D92" t="s">
         <v>108</v>
@@ -9622,7 +9752,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="Q92" t="s">
         <v>252</v>
@@ -9630,13 +9760,13 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B93" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="C93" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D93" t="s">
         <v>108</v>
@@ -9645,7 +9775,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="K93" t="s">
         <v>247</v>
@@ -9662,13 +9792,13 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B94" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C94" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D94" t="s">
         <v>108</v>
@@ -9677,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="Q94" t="s">
         <v>252</v>
@@ -9685,13 +9815,13 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B95" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C95" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D95" t="s">
         <v>243</v>
@@ -9700,13 +9830,13 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="N95" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="O95" t="s">
-        <v>128</v>
+        <v>452</v>
       </c>
       <c r="R95" t="s">
         <v>383</v>
@@ -9717,13 +9847,13 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B96" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C96" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D96" t="s">
         <v>108</v>
@@ -9732,7 +9862,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="K96" t="s">
         <v>247</v>
@@ -9749,13 +9879,13 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B97" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C97" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="D97" t="s">
         <v>108</v>
@@ -9764,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="Q97" t="s">
         <v>252</v>
@@ -9772,13 +9902,13 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B98" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C98" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="D98" t="s">
         <v>108</v>
@@ -9787,7 +9917,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="Q98" t="s">
         <v>252</v>
@@ -9795,13 +9925,13 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B99" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C99" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="D99" t="s">
         <v>108</v>
@@ -9810,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="Q99" t="s">
         <v>252</v>
@@ -9818,13 +9948,13 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B100" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C100" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D100" t="s">
         <v>108</v>
@@ -9833,7 +9963,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="Q100" t="s">
         <v>252</v>
@@ -9841,13 +9971,13 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B101" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C101" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D101" t="s">
         <v>108</v>
@@ -9856,7 +9986,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="Q101" t="s">
         <v>252</v>
@@ -9864,13 +9994,13 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B102" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C102" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D102" t="s">
         <v>108</v>
@@ -9879,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="Q102" t="s">
         <v>252</v>
@@ -9887,13 +10017,13 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B103" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C103" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D103" t="s">
         <v>108</v>
@@ -9902,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="Q103" t="s">
         <v>252</v>
@@ -9910,13 +10040,13 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B104" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C104" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D104" t="s">
         <v>135</v>
@@ -9925,21 +10055,21 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="L104" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B105" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C105" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D105" t="s">
         <v>135</v>
@@ -9948,18 +10078,18 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B106" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C106" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D106" t="s">
         <v>108</v>
@@ -9968,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="Q106" t="s">
         <v>252</v>
@@ -9976,10 +10106,10 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B107" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C107" t="s">
         <v>104</v>
@@ -9991,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="K107" t="s">
         <v>345</v>
@@ -10002,13 +10132,13 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B108" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C108" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D108" t="s">
         <v>135</v>
@@ -10017,21 +10147,21 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="L108" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B109" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C109" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D109" t="s">
         <v>108</v>
@@ -10040,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="Q109" t="s">
         <v>252</v>
@@ -10048,13 +10178,13 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B110" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C110" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D110" t="s">
         <v>108</v>
@@ -10063,7 +10193,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="Q110" t="s">
         <v>252</v>
@@ -10071,13 +10201,13 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B111" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C111" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D111" t="s">
         <v>108</v>
@@ -10086,13 +10216,13 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="N111" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="O111" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="Q111" t="s">
         <v>252</v>
@@ -10103,13 +10233,13 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B112" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C112" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D112" t="s">
         <v>108</v>
@@ -10118,7 +10248,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="Q112" t="s">
         <v>252</v>
@@ -10126,13 +10256,13 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B113" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C113" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D113" t="s">
         <v>108</v>
@@ -10141,7 +10271,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="Q113" t="s">
         <v>252</v>
@@ -10149,13 +10279,13 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B114" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C114" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D114" t="s">
         <v>108</v>
@@ -10164,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="Q114" t="s">
         <v>252</v>
@@ -10172,13 +10302,13 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B115" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C115" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D115" t="s">
         <v>108</v>
@@ -10187,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="Q115" t="s">
         <v>252</v>
@@ -10195,13 +10325,13 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B116" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C116" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D116" t="s">
         <v>108</v>
@@ -10210,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="Q116" t="s">
         <v>252</v>
@@ -10218,13 +10348,13 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B117" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C117" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="D117" t="s">
         <v>108</v>
@@ -10233,7 +10363,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="Q117" t="s">
         <v>252</v>
@@ -10241,10 +10371,10 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B118" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C118" t="s">
         <v>93</v>
@@ -10256,15 +10386,15 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B119" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C119" t="s">
         <v>101</v>
@@ -10276,13 +10406,13 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="N119" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="O119" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="Q119" t="s">
         <v>252</v>
@@ -10293,13 +10423,13 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B120" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C120" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D120" t="s">
         <v>108</v>
@@ -10308,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="Q120" t="s">
         <v>252</v>
@@ -10316,13 +10446,13 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B121" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C121" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D121" t="s">
         <v>108</v>
@@ -10331,10 +10461,10 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="N121" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="O121" t="s">
         <v>128</v>
@@ -10348,13 +10478,13 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B122" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C122" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D122" t="s">
         <v>108</v>
@@ -10363,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="Q122" t="s">
         <v>252</v>
@@ -10371,13 +10501,13 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B123" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C123" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D123" t="s">
         <v>108</v>
@@ -10386,10 +10516,10 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="N123" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="O123" t="s">
         <v>128</v>
@@ -10403,13 +10533,13 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B124" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C124" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="D124" t="s">
         <v>108</v>
@@ -10418,10 +10548,10 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="N124" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="O124" t="s">
         <v>128</v>
@@ -10435,13 +10565,13 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B125" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C125" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D125" t="s">
         <v>108</v>
@@ -10450,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="Q125" t="s">
         <v>252</v>
@@ -10458,10 +10588,10 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B126" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C126" t="s">
         <v>82</v>
@@ -10473,7 +10603,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="Q126" t="s">
         <v>252</v>
@@ -10481,10 +10611,10 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B127" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C127" t="s">
         <v>412</v>
@@ -10496,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="Q127" t="s">
         <v>252</v>
@@ -10504,13 +10634,13 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B128" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="C128" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D128" t="s">
         <v>108</v>
@@ -10519,10 +10649,10 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="N128" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="O128" t="s">
         <v>608</v>
@@ -10536,7 +10666,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B129" t="s">
         <v>413</v>
@@ -10556,7 +10686,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B130" t="s">
         <v>617</v>
@@ -10588,13 +10718,13 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B131" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C131" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="D131" t="s">
         <v>108</v>
@@ -10603,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="Q131" t="s">
         <v>252</v>
@@ -10611,13 +10741,13 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B132" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="C132" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D132" t="s">
         <v>108</v>
@@ -10626,7 +10756,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="Q132" t="s">
         <v>252</v>
@@ -10634,13 +10764,13 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B133" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C133" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="D133" t="s">
         <v>108</v>
@@ -10649,7 +10779,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="Q133" t="s">
         <v>252</v>
@@ -10657,13 +10787,13 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B134" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C134" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="D134" t="s">
         <v>108</v>
@@ -10672,13 +10802,13 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="N134" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="O134" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="Q134" t="s">
         <v>252</v>
@@ -10689,10 +10819,10 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B135" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C135" t="s">
         <v>93</v>
@@ -10704,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="Q135" t="s">
         <v>252</v>
@@ -10712,7 +10842,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B136" t="s">
         <v>388</v>
@@ -10730,7 +10860,7 @@
         <v>390</v>
       </c>
       <c r="N136" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="O136" t="s">
         <v>139</v>
@@ -10741,13 +10871,13 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B137" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="C137" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="D137" t="s">
         <v>108</v>
@@ -10756,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="Q137" t="s">
         <v>252</v>
@@ -10764,13 +10894,13 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B138" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C138" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="D138" t="s">
         <v>108</v>
@@ -10779,18 +10909,18 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B139" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C139" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="D139" t="s">
         <v>108</v>
@@ -10799,13 +10929,13 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="N139" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="O139" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="Q139" t="s">
         <v>252</v>
@@ -10816,13 +10946,13 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B140" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C140" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="D140" t="s">
         <v>108</v>
@@ -10831,7 +10961,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="Q140" t="s">
         <v>252</v>
@@ -10839,10 +10969,10 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B141" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C141" t="s">
         <v>93</v>
@@ -10854,7 +10984,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="Q141" t="s">
         <v>252</v>
@@ -10862,13 +10992,13 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B142" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C142" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="D142" t="s">
         <v>108</v>
@@ -10877,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="Q142" t="s">
         <v>252</v>
@@ -10885,13 +11015,13 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B143" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C143" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="D143" t="s">
         <v>108</v>
@@ -10900,9 +11030,55 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="Q143" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>960</v>
+      </c>
+      <c r="B144" t="s">
+        <v>960</v>
+      </c>
+      <c r="C144" t="s">
+        <v>962</v>
+      </c>
+      <c r="D144" t="s">
+        <v>108</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>961</v>
+      </c>
+      <c r="B145" t="s">
+        <v>961</v>
+      </c>
+      <c r="C145" t="s">
+        <v>963</v>
+      </c>
+      <c r="D145" t="s">
+        <v>108</v>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>965</v>
+      </c>
+      <c r="Q145" t="s">
         <v>252</v>
       </c>
     </row>
@@ -10914,17 +11090,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F368"/>
+  <dimension ref="A1:F374"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -14468,13 +14644,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B245" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C245" t="s">
-        <v>681</v>
+        <v>966</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -14482,13 +14658,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B246" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C246" t="s">
-        <v>681</v>
+        <v>967</v>
       </c>
       <c r="D246">
         <v>2</v>
@@ -14496,13 +14672,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B247" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C247" t="s">
-        <v>681</v>
+        <v>968</v>
       </c>
       <c r="D247">
         <v>3</v>
@@ -14510,13 +14686,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B248" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C248" t="s">
-        <v>681</v>
+        <v>969</v>
       </c>
       <c r="D248">
         <v>4</v>
@@ -14524,13 +14700,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B249">
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -14538,13 +14714,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B250">
         <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D250">
         <v>2</v>
@@ -14552,13 +14728,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B251" t="s">
-        <v>345</v>
+        <v>957</v>
       </c>
       <c r="C251" t="s">
-        <v>686</v>
+        <v>955</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -14566,13 +14742,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B252" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C252" t="s">
-        <v>687</v>
+        <v>956</v>
       </c>
       <c r="D252">
         <v>2</v>
@@ -14580,13 +14756,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B253" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C253" t="s">
-        <v>688</v>
+        <v>958</v>
       </c>
       <c r="D253">
         <v>3</v>
@@ -14594,13 +14770,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B254" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C254" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -14608,13 +14784,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B255" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C255" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D255">
         <v>2</v>
@@ -14622,13 +14798,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>693</v>
+      </c>
+      <c r="B256" t="s">
         <v>698</v>
       </c>
-      <c r="B256" t="s">
-        <v>703</v>
-      </c>
       <c r="C256" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="D256">
         <v>3</v>
@@ -14636,13 +14812,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B257" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C257" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D257">
         <v>4</v>
@@ -14650,13 +14826,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B258" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C258" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D258">
         <v>5</v>
@@ -14664,13 +14840,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B259" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C259" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="D259">
         <v>6</v>
@@ -14678,10 +14854,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B260" t="s">
-        <v>707</v>
+        <v>702</v>
+      </c>
+      <c r="C260" t="s">
+        <v>513</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -14689,10 +14868,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B261" t="s">
-        <v>708</v>
+        <v>703</v>
+      </c>
+      <c r="C261" t="s">
+        <v>513</v>
       </c>
       <c r="D261">
         <v>2</v>
@@ -14700,10 +14882,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B262" t="s">
-        <v>709</v>
+        <v>704</v>
+      </c>
+      <c r="C262" t="s">
+        <v>513</v>
       </c>
       <c r="D262">
         <v>3</v>
@@ -14711,10 +14896,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B263" t="s">
-        <v>710</v>
+        <v>705</v>
+      </c>
+      <c r="C263" t="s">
+        <v>513</v>
       </c>
       <c r="D263">
         <v>4</v>
@@ -14722,10 +14910,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B264" t="s">
-        <v>711</v>
+        <v>706</v>
+      </c>
+      <c r="C264" t="s">
+        <v>513</v>
       </c>
       <c r="D264">
         <v>5</v>
@@ -14733,10 +14924,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B265" t="s">
-        <v>712</v>
+        <v>707</v>
+      </c>
+      <c r="C265" t="s">
+        <v>513</v>
       </c>
       <c r="D265">
         <v>6</v>
@@ -14744,13 +14938,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -14758,13 +14952,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D267">
         <v>2</v>
@@ -14772,13 +14966,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B268" t="s">
         <v>116</v>
       </c>
       <c r="C268" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -14786,13 +14980,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B269" t="s">
         <v>452</v>
       </c>
       <c r="C269" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D269">
         <v>2</v>
@@ -14800,7 +14994,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -14808,13 +15002,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B271" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C271" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -14822,13 +15016,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B272" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C272" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -14836,13 +15030,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B273" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C273" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D273">
         <v>3</v>
@@ -14850,13 +15044,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B274" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C274" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D274">
         <v>4</v>
@@ -14864,13 +15058,13 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B275" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C275" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -14878,13 +15072,13 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B276" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C276" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -14892,7 +15086,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B277" t="s">
         <v>116</v>
@@ -14906,13 +15100,13 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B278" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C278" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D278">
         <v>2</v>
@@ -14920,7 +15114,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B279" t="s">
         <v>116</v>
@@ -14934,13 +15128,13 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B280" t="s">
         <v>532</v>
       </c>
       <c r="C280" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="D280">
         <v>2</v>
@@ -14948,7 +15142,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B281" t="s">
         <v>110</v>
@@ -14963,12 +15157,12 @@
         <v>106</v>
       </c>
       <c r="F281" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B282" t="s">
         <v>114</v>
@@ -14983,18 +15177,18 @@
         <v>106</v>
       </c>
       <c r="F282" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B283" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C283" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D283">
         <v>3</v>
@@ -15003,18 +15197,18 @@
         <v>106</v>
       </c>
       <c r="F283" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B284" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C284" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -15022,13 +15216,13 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>753</v>
+      </c>
+      <c r="B285" t="s">
+        <v>755</v>
+      </c>
+      <c r="C285" t="s">
         <v>758</v>
-      </c>
-      <c r="B285" t="s">
-        <v>760</v>
-      </c>
-      <c r="C285" t="s">
-        <v>763</v>
       </c>
       <c r="D285">
         <v>2</v>
@@ -15036,13 +15230,13 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B286" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C286" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D286">
         <v>3</v>
@@ -15050,27 +15244,27 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B287" t="s">
         <v>178</v>
       </c>
       <c r="C287" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="D287">
         <v>1</v>
       </c>
       <c r="E287" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F287" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B288" t="s">
         <v>116</v>
@@ -15082,35 +15276,35 @@
         <v>2</v>
       </c>
       <c r="E288" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F288" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B289" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C289" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="D289">
         <v>1</v>
       </c>
       <c r="E289" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F289" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B290" t="s">
         <v>116</v>
@@ -15122,15 +15316,15 @@
         <v>2</v>
       </c>
       <c r="E290" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F290" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -15138,7 +15332,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D292">
         <v>2</v>
@@ -15146,73 +15340,73 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B293" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C293" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D293">
         <v>1</v>
       </c>
       <c r="E293" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F293" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B294" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C294" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D294">
         <v>2</v>
       </c>
       <c r="E294" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F294" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B295" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C295" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D295">
         <v>3</v>
       </c>
       <c r="E295" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F295" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B296">
         <v>80</v>
       </c>
       <c r="C296" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -15220,13 +15414,13 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B297">
         <v>120</v>
       </c>
       <c r="C297" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D297">
         <v>2</v>
@@ -15234,7 +15428,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -15242,13 +15436,13 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B299" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C299" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -15256,13 +15450,13 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B300" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C300" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D300">
         <v>2</v>
@@ -15270,13 +15464,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B301" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C301" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D301">
         <v>3</v>
@@ -15284,13 +15478,13 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B302" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C302" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D302">
         <v>4</v>
@@ -15298,13 +15492,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B303" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C303" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="D303">
         <v>5</v>
@@ -15312,13 +15506,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B304" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C304" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -15326,13 +15520,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B305" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C305" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D305">
         <v>2</v>
@@ -15340,13 +15534,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B306" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C306" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D306">
         <v>3</v>
@@ -15354,13 +15548,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B307" t="s">
         <v>129</v>
       </c>
       <c r="C307" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -15368,7 +15562,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B308" t="s">
         <v>116</v>
@@ -15382,13 +15576,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B309" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C309" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -15396,13 +15590,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B310" t="s">
         <v>185</v>
       </c>
       <c r="C310" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D310">
         <v>2</v>
@@ -15410,13 +15604,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B311" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C311" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -15424,13 +15618,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B312" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C312" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D312">
         <v>2</v>
@@ -15438,27 +15632,27 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B315" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C315" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -15466,13 +15660,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B316" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C316" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D316">
         <v>2</v>
@@ -15480,13 +15674,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B317" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C317" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -15494,13 +15688,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>836</v>
+      </c>
+      <c r="B318" t="s">
+        <v>838</v>
+      </c>
+      <c r="C318" t="s">
         <v>841</v>
-      </c>
-      <c r="B318" t="s">
-        <v>843</v>
-      </c>
-      <c r="C318" t="s">
-        <v>846</v>
       </c>
       <c r="D318">
         <v>2</v>
@@ -15508,13 +15702,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B319" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C319" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D319">
         <v>3</v>
@@ -15522,7 +15716,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -15530,7 +15724,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B321" t="s">
         <v>128</v>
@@ -15544,7 +15738,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B322" t="s">
         <v>116</v>
@@ -15558,13 +15752,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B323" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C323" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -15572,13 +15766,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B324" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C324" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="D324">
         <v>2</v>
@@ -15586,7 +15780,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B325" t="s">
         <v>128</v>
@@ -15600,7 +15794,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B326" t="s">
         <v>116</v>
@@ -15614,13 +15808,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B327" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C327" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -15628,13 +15822,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B328" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C328" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="D328">
         <v>2</v>
@@ -15642,13 +15836,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>858</v>
+      </c>
+      <c r="B329" t="s">
+        <v>721</v>
+      </c>
+      <c r="C329" t="s">
         <v>863</v>
-      </c>
-      <c r="B329" t="s">
-        <v>726</v>
-      </c>
-      <c r="C329" t="s">
-        <v>868</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -15656,13 +15850,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B330" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C330" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D330">
         <v>2</v>
@@ -15670,17 +15864,17 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B333" t="s">
         <v>607</v>
@@ -15694,7 +15888,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B334" t="s">
         <v>608</v>
@@ -15708,7 +15902,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B335" t="s">
         <v>116</v>
@@ -15722,13 +15916,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B336" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C336" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="D336">
         <v>2</v>
@@ -15736,13 +15930,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B337" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C337" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -15750,13 +15944,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B338" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="C338" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="D338">
         <v>2</v>
@@ -15764,7 +15958,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B339">
         <v>100</v>
@@ -15775,7 +15969,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B340">
         <v>125</v>
@@ -15786,13 +15980,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B341" t="s">
         <v>532</v>
       </c>
       <c r="C341" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -15800,13 +15994,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B342" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C342" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="D342">
         <v>2</v>
@@ -15814,13 +16008,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B343" t="s">
         <v>607</v>
       </c>
       <c r="C343" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D343">
         <v>1</v>
@@ -15828,13 +16022,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>887</v>
+      </c>
+      <c r="B344" t="s">
+        <v>889</v>
+      </c>
+      <c r="C344" t="s">
         <v>892</v>
-      </c>
-      <c r="B344" t="s">
-        <v>894</v>
-      </c>
-      <c r="C344" t="s">
-        <v>897</v>
       </c>
       <c r="D344">
         <v>2</v>
@@ -15842,7 +16036,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B345">
         <v>800</v>
@@ -15856,7 +16050,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B346">
         <v>1000</v>
@@ -15870,7 +16064,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B347">
         <v>1300</v>
@@ -15884,7 +16078,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B348">
         <v>1600</v>
@@ -15898,7 +16092,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B349" t="s">
         <v>139</v>
@@ -15920,13 +16114,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B351" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C351" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D351">
         <v>1</v>
@@ -15934,13 +16128,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>899</v>
+      </c>
+      <c r="B352" t="s">
+        <v>901</v>
+      </c>
+      <c r="C352" t="s">
         <v>904</v>
-      </c>
-      <c r="B352" t="s">
-        <v>906</v>
-      </c>
-      <c r="C352" t="s">
-        <v>909</v>
       </c>
       <c r="D352">
         <v>2</v>
@@ -15948,13 +16142,13 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>899</v>
+      </c>
+      <c r="B353" t="s">
+        <v>902</v>
+      </c>
+      <c r="C353" t="s">
         <v>904</v>
-      </c>
-      <c r="B353" t="s">
-        <v>907</v>
-      </c>
-      <c r="C353" t="s">
-        <v>909</v>
       </c>
       <c r="D353">
         <v>3</v>
@@ -15962,13 +16156,13 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>899</v>
+      </c>
+      <c r="B354" t="s">
+        <v>903</v>
+      </c>
+      <c r="C354" t="s">
         <v>904</v>
-      </c>
-      <c r="B354" t="s">
-        <v>908</v>
-      </c>
-      <c r="C354" t="s">
-        <v>909</v>
       </c>
       <c r="D354">
         <v>4</v>
@@ -15976,53 +16170,53 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B355" t="s">
         <v>532</v>
       </c>
       <c r="C355" t="s">
+        <v>890</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355" t="s">
         <v>895</v>
       </c>
-      <c r="D355">
-        <v>1</v>
-      </c>
-      <c r="E355" t="s">
-        <v>900</v>
-      </c>
       <c r="F355" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B356" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C356" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="D356">
         <v>2</v>
       </c>
       <c r="E356" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="F356" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B357">
         <v>60</v>
       </c>
       <c r="C357" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -16030,13 +16224,13 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B358">
         <v>110</v>
       </c>
       <c r="C358" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D358">
         <v>2</v>
@@ -16044,7 +16238,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B359">
         <v>600</v>
@@ -16056,7 +16250,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F359">
         <v>60</v>
@@ -16064,7 +16258,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B360">
         <v>800</v>
@@ -16076,7 +16270,7 @@
         <v>2</v>
       </c>
       <c r="E360" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F360" s="6">
         <v>60110</v>
@@ -16084,7 +16278,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B361">
         <v>1000</v>
@@ -16096,7 +16290,7 @@
         <v>3</v>
       </c>
       <c r="E361" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F361" s="6">
         <v>60110</v>
@@ -16104,7 +16298,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B362">
         <v>1300</v>
@@ -16116,7 +16310,7 @@
         <v>4</v>
       </c>
       <c r="E362" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F362">
         <v>110</v>
@@ -16124,7 +16318,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B363">
         <v>1600</v>
@@ -16136,7 +16330,7 @@
         <v>5</v>
       </c>
       <c r="E363" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F363">
         <v>110</v>
@@ -16144,13 +16338,13 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B364" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C364" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="D364">
         <v>1</v>
@@ -16158,13 +16352,13 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B365" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C365" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="D365">
         <v>2</v>
@@ -16172,13 +16366,13 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B366" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="C366" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="D366">
         <v>1</v>
@@ -16186,13 +16380,13 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B367" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C367" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="D367">
         <v>2</v>
@@ -16200,16 +16394,104 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B368" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C368" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="D368">
         <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>964</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="D369" s="8">
+        <v>1</v>
+      </c>
+      <c r="E369" s="8"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>964</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="D370" s="8">
+        <v>2</v>
+      </c>
+      <c r="E370" s="8"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>964</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="D371" s="8">
+        <v>3</v>
+      </c>
+      <c r="E371" s="8"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>964</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="D372" s="8">
+        <v>4</v>
+      </c>
+      <c r="E372" s="8"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>965</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="D373" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>965</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="D374" s="8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C844ACDF-4406-412F-AD6F-6B5468A5ECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79BB301-78D1-4780-B634-3C87595AEDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="1032">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2976,6 +2976,162 @@
   </si>
   <si>
     <t>S40_P</t>
+  </si>
+  <si>
+    <t>T80</t>
+  </si>
+  <si>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>T150</t>
+  </si>
+  <si>
+    <t>T200</t>
+  </si>
+  <si>
+    <t>Y150</t>
+  </si>
+  <si>
+    <t>CMT T100</t>
+  </si>
+  <si>
+    <t>CMT T150</t>
+  </si>
+  <si>
+    <t>CMT T200</t>
+  </si>
+  <si>
+    <t>CMT Y150</t>
+  </si>
+  <si>
+    <t>Monobar??</t>
+  </si>
+  <si>
+    <t>CMT</t>
+  </si>
+  <si>
+    <t>Transfer Modeli</t>
+  </si>
+  <si>
+    <t>Transfer_Modeli</t>
+  </si>
+  <si>
+    <t>Eksen Adedi</t>
+  </si>
+  <si>
+    <t>Eksen_Adedi</t>
+  </si>
+  <si>
+    <t>Yardimci_Bar_Kilit_Adedi</t>
+  </si>
+  <si>
+    <t>Kumanda_Kutusu_Adedi</t>
+  </si>
+  <si>
+    <t>Tabla Opsiyonları</t>
+  </si>
+  <si>
+    <t>Tabla_Opsiyonlari</t>
+  </si>
+  <si>
+    <t>Transfer_Modeli_opts</t>
+  </si>
+  <si>
+    <t>Eksen_Adedi_opts</t>
+  </si>
+  <si>
+    <t>Otomatik_Kilit</t>
+  </si>
+  <si>
+    <t>Otomatik Kilit</t>
+  </si>
+  <si>
+    <t>Otomatik_Kilit_opts</t>
+  </si>
+  <si>
+    <t>Bar_Seti_Adedi</t>
+  </si>
+  <si>
+    <t>Bar Seti Adedi</t>
+  </si>
+  <si>
+    <t>Bar_Seti_Adedi_opts</t>
+  </si>
+  <si>
+    <t>Yardimci_Bar_Kilit_Adedi_opts</t>
+  </si>
+  <si>
+    <t>Yardımcı Bar Kilit Adedi (Manuel Klamp)</t>
+  </si>
+  <si>
+    <t>Kumanda Kutusu Adedi</t>
+  </si>
+  <si>
+    <t>Kumanda_Kutusu_Adedi_opts</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>Park_Ayaklari</t>
+  </si>
+  <si>
+    <t>Park Ayağı var mı?</t>
+  </si>
+  <si>
+    <t>Park_Ayaklari_opts</t>
+  </si>
+  <si>
+    <t>(MK</t>
+  </si>
+  <si>
+    <t>+4OKE)</t>
+  </si>
+  <si>
+    <t>80 serisi 3 eksen transfer</t>
+  </si>
+  <si>
+    <t>100 serisi 3 eksen transfer</t>
+  </si>
+  <si>
+    <t>150 serisi 3 eksen transfer</t>
+  </si>
+  <si>
+    <t>200 serisi 3 eksen transfer</t>
+  </si>
+  <si>
+    <t>150 serisi 3 eksen yandan transfer</t>
+  </si>
+  <si>
+    <t>(6 Eksen)</t>
+  </si>
+  <si>
+    <t>(10 Eksen)</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>AnaBar - OrtaBar Kilit Sistemi</t>
+  </si>
+  <si>
+    <t>Manuel Kilit</t>
+  </si>
+  <si>
+    <t>1 adet standart orta bar seti</t>
+  </si>
+  <si>
+    <t>1 adet standart, 1 adet ekstra orta bar seti</t>
+  </si>
+  <si>
+    <t>1 adet standart, 2 adet ekstra orta bar seti</t>
+  </si>
+  <si>
+    <t>1 adet standart, 3 adet ekstra orta bar seti</t>
+  </si>
+  <si>
+    <t>PA</t>
   </si>
 </sst>
 </file>
@@ -3854,10 +4010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159:E160"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7105,6 +7261,66 @@
         <v>4</v>
       </c>
     </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>39</v>
+      </c>
+      <c r="B162" t="s">
+        <v>47</v>
+      </c>
+      <c r="C162" t="s">
+        <v>990</v>
+      </c>
+      <c r="D162" t="s">
+        <v>79</v>
+      </c>
+      <c r="E162" t="s">
+        <v>90</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>39</v>
+      </c>
+      <c r="B163" t="s">
+        <v>47</v>
+      </c>
+      <c r="C163" t="s">
+        <v>990</v>
+      </c>
+      <c r="D163" t="s">
+        <v>992</v>
+      </c>
+      <c r="E163" t="s">
+        <v>991</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164" t="s">
+        <v>47</v>
+      </c>
+      <c r="C164" t="s">
+        <v>990</v>
+      </c>
+      <c r="D164" t="s">
+        <v>998</v>
+      </c>
+      <c r="E164" t="s">
+        <v>997</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+    </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>39</v>
@@ -7113,7 +7329,7 @@
         <v>47</v>
       </c>
       <c r="C170" t="s">
-        <v>48</v>
+        <v>985</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -7124,7 +7340,7 @@
         <v>47</v>
       </c>
       <c r="C171" t="s">
-        <v>48</v>
+        <v>986</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -7135,7 +7351,7 @@
         <v>47</v>
       </c>
       <c r="C172" t="s">
-        <v>48</v>
+        <v>987</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -7143,53 +7359,75 @@
         <v>39</v>
       </c>
       <c r="B173" t="s">
+        <v>47</v>
+      </c>
+      <c r="C173" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>39</v>
+      </c>
+      <c r="B179" t="s">
+        <v>47</v>
+      </c>
+      <c r="C179" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>39</v>
+      </c>
+      <c r="B180" t="s">
         <v>49</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C180" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>39</v>
-      </c>
-      <c r="B174" t="s">
-        <v>54</v>
-      </c>
-      <c r="C174" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>39</v>
-      </c>
-      <c r="B175" t="s">
-        <v>54</v>
-      </c>
-      <c r="C175" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>39</v>
-      </c>
-      <c r="B177" t="s">
-        <v>64</v>
-      </c>
-      <c r="C177" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>39</v>
+      </c>
+      <c r="B181" t="s">
+        <v>54</v>
+      </c>
+      <c r="C181" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>39</v>
+      </c>
+      <c r="B182" t="s">
+        <v>54</v>
+      </c>
+      <c r="C182" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>39</v>
+      </c>
+      <c r="B184" t="s">
+        <v>64</v>
+      </c>
+      <c r="C184" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>65</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B188" t="s">
         <v>69</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C188" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7201,10 +7439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S145"/>
+  <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144:F145"/>
+    <sheetView topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11082,6 +11320,170 @@
         <v>252</v>
       </c>
     </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>992</v>
+      </c>
+      <c r="B146" t="s">
+        <v>992</v>
+      </c>
+      <c r="C146" t="s">
+        <v>991</v>
+      </c>
+      <c r="D146" t="s">
+        <v>108</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>992</v>
+      </c>
+      <c r="B147" t="s">
+        <v>994</v>
+      </c>
+      <c r="C147" t="s">
+        <v>993</v>
+      </c>
+      <c r="D147" t="s">
+        <v>108</v>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>992</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D148" t="s">
+        <v>108</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>992</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D149" t="s">
+        <v>108</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>998</v>
+      </c>
+      <c r="B150" t="s">
+        <v>995</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D150" t="s">
+        <v>135</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K150" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>998</v>
+      </c>
+      <c r="B151" t="s">
+        <v>996</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D151" t="s">
+        <v>135</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K151" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>998</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D152" t="s">
+        <v>108</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11090,10 +11492,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F374"/>
+  <dimension ref="A1:F391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="B373" sqref="B373"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="C388" sqref="C388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16494,6 +16896,232 @@
         <v>2</v>
       </c>
     </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>999</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D375" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>999</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D376" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>999</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D377" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>999</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D378">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>999</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D379">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B380">
+        <v>6</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B381">
+        <v>10</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B382" t="s">
+        <v>177</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B385">
+        <v>2</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B386">
+        <v>3</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B387">
+        <v>4</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B390" t="s">
+        <v>116</v>
+      </c>
+      <c r="C390" t="s">
+        <v>116</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C391" t="s">
+        <v>128</v>
+      </c>
+      <c r="D391">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79BB301-78D1-4780-B634-3C87595AEDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9697949A-091C-4ADA-B062-D8F216EB4F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="1032">
   <si>
     <t>Kategori1</t>
   </si>
@@ -3528,10 +3528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3755,13 +3755,13 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>990</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3769,16 +3769,16 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3786,16 +3786,16 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3803,16 +3803,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3820,16 +3820,16 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3837,16 +3837,16 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3854,16 +3854,16 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3871,50 +3871,50 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3922,16 +3922,16 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3939,16 +3939,16 @@
         <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3956,49 +3956,15 @@
         <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4012,8 +3978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11494,7 +11460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+    <sheetView topLeftCell="A367" workbookViewId="0">
       <selection activeCell="C388" sqref="C388"/>
     </sheetView>
   </sheetViews>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9697949A-091C-4ADA-B062-D8F216EB4F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C0A13F-60BB-4861-8B36-4E368904DB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="1032">
   <si>
     <t>Kategori1</t>
   </si>
@@ -3978,7 +3978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
@@ -7407,8 +7407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S151" sqref="S151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11263,7 +11263,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>961</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>992</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>992</v>
       </c>
@@ -11328,11 +11328,20 @@
       <c r="F147" t="s">
         <v>1000</v>
       </c>
+      <c r="K147" t="s">
+        <v>247</v>
+      </c>
+      <c r="L147" t="s">
+        <v>248</v>
+      </c>
       <c r="Q147" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>992</v>
       </c>
@@ -11351,11 +11360,17 @@
       <c r="F148" t="s">
         <v>1003</v>
       </c>
+      <c r="K148" t="s">
+        <v>48</v>
+      </c>
       <c r="Q148" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>992</v>
       </c>
@@ -11378,7 +11393,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>998</v>
       </c>
@@ -11400,8 +11415,11 @@
       <c r="K150" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>998</v>
       </c>
@@ -11424,7 +11442,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>998</v>
       </c>
@@ -11461,7 +11479,7 @@
   <dimension ref="A1:F391"/>
   <sheetViews>
     <sheetView topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="C388" sqref="C388"/>
+      <selection activeCell="C391" sqref="C391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17068,7 +17086,7 @@
         <v>116</v>
       </c>
       <c r="C390" t="s">
-        <v>116</v>
+        <v>513</v>
       </c>
       <c r="D390">
         <v>1</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C0A13F-60BB-4861-8B36-4E368904DB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF481A45-E0A8-4695-ACE6-5A23C990B54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -7407,8 +7407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S151" sqref="S151"/>
+    <sheetView topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11372,7 +11372,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="B149" t="s">
         <v>1004</v>
@@ -11478,8 +11478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F391"/>
   <sheetViews>
-    <sheetView topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="C391" sqref="C391"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="B396" sqref="B396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17083,10 +17083,10 @@
         <v>1014</v>
       </c>
       <c r="B390" t="s">
+        <v>513</v>
+      </c>
+      <c r="C390" t="s">
         <v>116</v>
-      </c>
-      <c r="C390" t="s">
-        <v>513</v>
       </c>
       <c r="D390">
         <v>1</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF481A45-E0A8-4695-ACE6-5A23C990B54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24CDD25-94FA-4F8A-A16E-12334878D7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="1028">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2991,18 +2991,6 @@
   </si>
   <si>
     <t>Y150</t>
-  </si>
-  <si>
-    <t>CMT T100</t>
-  </si>
-  <si>
-    <t>CMT T150</t>
-  </si>
-  <si>
-    <t>CMT T200</t>
-  </si>
-  <si>
-    <t>CMT Y150</t>
   </si>
   <si>
     <t>Monobar??</t>
@@ -3755,7 +3743,7 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
@@ -3976,10 +3964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150:F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7235,7 +7223,7 @@
         <v>47</v>
       </c>
       <c r="C162" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D162" t="s">
         <v>79</v>
@@ -7255,13 +7243,13 @@
         <v>47</v>
       </c>
       <c r="C163" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D163" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E163" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="F163">
         <v>2</v>
@@ -7275,71 +7263,60 @@
         <v>47</v>
       </c>
       <c r="C164" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D164" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="E164" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="F164">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>39</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B175" t="s">
         <v>47</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C175" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>39</v>
       </c>
-      <c r="B171" t="s">
-        <v>47</v>
-      </c>
-      <c r="C171" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B176" t="s">
+        <v>49</v>
+      </c>
+      <c r="C176" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>39</v>
       </c>
-      <c r="B172" t="s">
-        <v>47</v>
-      </c>
-      <c r="C172" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B177" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>39</v>
       </c>
-      <c r="B173" t="s">
-        <v>47</v>
-      </c>
-      <c r="C173" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>39</v>
-      </c>
-      <c r="B179" t="s">
-        <v>47</v>
-      </c>
-      <c r="C179" t="s">
-        <v>989</v>
+      <c r="B178" t="s">
+        <v>54</v>
+      </c>
+      <c r="C178" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -7347,53 +7324,20 @@
         <v>39</v>
       </c>
       <c r="B180" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C180" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>39</v>
-      </c>
-      <c r="B181" t="s">
-        <v>54</v>
-      </c>
-      <c r="C181" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>39</v>
-      </c>
-      <c r="B182" t="s">
-        <v>54</v>
-      </c>
-      <c r="C182" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B184" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C184" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>65</v>
-      </c>
-      <c r="B188" t="s">
-        <v>69</v>
-      </c>
-      <c r="C188" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7407,8 +7351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R138" sqref="R138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11115,6 +11059,9 @@
       <c r="F138" t="s">
         <v>900</v>
       </c>
+      <c r="Q138" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -11288,13 +11235,13 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B146" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C146" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D146" t="s">
         <v>108</v>
@@ -11303,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="Q146" t="s">
         <v>252</v>
@@ -11311,13 +11258,13 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B147" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C147" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D147" t="s">
         <v>108</v>
@@ -11326,7 +11273,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="K147" t="s">
         <v>247</v>
@@ -11343,13 +11290,13 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B148" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C148" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D148" t="s">
         <v>108</v>
@@ -11358,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="K148" t="s">
         <v>48</v>
@@ -11372,13 +11319,13 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B149" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C149" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D149" t="s">
         <v>108</v>
@@ -11387,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="Q149" t="s">
         <v>252</v>
@@ -11395,13 +11342,13 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B150" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C150" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D150" t="s">
         <v>135</v>
@@ -11410,10 +11357,10 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="K150" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S150" t="b">
         <v>1</v>
@@ -11421,13 +11368,13 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B151" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C151" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D151" t="s">
         <v>135</v>
@@ -11436,21 +11383,21 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K151" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B152" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C152" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D152" t="s">
         <v>108</v>
@@ -11459,10 +11406,10 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="Q152" t="s">
         <v>252</v>
@@ -11478,8 +11425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="B396" sqref="B396"/>
+    <sheetView topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="F356" sqref="F356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16882,13 +16829,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B375" s="8" t="s">
         <v>980</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D375" s="8">
         <v>1</v>
@@ -16896,13 +16843,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>981</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D376" s="8">
         <v>2</v>
@@ -16910,13 +16857,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>982</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D377" s="8">
         <v>3</v>
@@ -16924,13 +16871,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>983</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D378">
         <v>4</v>
@@ -16938,13 +16885,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>984</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D379">
         <v>5</v>
@@ -16952,13 +16899,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B380">
         <v>6</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D380">
         <v>1</v>
@@ -16966,13 +16913,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B381">
         <v>10</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D381">
         <v>2</v>
@@ -16980,13 +16927,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B382" t="s">
         <v>177</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D382">
         <v>1</v>
@@ -16994,13 +16941,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B383" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D383">
         <v>2</v>
@@ -17008,13 +16955,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B384">
         <v>1</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D384">
         <v>1</v>
@@ -17022,13 +16969,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B385">
         <v>2</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="D385">
         <v>2</v>
@@ -17036,13 +16983,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B386">
         <v>3</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D386">
         <v>3</v>
@@ -17050,13 +16997,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B387">
         <v>4</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D387">
         <v>4</v>
@@ -17064,7 +17011,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D388">
         <v>1</v>
@@ -17072,7 +17019,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -17080,7 +17027,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B390" t="s">
         <v>513</v>
@@ -17094,10 +17041,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B391" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C391" t="s">
         <v>128</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24CDD25-94FA-4F8A-A16E-12334878D7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E6A76E-C018-4DE1-9FA7-A59F66FF2097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="1030">
   <si>
     <t>Kategori1</t>
   </si>
@@ -3120,6 +3120,12 @@
   </si>
   <si>
     <t>PA</t>
+  </si>
+  <si>
+    <t>Ø100mm hidrolik piston</t>
+  </si>
+  <si>
+    <t>Ø125mm hidrolik piston</t>
   </si>
 </sst>
 </file>
@@ -7351,7 +7357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R138" sqref="R138"/>
     </sheetView>
   </sheetViews>
@@ -11425,8 +11431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F391"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="F356" sqref="F356"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="C341" sqref="C341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16296,6 +16302,9 @@
       <c r="B339">
         <v>100</v>
       </c>
+      <c r="C339" t="s">
+        <v>1028</v>
+      </c>
       <c r="D339">
         <v>1</v>
       </c>
@@ -16307,6 +16316,9 @@
       <c r="B340">
         <v>125</v>
       </c>
+      <c r="C340" t="s">
+        <v>1029</v>
+      </c>
       <c r="D340">
         <v>2</v>
       </c>
@@ -16515,7 +16527,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F355" t="s">
         <v>754</v>
@@ -16535,7 +16547,7 @@
         <v>2</v>
       </c>
       <c r="E356" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F356" t="s">
         <v>905</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE58864A-D04D-4303-91DD-D49933DAEDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1BA813-F38A-496D-9AEE-3378B5D53F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="1046">
   <si>
     <t>Kategori1</t>
   </si>
@@ -3171,9 +3171,6 @@
   </si>
   <si>
     <t>Normal</t>
-  </si>
-  <si>
-    <t>(CK)</t>
   </si>
   <si>
     <t>Chineese Killer serisi</t>
@@ -4019,10 +4016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,10 +5678,10 @@
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
+        <v>1042</v>
       </c>
       <c r="E82" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -5701,10 +5698,10 @@
         <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>639</v>
+        <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>634</v>
+        <v>90</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -5721,10 +5718,10 @@
         <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E84" t="s">
-        <v>100</v>
+        <v>634</v>
       </c>
       <c r="F84">
         <v>3</v>
@@ -5741,10 +5738,10 @@
         <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>402</v>
+        <v>640</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F85">
         <v>4</v>
@@ -5761,10 +5758,10 @@
         <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E86" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F86">
         <v>5</v>
@@ -5781,10 +5778,10 @@
         <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F87">
         <v>6</v>
@@ -5801,10 +5798,10 @@
         <v>33</v>
       </c>
       <c r="D88" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E88" t="s">
-        <v>405</v>
+        <v>104</v>
       </c>
       <c r="F88">
         <v>7</v>
@@ -5821,10 +5818,10 @@
         <v>33</v>
       </c>
       <c r="D89" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E89" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F89">
         <v>8</v>
@@ -5841,10 +5838,10 @@
         <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E90" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F90">
         <v>9</v>
@@ -5861,10 +5858,10 @@
         <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E91" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F91">
         <v>10</v>
@@ -5881,10 +5878,10 @@
         <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E92" t="s">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="F92">
         <v>11</v>
@@ -5901,10 +5898,10 @@
         <v>33</v>
       </c>
       <c r="D93" t="s">
-        <v>88</v>
+        <v>415</v>
       </c>
       <c r="E93" t="s">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="F93">
         <v>12</v>
@@ -5921,10 +5918,10 @@
         <v>33</v>
       </c>
       <c r="D94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E94" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="F94">
         <v>13</v>
@@ -5938,16 +5935,16 @@
         <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D95" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E95" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -5961,13 +5958,13 @@
         <v>35</v>
       </c>
       <c r="D96" t="s">
-        <v>639</v>
+        <v>79</v>
       </c>
       <c r="E96" t="s">
-        <v>634</v>
+        <v>90</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -5981,13 +5978,13 @@
         <v>35</v>
       </c>
       <c r="D97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E97" t="s">
-        <v>100</v>
+        <v>634</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -6001,13 +5998,13 @@
         <v>35</v>
       </c>
       <c r="D98" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E98" t="s">
-        <v>647</v>
+        <v>100</v>
       </c>
       <c r="F98">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -6021,13 +6018,13 @@
         <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>396</v>
+        <v>646</v>
       </c>
       <c r="E99" t="s">
-        <v>93</v>
+        <v>647</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -6041,13 +6038,13 @@
         <v>35</v>
       </c>
       <c r="D100" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E100" t="s">
-        <v>405</v>
+        <v>93</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -6061,13 +6058,13 @@
         <v>35</v>
       </c>
       <c r="D101" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E101" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -6081,13 +6078,13 @@
         <v>35</v>
       </c>
       <c r="D102" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E102" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -6101,13 +6098,13 @@
         <v>35</v>
       </c>
       <c r="D103" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E103" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F103">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -6121,13 +6118,13 @@
         <v>35</v>
       </c>
       <c r="D104" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E104" t="s">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -6141,13 +6138,13 @@
         <v>35</v>
       </c>
       <c r="D105" t="s">
-        <v>88</v>
+        <v>415</v>
       </c>
       <c r="E105" t="s">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="F105">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -6161,33 +6158,33 @@
         <v>35</v>
       </c>
       <c r="D106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E106" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="F106">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D107" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E107" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -6201,13 +6198,13 @@
         <v>41</v>
       </c>
       <c r="D108" t="s">
-        <v>668</v>
+        <v>79</v>
       </c>
       <c r="E108" t="s">
-        <v>669</v>
+        <v>90</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -6221,13 +6218,13 @@
         <v>41</v>
       </c>
       <c r="D109" t="s">
-        <v>89</v>
+        <v>668</v>
       </c>
       <c r="E109" t="s">
-        <v>84</v>
+        <v>669</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -6238,16 +6235,16 @@
         <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E110" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -6261,13 +6258,13 @@
         <v>43</v>
       </c>
       <c r="D111" t="s">
-        <v>692</v>
+        <v>79</v>
       </c>
       <c r="E111" t="s">
-        <v>685</v>
+        <v>90</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -6281,13 +6278,13 @@
         <v>43</v>
       </c>
       <c r="D112" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="E112" t="s">
-        <v>714</v>
+        <v>685</v>
       </c>
       <c r="F112">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -6301,13 +6298,13 @@
         <v>43</v>
       </c>
       <c r="D113" t="s">
-        <v>690</v>
+        <v>715</v>
       </c>
       <c r="E113" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="F113">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -6315,19 +6312,19 @@
         <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C114" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D114" t="s">
-        <v>79</v>
+        <v>690</v>
       </c>
       <c r="E114" t="s">
-        <v>90</v>
+        <v>691</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -6341,13 +6338,13 @@
         <v>50</v>
       </c>
       <c r="D115" t="s">
-        <v>722</v>
+        <v>79</v>
       </c>
       <c r="E115" t="s">
-        <v>723</v>
+        <v>90</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -6361,13 +6358,13 @@
         <v>50</v>
       </c>
       <c r="D116" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E116" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -6381,13 +6378,13 @@
         <v>50</v>
       </c>
       <c r="D117" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E117" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F117">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -6401,13 +6398,13 @@
         <v>50</v>
       </c>
       <c r="D118" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E118" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="F118">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -6421,13 +6418,13 @@
         <v>50</v>
       </c>
       <c r="D119" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E119" t="s">
-        <v>93</v>
+        <v>726</v>
       </c>
       <c r="F119">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -6441,13 +6438,13 @@
         <v>50</v>
       </c>
       <c r="D120" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E120" t="s">
-        <v>740</v>
+        <v>93</v>
       </c>
       <c r="F120">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -6461,13 +6458,13 @@
         <v>50</v>
       </c>
       <c r="D121" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E121" t="s">
-        <v>101</v>
+        <v>740</v>
       </c>
       <c r="F121">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -6481,13 +6478,13 @@
         <v>50</v>
       </c>
       <c r="D122" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E122" t="s">
-        <v>741</v>
+        <v>101</v>
       </c>
       <c r="F122">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -6501,13 +6498,13 @@
         <v>50</v>
       </c>
       <c r="D123" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E123" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -6521,13 +6518,13 @@
         <v>50</v>
       </c>
       <c r="D124" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E124" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F124">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -6541,13 +6538,13 @@
         <v>50</v>
       </c>
       <c r="D125" t="s">
-        <v>821</v>
+        <v>733</v>
       </c>
       <c r="E125" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="F125">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -6561,13 +6558,13 @@
         <v>50</v>
       </c>
       <c r="D126" t="s">
-        <v>735</v>
+        <v>821</v>
       </c>
       <c r="E126" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="F126">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -6581,13 +6578,13 @@
         <v>50</v>
       </c>
       <c r="D127" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E127" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F127">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -6601,13 +6598,13 @@
         <v>50</v>
       </c>
       <c r="D128" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E128" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F128">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -6621,13 +6618,13 @@
         <v>50</v>
       </c>
       <c r="D129" t="s">
-        <v>89</v>
+        <v>737</v>
       </c>
       <c r="E129" t="s">
-        <v>84</v>
+        <v>746</v>
       </c>
       <c r="F129">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -6635,19 +6632,19 @@
         <v>39</v>
       </c>
       <c r="B130" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C130" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D130" t="s">
-        <v>815</v>
+        <v>89</v>
       </c>
       <c r="E130" t="s">
-        <v>827</v>
+        <v>84</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -6661,13 +6658,13 @@
         <v>60</v>
       </c>
       <c r="D131" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E131" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -6681,13 +6678,13 @@
         <v>60</v>
       </c>
       <c r="D132" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E132" t="s">
-        <v>93</v>
+        <v>828</v>
       </c>
       <c r="F132">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -6701,13 +6698,13 @@
         <v>60</v>
       </c>
       <c r="D133" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E133" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F133">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -6721,13 +6718,13 @@
         <v>60</v>
       </c>
       <c r="D134" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E134" t="s">
-        <v>829</v>
+        <v>101</v>
       </c>
       <c r="F134">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -6741,13 +6738,13 @@
         <v>60</v>
       </c>
       <c r="D135" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E135" t="s">
-        <v>734</v>
+        <v>829</v>
       </c>
       <c r="F135">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -6761,13 +6758,13 @@
         <v>60</v>
       </c>
       <c r="D136" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E136" t="s">
-        <v>830</v>
+        <v>734</v>
       </c>
       <c r="F136">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -6781,13 +6778,13 @@
         <v>60</v>
       </c>
       <c r="D137" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E137" t="s">
-        <v>82</v>
+        <v>830</v>
       </c>
       <c r="F137">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -6801,13 +6798,13 @@
         <v>60</v>
       </c>
       <c r="D138" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E138" t="s">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="F138">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -6821,13 +6818,13 @@
         <v>60</v>
       </c>
       <c r="D139" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E139" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F139">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -6841,13 +6838,13 @@
         <v>60</v>
       </c>
       <c r="D140" t="s">
-        <v>89</v>
+        <v>826</v>
       </c>
       <c r="E140" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
       <c r="F140">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -6858,16 +6855,16 @@
         <v>59</v>
       </c>
       <c r="C141" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D141" t="s">
-        <v>815</v>
+        <v>89</v>
       </c>
       <c r="E141" t="s">
-        <v>827</v>
+        <v>84</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -6881,13 +6878,13 @@
         <v>61</v>
       </c>
       <c r="D142" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E142" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -6901,13 +6898,13 @@
         <v>61</v>
       </c>
       <c r="D143" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E143" t="s">
-        <v>93</v>
+        <v>828</v>
       </c>
       <c r="F143">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -6921,13 +6918,13 @@
         <v>61</v>
       </c>
       <c r="D144" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E144" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F144">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -6941,13 +6938,13 @@
         <v>61</v>
       </c>
       <c r="D145" t="s">
-        <v>872</v>
+        <v>818</v>
       </c>
       <c r="E145" t="s">
-        <v>873</v>
+        <v>101</v>
       </c>
       <c r="F145">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -6961,13 +6958,13 @@
         <v>61</v>
       </c>
       <c r="D146" t="s">
-        <v>825</v>
+        <v>872</v>
       </c>
       <c r="E146" t="s">
-        <v>412</v>
+        <v>873</v>
       </c>
       <c r="F146">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -6981,13 +6978,13 @@
         <v>61</v>
       </c>
       <c r="D147" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E147" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F147">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -7001,33 +6998,33 @@
         <v>61</v>
       </c>
       <c r="D148" t="s">
-        <v>89</v>
+        <v>826</v>
       </c>
       <c r="E148" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
       <c r="F148">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B149" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C149" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D149" t="s">
-        <v>879</v>
+        <v>89</v>
       </c>
       <c r="E149" t="s">
-        <v>881</v>
+        <v>84</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -7041,13 +7038,13 @@
         <v>67</v>
       </c>
       <c r="D150" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="E150" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -7061,13 +7058,13 @@
         <v>67</v>
       </c>
       <c r="D151" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="E151" t="s">
-        <v>93</v>
+        <v>882</v>
       </c>
       <c r="F151">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -7081,13 +7078,13 @@
         <v>67</v>
       </c>
       <c r="D152" t="s">
-        <v>89</v>
+        <v>880</v>
       </c>
       <c r="E152" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F152">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -7098,16 +7095,16 @@
         <v>66</v>
       </c>
       <c r="C153" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D153" t="s">
-        <v>892</v>
+        <v>89</v>
       </c>
       <c r="E153" t="s">
-        <v>896</v>
+        <v>84</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -7121,13 +7118,13 @@
         <v>68</v>
       </c>
       <c r="D154" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E154" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
       <c r="F154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -7141,13 +7138,13 @@
         <v>68</v>
       </c>
       <c r="D155" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="E155" t="s">
-        <v>93</v>
+        <v>882</v>
       </c>
       <c r="F155">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -7161,13 +7158,13 @@
         <v>68</v>
       </c>
       <c r="D156" t="s">
-        <v>89</v>
+        <v>880</v>
       </c>
       <c r="E156" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F156">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -7175,19 +7172,19 @@
         <v>65</v>
       </c>
       <c r="B157" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C157" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D157" t="s">
-        <v>904</v>
+        <v>89</v>
       </c>
       <c r="E157" t="s">
-        <v>906</v>
+        <v>84</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -7201,13 +7198,13 @@
         <v>70</v>
       </c>
       <c r="D158" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E158" t="s">
-        <v>93</v>
+        <v>906</v>
       </c>
       <c r="F158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -7221,13 +7218,13 @@
         <v>70</v>
       </c>
       <c r="D159" t="s">
-        <v>89</v>
+        <v>905</v>
       </c>
       <c r="E159" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -7235,36 +7232,36 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C160" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D160" t="s">
-        <v>913</v>
+        <v>89</v>
       </c>
       <c r="E160" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B161" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C161" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D161" t="s">
-        <v>79</v>
+        <v>913</v>
       </c>
       <c r="E161" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -7281,13 +7278,13 @@
         <v>45</v>
       </c>
       <c r="D162" t="s">
-        <v>958</v>
+        <v>79</v>
       </c>
       <c r="E162" t="s">
-        <v>960</v>
+        <v>90</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -7301,13 +7298,13 @@
         <v>45</v>
       </c>
       <c r="D163" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E163" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F163">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -7321,13 +7318,13 @@
         <v>45</v>
       </c>
       <c r="D164" t="s">
-        <v>89</v>
+        <v>959</v>
       </c>
       <c r="E164" t="s">
-        <v>84</v>
+        <v>961</v>
       </c>
       <c r="F164">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -7335,19 +7332,19 @@
         <v>39</v>
       </c>
       <c r="B165" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C165" t="s">
-        <v>984</v>
+        <v>45</v>
       </c>
       <c r="D165" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E165" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -7361,13 +7358,13 @@
         <v>984</v>
       </c>
       <c r="D166" t="s">
-        <v>986</v>
+        <v>79</v>
       </c>
       <c r="E166" t="s">
-        <v>985</v>
+        <v>90</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -7381,24 +7378,33 @@
         <v>984</v>
       </c>
       <c r="D167" t="s">
+        <v>986</v>
+      </c>
+      <c r="E167" t="s">
+        <v>985</v>
+      </c>
+      <c r="F167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>39</v>
+      </c>
+      <c r="B168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C168" t="s">
+        <v>984</v>
+      </c>
+      <c r="D168" t="s">
         <v>992</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E168" t="s">
         <v>991</v>
       </c>
-      <c r="F167">
+      <c r="F168">
         <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>39</v>
-      </c>
-      <c r="B178" t="s">
-        <v>47</v>
-      </c>
-      <c r="C178" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -7406,10 +7412,10 @@
         <v>39</v>
       </c>
       <c r="B179" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C179" t="s">
-        <v>52</v>
+        <v>983</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -7417,10 +7423,10 @@
         <v>39</v>
       </c>
       <c r="B180" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C180" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -7431,28 +7437,39 @@
         <v>54</v>
       </c>
       <c r="C181" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>39</v>
+      </c>
+      <c r="B182" t="s">
+        <v>54</v>
+      </c>
+      <c r="C182" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>39</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>64</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C184" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>65</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>69</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C188" t="s">
         <v>71</v>
       </c>
     </row>
@@ -11639,8 +11656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="C399" sqref="C399"/>
+    <sheetView topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="B398" sqref="B398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17366,10 +17383,10 @@
         <v>1043</v>
       </c>
       <c r="B399" t="s">
+        <v>794</v>
+      </c>
+      <c r="C399" t="s">
         <v>1045</v>
-      </c>
-      <c r="C399" t="s">
-        <v>1046</v>
       </c>
       <c r="D399">
         <v>2</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1BA813-F38A-496D-9AEE-3378B5D53F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95509AB3-08FD-4752-B6B7-76E4E3A5BA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="1058">
   <si>
     <t>Kategori1</t>
   </si>
@@ -3152,12 +3152,6 @@
     <t>Tambur_CMCH_ic_cap_harici_opts</t>
   </si>
   <si>
-    <t>480-520 mm</t>
-  </si>
-  <si>
-    <t>480-620 mm</t>
-  </si>
-  <si>
     <t>(480-520 mm iç çap)</t>
   </si>
   <si>
@@ -3174,6 +3168,48 @@
   </si>
   <si>
     <t>Chineese Killer serisi</t>
+  </si>
+  <si>
+    <t>480-620</t>
+  </si>
+  <si>
+    <t>480-520</t>
+  </si>
+  <si>
+    <t>Tambur_Tırnak_Tipi</t>
+  </si>
+  <si>
+    <t>Tambur Tırnak Tipi</t>
+  </si>
+  <si>
+    <t>Tambur_Tırnak_Tipi_opts</t>
+  </si>
+  <si>
+    <t>On_Destek</t>
+  </si>
+  <si>
+    <t>Ön Destek var mı?</t>
+  </si>
+  <si>
+    <t>On_Destek_opts</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Açıcı Tırnak</t>
+  </si>
+  <si>
+    <t>Tam Dolu Tambur</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>Ön Destek var</t>
   </si>
 </sst>
 </file>
@@ -4018,8 +4054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4672,7 +4708,7 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E32" t="s">
         <v>98</v>
@@ -5112,7 +5148,7 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E54" t="s">
         <v>98</v>
@@ -5418,7 +5454,7 @@
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E69" t="s">
         <v>98</v>
@@ -5678,7 +5714,7 @@
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E82" t="s">
         <v>98</v>
@@ -7481,10 +7517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S155"/>
+  <dimension ref="A1:S157"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8929,13 +8965,13 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s">
-        <v>460</v>
+        <v>1046</v>
       </c>
       <c r="C52" t="s">
-        <v>458</v>
+        <v>1047</v>
       </c>
       <c r="D52" t="s">
         <v>108</v>
@@ -8944,21 +8980,27 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>459</v>
+        <v>1048</v>
+      </c>
+      <c r="K52" t="s">
+        <v>48</v>
       </c>
       <c r="Q52" t="s">
         <v>252</v>
       </c>
+      <c r="S52" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s">
-        <v>398</v>
+        <v>1049</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>1050</v>
       </c>
       <c r="D53" t="s">
         <v>108</v>
@@ -8967,19 +9009,16 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>455</v>
-      </c>
-      <c r="N53" t="s">
-        <v>460</v>
-      </c>
-      <c r="O53" t="s">
-        <v>510</v>
+        <v>1051</v>
+      </c>
+      <c r="K53" t="s">
+        <v>48</v>
       </c>
       <c r="Q53" t="s">
         <v>252</v>
       </c>
-      <c r="R53" t="s">
-        <v>383</v>
+      <c r="S53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -8987,10 +9026,10 @@
         <v>398</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>460</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>458</v>
       </c>
       <c r="D54" t="s">
         <v>108</v>
@@ -8999,19 +9038,10 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>158</v>
-      </c>
-      <c r="N54" t="s">
-        <v>460</v>
-      </c>
-      <c r="O54" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="Q54" t="s">
         <v>252</v>
-      </c>
-      <c r="R54" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
@@ -9019,10 +9049,10 @@
         <v>398</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>398</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
         <v>108</v>
@@ -9031,16 +9061,13 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>159</v>
-      </c>
-      <c r="K55" t="s">
-        <v>48</v>
+        <v>455</v>
       </c>
       <c r="N55" t="s">
         <v>460</v>
       </c>
       <c r="O55" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q55" t="s">
         <v>252</v>
@@ -9048,19 +9075,16 @@
       <c r="R55" t="s">
         <v>383</v>
       </c>
-      <c r="S55" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B56" t="s">
-        <v>399</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="D56" t="s">
         <v>108</v>
@@ -9069,21 +9093,30 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>478</v>
+        <v>158</v>
+      </c>
+      <c r="N56" t="s">
+        <v>460</v>
+      </c>
+      <c r="O56" t="s">
+        <v>510</v>
       </c>
       <c r="Q56" t="s">
         <v>252</v>
       </c>
+      <c r="R56" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s">
-        <v>400</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s">
-        <v>485</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
         <v>108</v>
@@ -9092,21 +9125,36 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>483</v>
+        <v>159</v>
+      </c>
+      <c r="K57" t="s">
+        <v>48</v>
+      </c>
+      <c r="N57" t="s">
+        <v>460</v>
+      </c>
+      <c r="O57" t="s">
+        <v>512</v>
       </c>
       <c r="Q57" t="s">
         <v>252</v>
       </c>
+      <c r="R57" t="s">
+        <v>383</v>
+      </c>
+      <c r="S57" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s">
-        <v>484</v>
+        <v>399</v>
       </c>
       <c r="C58" t="s">
-        <v>486</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
         <v>108</v>
@@ -9115,22 +9163,10 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>487</v>
-      </c>
-      <c r="N58" t="s">
-        <v>400</v>
-      </c>
-      <c r="O58" t="s">
-        <v>128</v>
+        <v>478</v>
       </c>
       <c r="Q58" t="s">
         <v>252</v>
-      </c>
-      <c r="R58" t="s">
-        <v>383</v>
-      </c>
-      <c r="S58" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -9138,10 +9174,10 @@
         <v>400</v>
       </c>
       <c r="B59" t="s">
-        <v>488</v>
+        <v>400</v>
       </c>
       <c r="C59" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D59" t="s">
         <v>108</v>
@@ -9150,22 +9186,10 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>490</v>
-      </c>
-      <c r="N59" t="s">
-        <v>400</v>
-      </c>
-      <c r="O59" t="s">
-        <v>128</v>
+        <v>483</v>
       </c>
       <c r="Q59" t="s">
         <v>252</v>
-      </c>
-      <c r="R59" t="s">
-        <v>383</v>
-      </c>
-      <c r="S59" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -9173,10 +9197,10 @@
         <v>400</v>
       </c>
       <c r="B60" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C60" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D60" t="s">
         <v>108</v>
@@ -9185,7 +9209,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N60" t="s">
         <v>400</v>
@@ -9208,10 +9232,10 @@
         <v>400</v>
       </c>
       <c r="B61" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C61" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D61" t="s">
         <v>108</v>
@@ -9220,13 +9244,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>501</v>
-      </c>
-      <c r="K61" t="s">
-        <v>247</v>
-      </c>
-      <c r="L61" t="s">
-        <v>248</v>
+        <v>490</v>
       </c>
       <c r="N61" t="s">
         <v>400</v>
@@ -9249,31 +9267,28 @@
         <v>400</v>
       </c>
       <c r="B62" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="C62" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>508</v>
-      </c>
-      <c r="K62" t="s">
-        <v>247</v>
-      </c>
-      <c r="L62" t="s">
-        <v>248</v>
+        <v>493</v>
       </c>
       <c r="N62" t="s">
-        <v>499</v>
+        <v>400</v>
       </c>
       <c r="O62" t="s">
-        <v>139</v>
+        <v>128</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>252</v>
       </c>
       <c r="R62" t="s">
         <v>383</v>
@@ -9284,13 +9299,13 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D63" t="s">
         <v>108</v>
@@ -9299,33 +9314,63 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>519</v>
+        <v>501</v>
+      </c>
+      <c r="K63" t="s">
+        <v>247</v>
+      </c>
+      <c r="L63" t="s">
+        <v>248</v>
+      </c>
+      <c r="N63" t="s">
+        <v>400</v>
+      </c>
+      <c r="O63" t="s">
+        <v>128</v>
       </c>
       <c r="Q63" t="s">
         <v>252</v>
       </c>
+      <c r="R63" t="s">
+        <v>383</v>
+      </c>
+      <c r="S63" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B64" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C64" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>253</v>
+        <v>508</v>
+      </c>
+      <c r="K64" t="s">
+        <v>247</v>
+      </c>
+      <c r="L64" t="s">
+        <v>248</v>
+      </c>
+      <c r="N64" t="s">
+        <v>499</v>
+      </c>
+      <c r="O64" t="s">
+        <v>139</v>
+      </c>
+      <c r="R64" t="s">
+        <v>383</v>
       </c>
       <c r="S64" t="b">
         <v>1</v>
@@ -9336,10 +9381,10 @@
         <v>401</v>
       </c>
       <c r="B65" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C65" t="s">
-        <v>524</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
         <v>108</v>
@@ -9348,47 +9393,47 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="Q65" t="s">
         <v>252</v>
       </c>
-      <c r="S65" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B66" t="s">
-        <v>402</v>
+        <v>520</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>521</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="Q66" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="S66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B67" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="C67" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="D67" t="s">
         <v>108</v>
@@ -9397,19 +9442,10 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>549</v>
-      </c>
-      <c r="N67" t="s">
-        <v>402</v>
-      </c>
-      <c r="O67" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="Q67" t="s">
         <v>252</v>
-      </c>
-      <c r="R67" t="s">
-        <v>383</v>
       </c>
       <c r="S67" t="b">
         <v>1</v>
@@ -9420,31 +9456,22 @@
         <v>402</v>
       </c>
       <c r="B68" t="s">
-        <v>567</v>
+        <v>402</v>
       </c>
       <c r="C68" t="s">
-        <v>569</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>568</v>
-      </c>
-      <c r="N68" t="s">
-        <v>545</v>
-      </c>
-      <c r="O68" t="s">
-        <v>139</v>
-      </c>
-      <c r="R68" t="s">
-        <v>383</v>
-      </c>
-      <c r="S68" t="b">
-        <v>1</v>
+        <v>544</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -9452,10 +9479,10 @@
         <v>402</v>
       </c>
       <c r="B69" t="s">
-        <v>626</v>
+        <v>545</v>
       </c>
       <c r="C69" t="s">
-        <v>628</v>
+        <v>547</v>
       </c>
       <c r="D69" t="s">
         <v>108</v>
@@ -9464,10 +9491,22 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>630</v>
+        <v>549</v>
+      </c>
+      <c r="N69" t="s">
+        <v>402</v>
+      </c>
+      <c r="O69" t="s">
+        <v>551</v>
       </c>
       <c r="Q69" t="s">
         <v>252</v>
+      </c>
+      <c r="R69" t="s">
+        <v>383</v>
+      </c>
+      <c r="S69" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -9475,31 +9514,31 @@
         <v>402</v>
       </c>
       <c r="B70" t="s">
-        <v>627</v>
+        <v>567</v>
       </c>
       <c r="C70" t="s">
-        <v>629</v>
+        <v>569</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>631</v>
+        <v>568</v>
       </c>
       <c r="N70" t="s">
-        <v>626</v>
+        <v>545</v>
       </c>
       <c r="O70" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="R70" t="s">
         <v>383</v>
+      </c>
+      <c r="S70" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -9507,10 +9546,10 @@
         <v>402</v>
       </c>
       <c r="B71" t="s">
-        <v>546</v>
+        <v>626</v>
       </c>
       <c r="C71" t="s">
-        <v>548</v>
+        <v>628</v>
       </c>
       <c r="D71" t="s">
         <v>108</v>
@@ -9519,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="Q71" t="s">
         <v>252</v>
@@ -9527,39 +9566,45 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B72" t="s">
-        <v>403</v>
+        <v>627</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>629</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>580</v>
-      </c>
-      <c r="K72" t="s">
-        <v>345</v>
+        <v>631</v>
+      </c>
+      <c r="N72" t="s">
+        <v>626</v>
+      </c>
+      <c r="O72" t="s">
+        <v>128</v>
       </c>
       <c r="Q72" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="R72" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B73" t="s">
-        <v>404</v>
+        <v>546</v>
       </c>
       <c r="C73" t="s">
-        <v>405</v>
+        <v>548</v>
       </c>
       <c r="D73" t="s">
         <v>108</v>
@@ -9568,7 +9613,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="Q73" t="s">
         <v>252</v>
@@ -9576,13 +9621,13 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B74" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C74" t="s">
-        <v>407</v>
+        <v>104</v>
       </c>
       <c r="D74" t="s">
         <v>108</v>
@@ -9591,7 +9636,10 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>583</v>
+        <v>580</v>
+      </c>
+      <c r="K74" t="s">
+        <v>345</v>
       </c>
       <c r="Q74" t="s">
         <v>252</v>
@@ -9599,13 +9647,13 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B75" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C75" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D75" t="s">
         <v>108</v>
@@ -9614,7 +9662,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="Q75" t="s">
         <v>252</v>
@@ -9622,13 +9670,13 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B76" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C76" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D76" t="s">
         <v>108</v>
@@ -9637,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="Q76" t="s">
         <v>252</v>
@@ -9645,13 +9693,13 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B77" t="s">
-        <v>612</v>
+        <v>408</v>
       </c>
       <c r="C77" t="s">
-        <v>613</v>
+        <v>408</v>
       </c>
       <c r="D77" t="s">
         <v>108</v>
@@ -9660,28 +9708,10 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>614</v>
-      </c>
-      <c r="K77" t="s">
-        <v>247</v>
-      </c>
-      <c r="L77" t="s">
-        <v>248</v>
-      </c>
-      <c r="N77" t="s">
-        <v>411</v>
-      </c>
-      <c r="O77" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="Q77" t="s">
         <v>252</v>
-      </c>
-      <c r="R77" t="s">
-        <v>383</v>
-      </c>
-      <c r="S77" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -9689,19 +9719,22 @@
         <v>411</v>
       </c>
       <c r="B78" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C78" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D78" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>616</v>
+        <v>605</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
@@ -9709,10 +9742,10 @@
         <v>411</v>
       </c>
       <c r="B79" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C79" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D79" t="s">
         <v>108</v>
@@ -9721,7 +9754,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="K79" t="s">
         <v>247</v>
@@ -9733,7 +9766,7 @@
         <v>411</v>
       </c>
       <c r="O79" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="Q79" t="s">
         <v>252</v>
@@ -9750,22 +9783,19 @@
         <v>411</v>
       </c>
       <c r="B80" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C80" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>252</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -9773,10 +9803,10 @@
         <v>411</v>
       </c>
       <c r="B81" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="C81" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="D81" t="s">
         <v>108</v>
@@ -9785,21 +9815,39 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>597</v>
+        <v>619</v>
+      </c>
+      <c r="K81" t="s">
+        <v>247</v>
+      </c>
+      <c r="L81" t="s">
+        <v>248</v>
+      </c>
+      <c r="N81" t="s">
+        <v>411</v>
+      </c>
+      <c r="O81" t="s">
+        <v>620</v>
       </c>
       <c r="Q81" t="s">
         <v>252</v>
       </c>
+      <c r="R81" t="s">
+        <v>383</v>
+      </c>
+      <c r="S81" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B82" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="D82" t="s">
         <v>108</v>
@@ -9808,7 +9856,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="Q82" t="s">
         <v>252</v>
@@ -9816,13 +9864,13 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>637</v>
+        <v>411</v>
       </c>
       <c r="B83" t="s">
-        <v>637</v>
+        <v>596</v>
       </c>
       <c r="C83" t="s">
-        <v>634</v>
+        <v>595</v>
       </c>
       <c r="D83" t="s">
         <v>108</v>
@@ -9831,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>638</v>
+        <v>597</v>
       </c>
       <c r="Q83" t="s">
         <v>252</v>
@@ -9839,13 +9887,13 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>635</v>
+        <v>415</v>
       </c>
       <c r="B84" t="s">
-        <v>635</v>
+        <v>415</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
         <v>108</v>
@@ -9854,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="Q84" t="s">
         <v>252</v>
@@ -9862,31 +9910,25 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B85" t="s">
-        <v>388</v>
+        <v>637</v>
       </c>
       <c r="C85" t="s">
-        <v>389</v>
+        <v>634</v>
       </c>
       <c r="D85" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>390</v>
-      </c>
-      <c r="N85" t="s">
-        <v>635</v>
-      </c>
-      <c r="O85" t="s">
-        <v>139</v>
-      </c>
-      <c r="R85" t="s">
-        <v>383</v>
+        <v>638</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
@@ -9894,85 +9936,91 @@
         <v>635</v>
       </c>
       <c r="B86" t="s">
-        <v>311</v>
+        <v>635</v>
       </c>
       <c r="C86" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="D86" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>312</v>
-      </c>
-      <c r="K86" t="s">
-        <v>247</v>
-      </c>
-      <c r="L86" t="s">
-        <v>248</v>
-      </c>
-      <c r="S86" t="b">
-        <v>1</v>
+        <v>636</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B87" t="s">
-        <v>639</v>
+        <v>388</v>
       </c>
       <c r="C87" t="s">
-        <v>634</v>
+        <v>389</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>252</v>
+        <v>390</v>
+      </c>
+      <c r="N87" t="s">
+        <v>635</v>
+      </c>
+      <c r="O87" t="s">
+        <v>139</v>
+      </c>
+      <c r="R87" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B88" t="s">
-        <v>640</v>
+        <v>311</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>252</v>
+        <v>312</v>
+      </c>
+      <c r="K88" t="s">
+        <v>247</v>
+      </c>
+      <c r="L88" t="s">
+        <v>248</v>
+      </c>
+      <c r="S88" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B89" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C89" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="D89" t="s">
         <v>108</v>
@@ -9981,7 +10029,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="Q89" t="s">
         <v>252</v>
@@ -9989,13 +10037,13 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
       <c r="B90" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
       <c r="C90" t="s">
-        <v>667</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
         <v>108</v>
@@ -10004,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="Q90" t="s">
         <v>252</v>
@@ -10012,13 +10060,13 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="B91" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="C91" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="D91" t="s">
         <v>108</v>
@@ -10027,16 +10075,10 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>674</v>
-      </c>
-      <c r="K91" t="s">
-        <v>48</v>
+        <v>648</v>
       </c>
       <c r="Q91" t="s">
         <v>252</v>
-      </c>
-      <c r="S91" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
@@ -10044,10 +10086,10 @@
         <v>668</v>
       </c>
       <c r="B92" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C92" t="s">
-        <v>957</v>
+        <v>667</v>
       </c>
       <c r="D92" t="s">
         <v>108</v>
@@ -10056,27 +10098,21 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>675</v>
-      </c>
-      <c r="K92" t="s">
-        <v>48</v>
+        <v>673</v>
       </c>
       <c r="Q92" t="s">
         <v>252</v>
       </c>
-      <c r="S92" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="B93" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="C93" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="D93" t="s">
         <v>108</v>
@@ -10085,21 +10121,27 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>693</v>
+        <v>674</v>
+      </c>
+      <c r="K93" t="s">
+        <v>48</v>
       </c>
       <c r="Q93" t="s">
         <v>252</v>
       </c>
+      <c r="S93" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="B94" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="C94" t="s">
-        <v>687</v>
+        <v>957</v>
       </c>
       <c r="D94" t="s">
         <v>108</v>
@@ -10108,10 +10150,16 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>694</v>
+        <v>675</v>
+      </c>
+      <c r="K94" t="s">
+        <v>48</v>
       </c>
       <c r="Q94" t="s">
         <v>252</v>
+      </c>
+      <c r="S94" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -10119,10 +10167,10 @@
         <v>692</v>
       </c>
       <c r="B95" t="s">
-        <v>951</v>
+        <v>684</v>
       </c>
       <c r="C95" t="s">
-        <v>952</v>
+        <v>685</v>
       </c>
       <c r="D95" t="s">
         <v>108</v>
@@ -10131,30 +10179,21 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>948</v>
-      </c>
-      <c r="K95" t="s">
-        <v>247</v>
-      </c>
-      <c r="L95" t="s">
-        <v>248</v>
+        <v>693</v>
       </c>
       <c r="Q95" t="s">
         <v>252</v>
       </c>
-      <c r="S95" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="B96" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C96" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D96" t="s">
         <v>108</v>
@@ -10163,7 +10202,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q96" t="s">
         <v>252</v>
@@ -10171,31 +10210,31 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="B97" t="s">
-        <v>708</v>
+        <v>951</v>
       </c>
       <c r="C97" t="s">
-        <v>709</v>
+        <v>952</v>
       </c>
       <c r="D97" t="s">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>710</v>
-      </c>
-      <c r="N97" t="s">
-        <v>688</v>
-      </c>
-      <c r="O97" t="s">
-        <v>452</v>
-      </c>
-      <c r="R97" t="s">
-        <v>383</v>
+        <v>948</v>
+      </c>
+      <c r="K97" t="s">
+        <v>247</v>
+      </c>
+      <c r="L97" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>252</v>
       </c>
       <c r="S97" t="b">
         <v>1</v>
@@ -10206,10 +10245,10 @@
         <v>715</v>
       </c>
       <c r="B98" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="C98" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="D98" t="s">
         <v>108</v>
@@ -10218,53 +10257,53 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>716</v>
-      </c>
-      <c r="K98" t="s">
-        <v>247</v>
-      </c>
-      <c r="L98" t="s">
-        <v>248</v>
+        <v>695</v>
       </c>
       <c r="Q98" t="s">
         <v>252</v>
       </c>
-      <c r="S98" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>690</v>
+        <v>715</v>
       </c>
       <c r="B99" t="s">
-        <v>942</v>
+        <v>708</v>
       </c>
       <c r="C99" t="s">
-        <v>944</v>
+        <v>709</v>
       </c>
       <c r="D99" t="s">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>938</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>252</v>
+        <v>710</v>
+      </c>
+      <c r="N99" t="s">
+        <v>688</v>
+      </c>
+      <c r="O99" t="s">
+        <v>452</v>
+      </c>
+      <c r="R99" t="s">
+        <v>383</v>
+      </c>
+      <c r="S99" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>690</v>
+        <v>715</v>
       </c>
       <c r="B100" t="s">
-        <v>943</v>
+        <v>713</v>
       </c>
       <c r="C100" t="s">
-        <v>945</v>
+        <v>714</v>
       </c>
       <c r="D100" t="s">
         <v>108</v>
@@ -10273,10 +10312,19 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>939</v>
+        <v>716</v>
+      </c>
+      <c r="K100" t="s">
+        <v>247</v>
+      </c>
+      <c r="L100" t="s">
+        <v>248</v>
       </c>
       <c r="Q100" t="s">
         <v>252</v>
+      </c>
+      <c r="S100" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
@@ -10284,10 +10332,10 @@
         <v>690</v>
       </c>
       <c r="B101" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C101" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D101" t="s">
         <v>108</v>
@@ -10296,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="Q101" t="s">
         <v>252</v>
@@ -10304,13 +10352,13 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>722</v>
+        <v>690</v>
       </c>
       <c r="B102" t="s">
-        <v>722</v>
+        <v>943</v>
       </c>
       <c r="C102" t="s">
-        <v>723</v>
+        <v>945</v>
       </c>
       <c r="D102" t="s">
         <v>108</v>
@@ -10319,7 +10367,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>748</v>
+        <v>939</v>
       </c>
       <c r="Q102" t="s">
         <v>252</v>
@@ -10327,13 +10375,13 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>724</v>
+        <v>690</v>
       </c>
       <c r="B103" t="s">
-        <v>724</v>
+        <v>947</v>
       </c>
       <c r="C103" t="s">
-        <v>738</v>
+        <v>946</v>
       </c>
       <c r="D103" t="s">
         <v>108</v>
@@ -10342,7 +10390,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>753</v>
+        <v>941</v>
       </c>
       <c r="Q103" t="s">
         <v>252</v>
@@ -10350,13 +10398,13 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B104" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C104" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="D104" t="s">
         <v>108</v>
@@ -10365,7 +10413,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="Q104" t="s">
         <v>252</v>
@@ -10373,13 +10421,13 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B105" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C105" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="D105" t="s">
         <v>108</v>
@@ -10388,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="Q105" t="s">
         <v>252</v>
@@ -10396,128 +10444,125 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B106" t="s">
-        <v>773</v>
+        <v>725</v>
       </c>
       <c r="C106" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="D106" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>777</v>
-      </c>
-      <c r="L106" t="s">
-        <v>814</v>
+        <v>760</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B107" t="s">
-        <v>774</v>
+        <v>726</v>
       </c>
       <c r="C107" t="s">
-        <v>776</v>
+        <v>726</v>
       </c>
       <c r="D107" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>778</v>
+        <v>761</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B108" t="s">
-        <v>728</v>
+        <v>773</v>
       </c>
       <c r="C108" t="s">
-        <v>740</v>
+        <v>775</v>
       </c>
       <c r="D108" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>762</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>252</v>
+        <v>777</v>
+      </c>
+      <c r="L108" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B109" t="s">
-        <v>730</v>
+        <v>774</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>776</v>
       </c>
       <c r="D109" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>763</v>
-      </c>
-      <c r="K109" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>252</v>
+        <v>778</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B110" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C110" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="D110" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>764</v>
-      </c>
-      <c r="L110" t="s">
-        <v>785</v>
+        <v>762</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B111" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C111" t="s">
-        <v>741</v>
+        <v>104</v>
       </c>
       <c r="D111" t="s">
         <v>108</v>
@@ -10526,7 +10571,10 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>765</v>
+        <v>763</v>
+      </c>
+      <c r="K111" t="s">
+        <v>345</v>
       </c>
       <c r="Q111" t="s">
         <v>252</v>
@@ -10534,36 +10582,36 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B112" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C112" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="D112" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>252</v>
+        <v>764</v>
+      </c>
+      <c r="L112" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B113" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C113" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D113" t="s">
         <v>108</v>
@@ -10572,30 +10620,21 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>767</v>
-      </c>
-      <c r="N113" t="s">
-        <v>724</v>
-      </c>
-      <c r="O113" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="Q113" t="s">
         <v>252</v>
       </c>
-      <c r="R113" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>821</v>
+        <v>732</v>
       </c>
       <c r="B114" t="s">
-        <v>821</v>
+        <v>732</v>
       </c>
       <c r="C114" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="D114" t="s">
         <v>108</v>
@@ -10604,7 +10643,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>822</v>
+        <v>766</v>
       </c>
       <c r="Q114" t="s">
         <v>252</v>
@@ -10612,13 +10651,13 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B115" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C115" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D115" t="s">
         <v>108</v>
@@ -10627,21 +10666,30 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>768</v>
+        <v>767</v>
+      </c>
+      <c r="N115" t="s">
+        <v>724</v>
+      </c>
+      <c r="O115" t="s">
+        <v>756</v>
       </c>
       <c r="Q115" t="s">
         <v>252</v>
       </c>
+      <c r="R115" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>736</v>
+        <v>821</v>
       </c>
       <c r="B116" t="s">
-        <v>736</v>
+        <v>821</v>
       </c>
       <c r="C116" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="D116" t="s">
         <v>108</v>
@@ -10650,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>769</v>
+        <v>822</v>
       </c>
       <c r="Q116" t="s">
         <v>252</v>
@@ -10658,13 +10706,13 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B117" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C117" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D117" t="s">
         <v>108</v>
@@ -10673,7 +10721,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="Q117" t="s">
         <v>252</v>
@@ -10681,13 +10729,13 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>815</v>
+        <v>736</v>
       </c>
       <c r="B118" t="s">
-        <v>815</v>
+        <v>736</v>
       </c>
       <c r="C118" t="s">
-        <v>827</v>
+        <v>745</v>
       </c>
       <c r="D118" t="s">
         <v>108</v>
@@ -10696,7 +10744,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>831</v>
+        <v>769</v>
       </c>
       <c r="Q118" t="s">
         <v>252</v>
@@ -10704,13 +10752,13 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>816</v>
+        <v>737</v>
       </c>
       <c r="B119" t="s">
-        <v>816</v>
+        <v>737</v>
       </c>
       <c r="C119" t="s">
-        <v>828</v>
+        <v>746</v>
       </c>
       <c r="D119" t="s">
         <v>108</v>
@@ -10719,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>836</v>
+        <v>770</v>
       </c>
       <c r="Q119" t="s">
         <v>252</v>
@@ -10727,33 +10775,36 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B120" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C120" t="s">
-        <v>93</v>
+        <v>827</v>
       </c>
       <c r="D120" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>843</v>
+        <v>831</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B121" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C121" t="s">
-        <v>101</v>
+        <v>828</v>
       </c>
       <c r="D121" t="s">
         <v>108</v>
@@ -10762,53 +10813,41 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>844</v>
-      </c>
-      <c r="N121" t="s">
-        <v>815</v>
-      </c>
-      <c r="O121" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="Q121" t="s">
         <v>252</v>
       </c>
-      <c r="R121" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B122" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C122" t="s">
-        <v>829</v>
+        <v>93</v>
       </c>
       <c r="D122" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>845</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>252</v>
+        <v>843</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B123" t="s">
-        <v>846</v>
+        <v>818</v>
       </c>
       <c r="C123" t="s">
-        <v>847</v>
+        <v>101</v>
       </c>
       <c r="D123" t="s">
         <v>108</v>
@@ -10817,13 +10856,13 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="N123" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="O123" t="s">
-        <v>128</v>
+        <v>833</v>
       </c>
       <c r="Q123" t="s">
         <v>252</v>
@@ -10834,13 +10873,13 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B124" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C124" t="s">
-        <v>734</v>
+        <v>829</v>
       </c>
       <c r="D124" t="s">
         <v>108</v>
@@ -10849,7 +10888,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="Q124" t="s">
         <v>252</v>
@@ -10857,13 +10896,13 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B125" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="C125" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="D125" t="s">
         <v>108</v>
@@ -10872,10 +10911,10 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="N125" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="O125" t="s">
         <v>128</v>
@@ -10892,10 +10931,10 @@
         <v>820</v>
       </c>
       <c r="B126" t="s">
-        <v>857</v>
+        <v>820</v>
       </c>
       <c r="C126" t="s">
-        <v>856</v>
+        <v>734</v>
       </c>
       <c r="D126" t="s">
         <v>108</v>
@@ -10904,30 +10943,21 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>858</v>
-      </c>
-      <c r="N126" t="s">
-        <v>820</v>
-      </c>
-      <c r="O126" t="s">
-        <v>128</v>
+        <v>853</v>
       </c>
       <c r="Q126" t="s">
         <v>252</v>
       </c>
-      <c r="R126" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B127" t="s">
-        <v>823</v>
+        <v>854</v>
       </c>
       <c r="C127" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="D127" t="s">
         <v>108</v>
@@ -10936,21 +10966,30 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>865</v>
+        <v>859</v>
+      </c>
+      <c r="N127" t="s">
+        <v>820</v>
+      </c>
+      <c r="O127" t="s">
+        <v>128</v>
       </c>
       <c r="Q127" t="s">
         <v>252</v>
       </c>
+      <c r="R127" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B128" t="s">
-        <v>824</v>
+        <v>857</v>
       </c>
       <c r="C128" t="s">
-        <v>82</v>
+        <v>856</v>
       </c>
       <c r="D128" t="s">
         <v>108</v>
@@ -10959,21 +10998,30 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>866</v>
+        <v>858</v>
+      </c>
+      <c r="N128" t="s">
+        <v>820</v>
+      </c>
+      <c r="O128" t="s">
+        <v>128</v>
       </c>
       <c r="Q128" t="s">
         <v>252</v>
       </c>
+      <c r="R128" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B129" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C129" t="s">
-        <v>412</v>
+        <v>830</v>
       </c>
       <c r="D129" t="s">
         <v>108</v>
@@ -10982,7 +11030,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="Q129" t="s">
         <v>252</v>
@@ -10990,13 +11038,13 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B130" t="s">
-        <v>869</v>
+        <v>824</v>
       </c>
       <c r="C130" t="s">
-        <v>868</v>
+        <v>82</v>
       </c>
       <c r="D130" t="s">
         <v>108</v>
@@ -11005,50 +11053,44 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>870</v>
-      </c>
-      <c r="N130" t="s">
-        <v>825</v>
-      </c>
-      <c r="O130" t="s">
-        <v>608</v>
+        <v>866</v>
       </c>
       <c r="Q130" t="s">
         <v>252</v>
       </c>
-      <c r="R130" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B131" t="s">
-        <v>413</v>
+        <v>825</v>
       </c>
       <c r="C131" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D131" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>616</v>
+        <v>867</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B132" t="s">
-        <v>617</v>
+        <v>869</v>
       </c>
       <c r="C132" t="s">
-        <v>618</v>
+        <v>868</v>
       </c>
       <c r="D132" t="s">
         <v>108</v>
@@ -11057,53 +11099,50 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>619</v>
-      </c>
-      <c r="K132" t="s">
-        <v>247</v>
-      </c>
-      <c r="L132" t="s">
-        <v>248</v>
+        <v>870</v>
+      </c>
+      <c r="N132" t="s">
+        <v>825</v>
+      </c>
+      <c r="O132" t="s">
+        <v>608</v>
       </c>
       <c r="Q132" t="s">
         <v>252</v>
       </c>
-      <c r="S132" t="b">
-        <v>1</v>
+      <c r="R132" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>872</v>
+        <v>826</v>
       </c>
       <c r="B133" t="s">
-        <v>872</v>
+        <v>413</v>
       </c>
       <c r="C133" t="s">
-        <v>873</v>
+        <v>414</v>
       </c>
       <c r="D133" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>874</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>252</v>
+        <v>616</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>879</v>
+        <v>826</v>
       </c>
       <c r="B134" t="s">
-        <v>879</v>
+        <v>617</v>
       </c>
       <c r="C134" t="s">
-        <v>881</v>
+        <v>618</v>
       </c>
       <c r="D134" t="s">
         <v>108</v>
@@ -11112,21 +11151,30 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>883</v>
+        <v>619</v>
+      </c>
+      <c r="K134" t="s">
+        <v>247</v>
+      </c>
+      <c r="L134" t="s">
+        <v>248</v>
       </c>
       <c r="Q134" t="s">
         <v>252</v>
       </c>
+      <c r="S134" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="B135" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="C135" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="D135" t="s">
         <v>108</v>
@@ -11135,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="Q135" t="s">
         <v>252</v>
@@ -11143,13 +11191,13 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="B136" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="C136" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D136" t="s">
         <v>108</v>
@@ -11158,30 +11206,21 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>887</v>
-      </c>
-      <c r="N136" t="s">
-        <v>894</v>
-      </c>
-      <c r="O136" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="Q136" t="s">
         <v>252</v>
       </c>
-      <c r="R136" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="B137" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="C137" t="s">
-        <v>93</v>
+        <v>882</v>
       </c>
       <c r="D137" t="s">
         <v>108</v>
@@ -11190,7 +11229,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="Q137" t="s">
         <v>252</v>
@@ -11198,28 +11237,31 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="B138" t="s">
-        <v>388</v>
+        <v>885</v>
       </c>
       <c r="C138" t="s">
-        <v>389</v>
+        <v>886</v>
       </c>
       <c r="D138" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>390</v>
+        <v>887</v>
       </c>
       <c r="N138" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="O138" t="s">
-        <v>139</v>
+        <v>888</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>252</v>
       </c>
       <c r="R138" t="s">
         <v>383</v>
@@ -11227,13 +11269,13 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="B139" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="C139" t="s">
-        <v>896</v>
+        <v>93</v>
       </c>
       <c r="D139" t="s">
         <v>108</v>
@@ -11242,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="Q139" t="s">
         <v>252</v>
@@ -11250,36 +11292,42 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B140" t="s">
-        <v>893</v>
+        <v>388</v>
       </c>
       <c r="C140" t="s">
-        <v>882</v>
+        <v>389</v>
       </c>
       <c r="D140" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>898</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>252</v>
+        <v>390</v>
+      </c>
+      <c r="N140" t="s">
+        <v>880</v>
+      </c>
+      <c r="O140" t="s">
+        <v>139</v>
+      </c>
+      <c r="R140" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B141" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="C141" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="D141" t="s">
         <v>108</v>
@@ -11288,30 +11336,21 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>887</v>
-      </c>
-      <c r="N141" t="s">
-        <v>893</v>
-      </c>
-      <c r="O141" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="Q141" t="s">
         <v>252</v>
       </c>
-      <c r="R141" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B142" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="C142" t="s">
-        <v>906</v>
+        <v>882</v>
       </c>
       <c r="D142" t="s">
         <v>108</v>
@@ -11320,7 +11359,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="Q142" t="s">
         <v>252</v>
@@ -11328,13 +11367,13 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="B143" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
       <c r="C143" t="s">
-        <v>93</v>
+        <v>886</v>
       </c>
       <c r="D143" t="s">
         <v>108</v>
@@ -11343,21 +11382,30 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>908</v>
+        <v>887</v>
+      </c>
+      <c r="N143" t="s">
+        <v>893</v>
+      </c>
+      <c r="O143" t="s">
+        <v>888</v>
       </c>
       <c r="Q143" t="s">
         <v>252</v>
       </c>
+      <c r="R143" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B144" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="C144" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="D144" t="s">
         <v>108</v>
@@ -11366,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="Q144" t="s">
         <v>252</v>
@@ -11374,13 +11422,13 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="B145" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="C145" t="s">
-        <v>912</v>
+        <v>93</v>
       </c>
       <c r="D145" t="s">
         <v>108</v>
@@ -11389,7 +11437,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="Q145" t="s">
         <v>252</v>
@@ -11397,13 +11445,13 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>958</v>
+        <v>913</v>
       </c>
       <c r="B146" t="s">
-        <v>958</v>
+        <v>911</v>
       </c>
       <c r="C146" t="s">
-        <v>960</v>
+        <v>911</v>
       </c>
       <c r="D146" t="s">
         <v>108</v>
@@ -11412,7 +11460,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>962</v>
+        <v>914</v>
       </c>
       <c r="Q146" t="s">
         <v>252</v>
@@ -11420,13 +11468,13 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>959</v>
+        <v>913</v>
       </c>
       <c r="B147" t="s">
-        <v>959</v>
+        <v>912</v>
       </c>
       <c r="C147" t="s">
-        <v>961</v>
+        <v>912</v>
       </c>
       <c r="D147" t="s">
         <v>108</v>
@@ -11435,7 +11483,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>963</v>
+        <v>915</v>
       </c>
       <c r="Q147" t="s">
         <v>252</v>
@@ -11443,13 +11491,13 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>986</v>
+        <v>958</v>
       </c>
       <c r="B148" t="s">
-        <v>986</v>
+        <v>958</v>
       </c>
       <c r="C148" t="s">
-        <v>985</v>
+        <v>960</v>
       </c>
       <c r="D148" t="s">
         <v>108</v>
@@ -11458,7 +11506,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>993</v>
+        <v>962</v>
       </c>
       <c r="Q148" t="s">
         <v>252</v>
@@ -11466,13 +11514,13 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>986</v>
+        <v>959</v>
       </c>
       <c r="B149" t="s">
-        <v>988</v>
+        <v>959</v>
       </c>
       <c r="C149" t="s">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="D149" t="s">
         <v>108</v>
@@ -11481,19 +11529,10 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>994</v>
-      </c>
-      <c r="K149" t="s">
-        <v>247</v>
-      </c>
-      <c r="L149" t="s">
-        <v>248</v>
+        <v>963</v>
       </c>
       <c r="Q149" t="s">
         <v>252</v>
-      </c>
-      <c r="S149" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -11501,10 +11540,10 @@
         <v>986</v>
       </c>
       <c r="B150" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="C150" t="s">
-        <v>1019</v>
+        <v>985</v>
       </c>
       <c r="D150" t="s">
         <v>108</v>
@@ -11513,27 +11552,21 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>997</v>
-      </c>
-      <c r="K150" t="s">
-        <v>48</v>
+        <v>993</v>
       </c>
       <c r="Q150" t="s">
         <v>252</v>
       </c>
-      <c r="S150" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B151" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="C151" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="D151" t="s">
         <v>108</v>
@@ -11542,33 +11575,45 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>1000</v>
+        <v>994</v>
+      </c>
+      <c r="K151" t="s">
+        <v>247</v>
+      </c>
+      <c r="L151" t="s">
+        <v>248</v>
       </c>
       <c r="Q151" t="s">
         <v>252</v>
       </c>
+      <c r="S151" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B152" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="C152" t="s">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="D152" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="K152" t="s">
-        <v>1009</v>
+        <v>48</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>252</v>
       </c>
       <c r="S152" t="b">
         <v>1</v>
@@ -11579,22 +11624,22 @@
         <v>992</v>
       </c>
       <c r="B153" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="C153" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D153" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>1004</v>
-      </c>
-      <c r="K153" t="s">
-        <v>1005</v>
+        <v>1000</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
@@ -11602,47 +11647,96 @@
         <v>992</v>
       </c>
       <c r="B154" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="C154" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D154" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>1008</v>
-      </c>
-      <c r="L154" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>252</v>
+        <v>1001</v>
+      </c>
+      <c r="K154" t="s">
+        <v>1009</v>
+      </c>
+      <c r="S154" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1042</v>
+        <v>992</v>
       </c>
       <c r="B155" t="s">
-        <v>1042</v>
+        <v>990</v>
       </c>
       <c r="C155" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D155" t="s">
+        <v>135</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K155" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>992</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D156" t="s">
+        <v>108</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C157" t="s">
         <v>98</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D157" t="s">
         <v>108</v>
       </c>
-      <c r="E155" t="b">
-        <v>1</v>
-      </c>
-      <c r="F155" t="s">
-        <v>1043</v>
-      </c>
-      <c r="Q155" t="s">
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q157" t="s">
         <v>252</v>
       </c>
     </row>
@@ -11654,10 +11748,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F399"/>
+  <dimension ref="A1:F404"/>
   <sheetViews>
-    <sheetView topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="B398" sqref="B398"/>
+    <sheetView topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="D405" sqref="D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13677,10 +13771,10 @@
         <v>1031</v>
       </c>
       <c r="B141" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C141" t="s">
         <v>1038</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1040</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -13691,10 +13785,10 @@
         <v>1031</v>
       </c>
       <c r="B142" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C142" t="s">
         <v>1039</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1041</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -17366,13 +17460,13 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B398" t="s">
         <v>513</v>
       </c>
       <c r="C398" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D398">
         <v>1</v>
@@ -17380,15 +17474,85 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B399" t="s">
         <v>794</v>
       </c>
       <c r="C399" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B400" t="s">
+        <v>116</v>
+      </c>
+      <c r="C400" t="s">
+        <v>116</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D402">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B403" t="s">
+        <v>116</v>
+      </c>
+      <c r="C403" t="s">
+        <v>116</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D404">
         <v>2</v>
       </c>
     </row>
